--- a/docs/Examples/Two_Pyroxene_Thermobarometry/Cpx-Opx_outputs.xlsx
+++ b/docs/Examples/Two_Pyroxene_Thermobarometry/Cpx-Opx_outputs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="94">
   <si>
     <t>T_K_calc</t>
   </si>
@@ -28,9 +28,15 @@
     <t>Equation Choice (P)</t>
   </si>
   <si>
+    <t>Delta Kd High T</t>
+  </si>
+  <si>
     <t>High T Kd Eq?</t>
   </si>
   <si>
+    <t>Delta Kd Low T</t>
+  </si>
+  <si>
     <t>Low T Kd Eq?</t>
   </si>
   <si>
@@ -67,34 +73,34 @@
     <t>Sample_ID_Cpx</t>
   </si>
   <si>
-    <t>SiO2_Cpx_cat_6ox</t>
-  </si>
-  <si>
-    <t>MgO_Cpx_cat_6ox</t>
-  </si>
-  <si>
-    <t>FeOt_Cpx_cat_6ox</t>
-  </si>
-  <si>
-    <t>CaO_Cpx_cat_6ox</t>
-  </si>
-  <si>
-    <t>Al2O3_Cpx_cat_6ox</t>
-  </si>
-  <si>
-    <t>Na2O_Cpx_cat_6ox</t>
-  </si>
-  <si>
-    <t>K2O_Cpx_cat_6ox</t>
-  </si>
-  <si>
-    <t>MnO_Cpx_cat_6ox</t>
-  </si>
-  <si>
-    <t>TiO2_Cpx_cat_6ox</t>
-  </si>
-  <si>
-    <t>Cr2O3_Cpx_cat_6ox</t>
+    <t>Si_Cpx_cat_6ox</t>
+  </si>
+  <si>
+    <t>Mg_Cpx_cat_6ox</t>
+  </si>
+  <si>
+    <t>Fet_Cpx_cat_6ox</t>
+  </si>
+  <si>
+    <t>Ca_Cpx_cat_6ox</t>
+  </si>
+  <si>
+    <t>Al_Cpx_cat_6ox</t>
+  </si>
+  <si>
+    <t>Na_Cpx_cat_6ox</t>
+  </si>
+  <si>
+    <t>K_Cpx_cat_6ox</t>
+  </si>
+  <si>
+    <t>Mn_Cpx_cat_6ox</t>
+  </si>
+  <si>
+    <t>Ti_Cpx_cat_6ox</t>
+  </si>
+  <si>
+    <t>Cr_Cpx_cat_6ox</t>
   </si>
   <si>
     <t>oxy_renorm_factor</t>
@@ -112,6 +118,15 @@
     <t>Ca_CaMgFe</t>
   </si>
   <si>
+    <t>Lindley_Fe3_Cpx</t>
+  </si>
+  <si>
+    <t>Lindley_Fe2_Cpx</t>
+  </si>
+  <si>
+    <t>Lindley_Fe3_Cpx_prop</t>
+  </si>
+  <si>
     <t>CrCaTs</t>
   </si>
   <si>
@@ -181,34 +196,34 @@
     <t>Sample_ID_Opx</t>
   </si>
   <si>
-    <t>SiO2_Opx_cat_6ox</t>
-  </si>
-  <si>
-    <t>MgO_Opx_cat_6ox</t>
-  </si>
-  <si>
-    <t>FeOt_Opx_cat_6ox</t>
-  </si>
-  <si>
-    <t>CaO_Opx_cat_6ox</t>
-  </si>
-  <si>
-    <t>Al2O3_Opx_cat_6ox</t>
-  </si>
-  <si>
-    <t>Na2O_Opx_cat_6ox</t>
-  </si>
-  <si>
-    <t>K2O_Opx_cat_6ox</t>
-  </si>
-  <si>
-    <t>MnO_Opx_cat_6ox</t>
-  </si>
-  <si>
-    <t>TiO2_Opx_cat_6ox</t>
-  </si>
-  <si>
-    <t>Cr2O3_Opx_cat_6ox</t>
+    <t>Si_Opx_cat_6ox</t>
+  </si>
+  <si>
+    <t>Mg_Opx_cat_6ox</t>
+  </si>
+  <si>
+    <t>Fet_Opx_cat_6ox</t>
+  </si>
+  <si>
+    <t>Ca_Opx_cat_6ox</t>
+  </si>
+  <si>
+    <t>Al_Opx_cat_6ox</t>
+  </si>
+  <si>
+    <t>Na_Opx_cat_6ox</t>
+  </si>
+  <si>
+    <t>K_Opx_cat_6ox</t>
+  </si>
+  <si>
+    <t>Mn_Opx_cat_6ox</t>
+  </si>
+  <si>
+    <t>Ti_Opx_cat_6ox</t>
+  </si>
+  <si>
+    <t>Cr_Opx_cat_6ox</t>
   </si>
   <si>
     <t>oxy_renorm_factor_opx</t>
@@ -260,9 +275,6 @@
   </si>
   <si>
     <t>Lindley_Fe3_Opx</t>
-  </si>
-  <si>
-    <t>Lindley_Fe3_Cpx</t>
   </si>
   <si>
     <t>a_Di_cpx</t>
@@ -641,13 +653,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CJ24"/>
+  <dimension ref="A1:CN24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:88">
+    <row r="1" spans="1:92">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -859,22 +871,22 @@
         <v>69</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="BZ1" s="1" t="s">
         <v>75</v>
@@ -909,8 +921,20 @@
       <c r="CJ1" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="CK1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="2" spans="1:88">
+    <row r="2" spans="1:92">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -921,262 +945,274 @@
         <v>3.380885233220681</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" t="s">
-        <v>88</v>
+        <v>91</v>
+      </c>
+      <c r="F2">
+        <v>0.2553161317837727</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H2">
+        <v>0.1346838682162275</v>
+      </c>
+      <c r="I2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2">
         <v>52.3</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>0.7</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>3</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>5.1</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>0.11</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>16.6</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>21.5</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>0.33</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>0.58</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
         <v>1.91218424889622</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>0.9047835191662082</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>0.1559388107249287</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>0.8422473317993602</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>0.1292725208181389</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>0.02339317258720643</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
         <v>0.003406480127965248</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <v>0.01925110051435588</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>0.0167651945597167</v>
       </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
         <v>0.08781575110377959</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>0.04145676971435933</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <v>4.007242379194101</v>
       </c>
-      <c r="AG2">
+      <c r="AI2">
         <v>0.4425963002747781</v>
       </c>
-      <c r="AH2">
+      <c r="AJ2">
+        <v>0.01448475838819824</v>
+      </c>
+      <c r="AK2">
+        <v>0.1414540523367305</v>
+      </c>
+      <c r="AL2">
+        <v>0.09288744938390552</v>
+      </c>
+      <c r="AM2">
         <v>0.008382597279858349</v>
       </c>
-      <c r="AI2">
+      <c r="AN2">
         <v>0.1229771712892724</v>
       </c>
-      <c r="AJ2">
+      <c r="AO2">
         <v>0.8529839056515048</v>
       </c>
-      <c r="AK2">
+      <c r="AP2">
         <v>0.02339317258720643</v>
       </c>
-      <c r="AL2">
+      <c r="AQ2">
         <v>0.0180635971271529</v>
       </c>
-      <c r="AM2">
+      <c r="AR2">
         <v>0.03487607698831335</v>
       </c>
-      <c r="AN2">
+      <c r="AS2">
         <v>0.7809250604040356</v>
       </c>
-      <c r="AO2">
+      <c r="AT2">
         <v>0.1398986347435507</v>
       </c>
-      <c r="AP2">
+      <c r="AU2">
         <v>0.7809250604040356</v>
       </c>
-      <c r="AQ2">
+      <c r="AV2">
         <v>0.6639874023754356</v>
       </c>
-      <c r="AR2">
+      <c r="AW2">
         <v>0.01448475838819824</v>
       </c>
-      <c r="AS2">
+      <c r="AX2">
         <v>0.1414540523367305</v>
       </c>
-      <c r="AT2">
+      <c r="AY2">
         <v>55</v>
       </c>
-      <c r="AU2">
+      <c r="AZ2">
         <v>0.34</v>
       </c>
-      <c r="AV2">
+      <c r="BA2">
         <v>1.5</v>
       </c>
-      <c r="AW2">
+      <c r="BB2">
         <v>11.3</v>
       </c>
-      <c r="AX2">
+      <c r="BC2">
         <v>0.24</v>
       </c>
-      <c r="AY2">
+      <c r="BD2">
         <v>30.7</v>
       </c>
-      <c r="AZ2">
+      <c r="BE2">
         <v>0.9</v>
       </c>
-      <c r="BA2">
+      <c r="BF2">
         <v>0.01</v>
       </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
         <v>0.19</v>
       </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
         <v>1.943664819189635</v>
       </c>
-      <c r="BF2">
+      <c r="BK2">
         <v>1.617355930882357</v>
       </c>
-      <c r="BG2">
+      <c r="BL2">
         <v>0.3339589768983641</v>
       </c>
-      <c r="BH2">
+      <c r="BM2">
         <v>0.0340780181697155</v>
       </c>
-      <c r="BI2">
+      <c r="BN2">
         <v>0.06247508544477477</v>
       </c>
-      <c r="BJ2">
+      <c r="BO2">
         <v>0.0006851818051019169</v>
       </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
         <v>0.007183813567757172</v>
       </c>
-      <c r="BM2">
+      <c r="BR2">
         <v>0.00903789050241028</v>
       </c>
-      <c r="BN2">
+      <c r="BS2">
         <v>0.005308414685334384</v>
       </c>
-      <c r="BO2">
-        <v>0</v>
-      </c>
-      <c r="BP2">
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
         <v>0.05633518081036493</v>
       </c>
-      <c r="BQ2">
+      <c r="BV2">
         <v>0.006139904634409839</v>
       </c>
-      <c r="BR2">
+      <c r="BW2">
         <v>1.952702709692045</v>
       </c>
-      <c r="BS2">
+      <c r="BX2">
         <v>4.013748131145451</v>
       </c>
-      <c r="BT2">
+      <c r="BY2">
         <v>0.01716436969442805</v>
       </c>
-      <c r="BU2">
+      <c r="BZ2">
         <v>0.0006851818051019169</v>
       </c>
-      <c r="BV2">
+      <c r="CA2">
         <v>0.00903789050241028</v>
       </c>
-      <c r="BW2">
+      <c r="CB2">
         <v>0.005308414685334384</v>
       </c>
-      <c r="BX2">
+      <c r="CC2">
         <v>0.0001463081439735383</v>
       </c>
-      <c r="BY2">
+      <c r="CD2">
         <v>0.0340780181697155</v>
       </c>
-      <c r="BZ2">
+      <c r="CE2">
         <v>0.9576182522661897</v>
       </c>
-      <c r="CA2">
+      <c r="CF2">
         <v>0.7908146903243943</v>
       </c>
-      <c r="CB2">
+      <c r="CG2">
         <v>0.02814210915673055</v>
       </c>
-      <c r="CC2">
+      <c r="CH2">
         <v>0.8288496529558559</v>
       </c>
-      <c r="CD2">
+      <c r="CI2">
         <v>0.871733266616006</v>
       </c>
-      <c r="CE2">
+      <c r="CJ2">
         <v>0.8346838682162274</v>
       </c>
-      <c r="CF2">
+      <c r="CK2">
         <v>0.02749626229090206</v>
       </c>
-      <c r="CG2">
-        <v>0.01448475838819824</v>
-      </c>
-      <c r="CH2">
+      <c r="CL2">
         <v>0.6049906913301222</v>
       </c>
-      <c r="CI2">
+      <c r="CM2">
         <v>0.2160218179408092</v>
       </c>
-      <c r="CJ2">
+      <c r="CN2">
         <v>0.6450669795758558</v>
       </c>
     </row>
-    <row r="3" spans="1:88">
+    <row r="3" spans="1:92">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1187,262 +1223,274 @@
         <v>15.87875435350102</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="F3">
+        <v>0.006163375066125854</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H3">
+        <v>0.3838366249338743</v>
+      </c>
+      <c r="I3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3">
         <v>51.7</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.28</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>8.380000000000001</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>6.69</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>0.15</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>21.4</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>11.7</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>0.64</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
         <v>0.05</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>1</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>1.830350044707336</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>1.129447191923558</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>0.1980732022450571</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>0.443815646629561</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>0.3496588662222905</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>0.04393096290455207</v>
       </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
         <v>0.004498005655448692</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
         <v>0.007456432940183518</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>0.00139947831041592</v>
       </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
         <v>0.169649955292664</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>0.1800089109296265</v>
       </c>
-      <c r="AF3">
+      <c r="AH3">
         <v>4.008629831538403</v>
       </c>
-      <c r="AG3">
+      <c r="AI3">
         <v>0.2505541785451249</v>
       </c>
-      <c r="AH3">
+      <c r="AJ3">
+        <v>0.01725966307680662</v>
+      </c>
+      <c r="AK3">
+        <v>0.1808135391682504</v>
+      </c>
+      <c r="AL3">
+        <v>0.08713779997080517</v>
+      </c>
+      <c r="AM3">
         <v>0.0006997391552079601</v>
       </c>
-      <c r="AI3">
+      <c r="AN3">
         <v>0.4110860844996327</v>
       </c>
-      <c r="AJ3">
+      <c r="AO3">
         <v>0.8507903663063912</v>
       </c>
-      <c r="AK3">
+      <c r="AP3">
         <v>0.04393096290455207</v>
       </c>
-      <c r="AL3">
+      <c r="AQ3">
         <v>0.1360779480250744</v>
       </c>
-      <c r="AM3">
+      <c r="AR3">
         <v>0.01678600363379479</v>
       </c>
-      <c r="AN3">
+      <c r="AS3">
         <v>0.2902519558154839</v>
       </c>
-      <c r="AO3">
+      <c r="AT3">
         <v>0.5186342191765658</v>
       </c>
-      <c r="AP3">
+      <c r="AU3">
         <v>0.2902519558154839</v>
       </c>
-      <c r="AQ3">
+      <c r="AV3">
         <v>0.2461109069434917</v>
       </c>
-      <c r="AR3">
+      <c r="AW3">
         <v>0.01725966307680662</v>
       </c>
-      <c r="AS3">
+      <c r="AX3">
         <v>0.1808135391682504</v>
       </c>
-      <c r="AT3">
+      <c r="AY3">
         <v>52.7</v>
       </c>
-      <c r="AU3">
+      <c r="AZ3">
         <v>0.15</v>
       </c>
-      <c r="AV3">
+      <c r="BA3">
         <v>8.1</v>
       </c>
-      <c r="AW3">
+      <c r="BB3">
         <v>8.48</v>
       </c>
-      <c r="AX3">
+      <c r="BC3">
         <v>0.14</v>
       </c>
-      <c r="AY3">
+      <c r="BD3">
         <v>29.4</v>
       </c>
-      <c r="AZ3">
+      <c r="BE3">
         <v>2.14</v>
       </c>
-      <c r="BA3">
+      <c r="BF3">
         <v>0.14</v>
       </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
         <v>1</v>
       </c>
-      <c r="BE3">
+      <c r="BJ3">
         <v>1.82339591759014</v>
       </c>
-      <c r="BF3">
+      <c r="BK3">
         <v>1.516443517365618</v>
       </c>
-      <c r="BG3">
+      <c r="BL3">
         <v>0.245370421628838</v>
       </c>
-      <c r="BH3">
+      <c r="BM3">
         <v>0.07933362016769702</v>
       </c>
-      <c r="BI3">
+      <c r="BN3">
         <v>0.3303028318221297</v>
       </c>
-      <c r="BJ3">
+      <c r="BO3">
         <v>0.009391728644565724</v>
       </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
         <v>0.004102830029876121</v>
       </c>
-      <c r="BM3">
+      <c r="BR3">
         <v>0.003903831786106898</v>
       </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BO3">
-        <v>0</v>
-      </c>
-      <c r="BP3">
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
         <v>0.17660408240986</v>
       </c>
-      <c r="BQ3">
+      <c r="BV3">
         <v>0.1536987494122697</v>
       </c>
-      <c r="BR3">
+      <c r="BW3">
         <v>1.827299749376247</v>
       </c>
-      <c r="BS3">
+      <c r="BX3">
         <v>4.012244699034971</v>
       </c>
-      <c r="BT3">
+      <c r="BY3">
         <v>0.04308922431171089</v>
       </c>
-      <c r="BU3">
+      <c r="BZ3">
         <v>0.009391728644565724</v>
       </c>
-      <c r="BV3">
+      <c r="CA3">
         <v>0.003903831786106898</v>
       </c>
-      <c r="BW3">
-        <v>0</v>
-      </c>
-      <c r="BX3">
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
         <v>0.144307020767704</v>
       </c>
-      <c r="BY3">
+      <c r="CD3">
         <v>0.07933362016769702</v>
       </c>
-      <c r="BZ3">
+      <c r="CE3">
         <v>0.7691861481514123</v>
       </c>
-      <c r="CA3">
+      <c r="CF3">
         <v>0.6605222672278543</v>
       </c>
-      <c r="CB3">
+      <c r="CG3">
         <v>0.06812606127463119</v>
       </c>
-      <c r="CC3">
+      <c r="CH3">
         <v>0.8607245229691821</v>
       </c>
-      <c r="CD3">
+      <c r="CI3">
         <v>0.6785441281377402</v>
       </c>
-      <c r="CE3">
+      <c r="CJ3">
         <v>1.083836624933874</v>
       </c>
-      <c r="CF3">
+      <c r="CK3">
         <v>0.02448939806994227</v>
       </c>
-      <c r="CG3">
-        <v>0.01725966307680662</v>
-      </c>
-      <c r="CH3">
+      <c r="CL3">
         <v>0.3868095906580389</v>
       </c>
-      <c r="CI3">
+      <c r="CM3">
         <v>0.1426390722553426</v>
       </c>
-      <c r="CJ3">
+      <c r="CN3">
         <v>0.5690446657585179</v>
       </c>
     </row>
-    <row r="4" spans="1:88">
+    <row r="4" spans="1:92">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1453,262 +1501,274 @@
         <v>14.70263849337047</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="F4">
+        <v>0.04766233766233774</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H4">
+        <v>0.4376623376623379</v>
+      </c>
+      <c r="I4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4">
         <v>51.5</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.45</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>8.1</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>6.96</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0.17</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>20.3</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>12.6</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>0.5600000000000001</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
         <v>0.09</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>2</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>1.835204445506737</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>1.078404786970551</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>0.2074160967014196</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>0.4810839907647138</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>0.3401881313911095</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>0.03869121679038678</v>
       </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
         <v>0.00513110937163058</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <v>0.01206199686440545</v>
       </c>
-      <c r="AB4">
+      <c r="AD4">
         <v>0.002535550645027296</v>
       </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
         <v>0.1647955544932627</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <v>0.1753925768978469</v>
       </c>
-      <c r="AF4">
+      <c r="AH4">
         <v>4.000717325005981</v>
       </c>
-      <c r="AG4">
+      <c r="AI4">
         <v>0.2722749808011541</v>
       </c>
-      <c r="AH4">
+      <c r="AJ4">
+        <v>0.001434650011964377</v>
+      </c>
+      <c r="AK4">
+        <v>0.2059814466894552</v>
+      </c>
+      <c r="AL4">
+        <v>0.006916772780801047</v>
+      </c>
+      <c r="AM4">
         <v>0.001267775322513648</v>
       </c>
-      <c r="AI4">
+      <c r="AN4">
         <v>0.3886423471327197</v>
       </c>
-      <c r="AJ4">
+      <c r="AO4">
         <v>0.8386852239789249</v>
       </c>
-      <c r="AK4">
+      <c r="AP4">
         <v>0.03869121679038678</v>
       </c>
-      <c r="AL4">
+      <c r="AQ4">
         <v>0.1367013601074601</v>
       </c>
-      <c r="AM4">
+      <c r="AR4">
         <v>0.01404709719290129</v>
       </c>
-      <c r="AN4">
+      <c r="AS4">
         <v>0.3290677581418388</v>
       </c>
-      <c r="AO4">
+      <c r="AT4">
         <v>0.4783765627650658</v>
       </c>
-      <c r="AP4">
+      <c r="AU4">
         <v>0.3290677581418388</v>
       </c>
-      <c r="AQ4">
+      <c r="AV4">
         <v>0.2748888010786323</v>
       </c>
-      <c r="AR4">
+      <c r="AW4">
         <v>0.001434650011964377</v>
       </c>
-      <c r="AS4">
+      <c r="AX4">
         <v>0.2059814466894552</v>
       </c>
-      <c r="AT4">
+      <c r="AY4">
         <v>53.2</v>
       </c>
-      <c r="AU4">
+      <c r="AZ4">
         <v>0.2</v>
       </c>
-      <c r="AV4">
+      <c r="BA4">
         <v>7.4</v>
       </c>
-      <c r="AW4">
+      <c r="BB4">
         <v>8.800000000000001</v>
       </c>
-      <c r="AX4">
+      <c r="BC4">
         <v>0.13</v>
       </c>
-      <c r="AY4">
+      <c r="BD4">
         <v>29.2</v>
       </c>
-      <c r="AZ4">
+      <c r="BE4">
         <v>2.37</v>
       </c>
-      <c r="BA4">
+      <c r="BF4">
         <v>0.14</v>
       </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
         <v>0.02</v>
       </c>
-      <c r="BD4">
+      <c r="BI4">
         <v>2</v>
       </c>
-      <c r="BE4">
+      <c r="BJ4">
         <v>1.839965082542975</v>
       </c>
-      <c r="BF4">
+      <c r="BK4">
         <v>1.505529764854064</v>
       </c>
-      <c r="BG4">
+      <c r="BL4">
         <v>0.2545286155367468</v>
       </c>
-      <c r="BH4">
+      <c r="BM4">
         <v>0.08782525741657435</v>
       </c>
-      <c r="BI4">
+      <c r="BN4">
         <v>0.3016383691991302</v>
       </c>
-      <c r="BJ4">
+      <c r="BO4">
         <v>0.009388000891732752</v>
       </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
         <v>0.003808258572733541</v>
       </c>
-      <c r="BM4">
+      <c r="BR4">
         <v>0.005203043042965585</v>
       </c>
-      <c r="BN4">
+      <c r="BS4">
         <v>0.0005468654689600789</v>
       </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4">
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
         <v>0.1600349174570252</v>
       </c>
-      <c r="BQ4">
+      <c r="BV4">
         <v>0.1416034517421049</v>
       </c>
-      <c r="BR4">
+      <c r="BW4">
         <v>1.84516812558594</v>
       </c>
-      <c r="BS4">
+      <c r="BX4">
         <v>4.008433257525883</v>
       </c>
-      <c r="BT4">
+      <c r="BY4">
         <v>0.04752748258585363</v>
       </c>
-      <c r="BU4">
+      <c r="BZ4">
         <v>0.009388000891732752</v>
       </c>
-      <c r="BV4">
+      <c r="CA4">
         <v>0.005203043042965585</v>
       </c>
-      <c r="BW4">
+      <c r="CB4">
         <v>0.0005468654689600789</v>
       </c>
-      <c r="BX4">
+      <c r="CC4">
         <v>0.1316685853814121</v>
       </c>
-      <c r="BY4">
+      <c r="CD4">
         <v>0.08782525741657435</v>
       </c>
-      <c r="BZ4">
+      <c r="CE4">
         <v>0.7695848765612961</v>
       </c>
-      <c r="CA4">
+      <c r="CF4">
         <v>0.6568710539961172</v>
       </c>
-      <c r="CB4">
+      <c r="CG4">
         <v>0.07496232210861357</v>
       </c>
-      <c r="CC4">
+      <c r="CH4">
         <v>0.8553821330936716</v>
       </c>
-      <c r="CD4">
+      <c r="CI4">
         <v>0.6743777827482007</v>
       </c>
-      <c r="CE4">
+      <c r="CJ4">
         <v>1.137662337662338</v>
       </c>
-      <c r="CF4">
+      <c r="CK4">
         <v>0.01686651505176183</v>
       </c>
-      <c r="CG4">
-        <v>0.001434650011964377</v>
-      </c>
-      <c r="CH4">
+      <c r="CL4">
         <v>0.4122048017932542</v>
       </c>
-      <c r="CI4">
+      <c r="CM4">
         <v>0.1692475388184694</v>
       </c>
-      <c r="CJ4">
+      <c r="CN4">
         <v>0.5624631947442575</v>
       </c>
     </row>
-    <row r="5" spans="1:88">
+    <row r="5" spans="1:92">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1719,262 +1779,274 @@
         <v>3.489870998035558</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="F5">
+        <v>0.06035583544053935</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H5">
+        <v>0.4503558354405395</v>
+      </c>
+      <c r="I5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5">
         <v>51.06</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0.62</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>3.16</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>6.18</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>0.12</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>15.78</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>20.82</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>0.27</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
         <v>0.01</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>3</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>1.914575805266057</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>0.8820786294506604</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>0.1937921696525472</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>0.8364608470571403</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>0.1396483323552966</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>0.01962920259716995</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
         <v>0.003811168312794085</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <v>0.01748690373802507</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <v>0.000296445124776511</v>
       </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
         <v>0.08542419473394314</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <v>0.0542241376213535</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>4.007779503554468</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <v>0.437403652623026</v>
       </c>
-      <c r="AH5">
+      <c r="AJ5">
+        <v>0.01555900710893294</v>
+      </c>
+      <c r="AK5">
+        <v>0.1782331625436142</v>
+      </c>
+      <c r="AL5">
+        <v>0.08028707835217959</v>
+      </c>
+      <c r="AM5">
         <v>0.0001482225623882555</v>
       </c>
-      <c r="AI5">
+      <c r="AN5">
         <v>0.1324278085709997</v>
       </c>
-      <c r="AJ5">
+      <c r="AO5">
         <v>0.8198691911194588</v>
       </c>
-      <c r="AK5">
+      <c r="AP5">
         <v>0.01962920259716995</v>
       </c>
-      <c r="AL5">
+      <c r="AQ5">
         <v>0.03459493502418355</v>
       </c>
-      <c r="AM5">
+      <c r="AR5">
         <v>0.02541462985487979</v>
       </c>
-      <c r="AN5">
+      <c r="AS5">
         <v>0.7763030596156888</v>
       </c>
-      <c r="AO5">
+      <c r="AT5">
         <v>0.1497838697437593</v>
       </c>
-      <c r="AP5">
+      <c r="AU5">
         <v>0.7763030596156888</v>
       </c>
-      <c r="AQ5">
+      <c r="AV5">
         <v>0.6342241137017368</v>
       </c>
-      <c r="AR5">
+      <c r="AW5">
         <v>0.01555900710893294</v>
       </c>
-      <c r="AS5">
+      <c r="AX5">
         <v>0.1782331625436142</v>
       </c>
-      <c r="AT5">
+      <c r="AY5">
         <v>55.15</v>
       </c>
-      <c r="AU5">
+      <c r="AZ5">
         <v>0.17</v>
       </c>
-      <c r="AV5">
+      <c r="BA5">
         <v>1.19</v>
       </c>
-      <c r="AW5">
+      <c r="BB5">
         <v>10.21</v>
       </c>
-      <c r="AX5">
+      <c r="BC5">
         <v>0.22</v>
       </c>
-      <c r="AY5">
+      <c r="BD5">
         <v>29.99</v>
       </c>
-      <c r="AZ5">
+      <c r="BE5">
         <v>1.66</v>
       </c>
-      <c r="BA5">
+      <c r="BF5">
         <v>0.03</v>
       </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
         <v>0.15</v>
       </c>
-      <c r="BD5">
+      <c r="BI5">
         <v>3</v>
       </c>
-      <c r="BE5">
+      <c r="BJ5">
         <v>1.968729989703936</v>
       </c>
-      <c r="BF5">
+      <c r="BK5">
         <v>1.595973410243713</v>
       </c>
-      <c r="BG5">
+      <c r="BL5">
         <v>0.3048052031250226</v>
       </c>
-      <c r="BH5">
+      <c r="BM5">
         <v>0.06349241767348983</v>
       </c>
-      <c r="BI5">
+      <c r="BN5">
         <v>0.05006618696971186</v>
       </c>
-      <c r="BJ5">
+      <c r="BO5">
         <v>0.002076390495764731</v>
       </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
         <v>0.006651941910731183</v>
       </c>
-      <c r="BM5">
+      <c r="BR5">
         <v>0.00456477142300835</v>
       </c>
-      <c r="BN5">
+      <c r="BS5">
         <v>0.004233352727136003</v>
       </c>
-      <c r="BO5">
-        <v>0</v>
-      </c>
-      <c r="BP5">
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
         <v>0.03127001029606391</v>
       </c>
-      <c r="BQ5">
+      <c r="BV5">
         <v>0.01879617667364795</v>
       </c>
-      <c r="BR5">
+      <c r="BW5">
         <v>1.973294761126944</v>
       </c>
-      <c r="BS5">
+      <c r="BX5">
         <v>4.000593664272514</v>
       </c>
-      <c r="BT5">
+      <c r="BY5">
         <v>0.03232365425651128</v>
       </c>
-      <c r="BU5">
+      <c r="BZ5">
         <v>0.002076390495764731</v>
       </c>
-      <c r="BV5">
+      <c r="CA5">
         <v>0.00456477142300835</v>
       </c>
-      <c r="BW5">
+      <c r="CB5">
         <v>0.004233352727136003</v>
       </c>
-      <c r="BX5">
+      <c r="CC5">
         <v>0.01248643345074722</v>
       </c>
-      <c r="BY5">
+      <c r="CD5">
         <v>0.06349241767348983</v>
       </c>
-      <c r="BZ5">
+      <c r="CE5">
         <v>0.9134434663661105</v>
       </c>
-      <c r="CA5">
+      <c r="CF5">
         <v>0.7642907261006763</v>
       </c>
-      <c r="CB5">
+      <c r="CG5">
         <v>0.05312498013545301</v>
       </c>
-      <c r="CC5">
+      <c r="CH5">
         <v>0.8396374252284241</v>
       </c>
-      <c r="CD5">
+      <c r="CI5">
         <v>0.8128068595541578</v>
       </c>
-      <c r="CE5">
+      <c r="CJ5">
         <v>1.150355835440539</v>
       </c>
-      <c r="CF5">
+      <c r="CK5">
         <v>0.001187328545027985</v>
       </c>
-      <c r="CG5">
-        <v>0.01555900710893294</v>
-      </c>
-      <c r="CH5">
+      <c r="CL5">
         <v>0.6017456683284581</v>
       </c>
-      <c r="CI5">
+      <c r="CM5">
         <v>0.3882398589631559</v>
       </c>
-      <c r="CJ5">
+      <c r="CN5">
         <v>0.6367050952016527</v>
       </c>
     </row>
-    <row r="6" spans="1:88">
+    <row r="6" spans="1:92">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1985,262 +2057,274 @@
         <v>5.074810251425615</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="F6">
+        <v>0.02699712806593113</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H6">
+        <v>0.363002871934069</v>
+      </c>
+      <c r="I6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6">
         <v>53.32</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0.48</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>2.25</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>5.92</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>0.15</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>16.91</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>20.73</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>0.28</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>0.12</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>4</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>1.947745506167132</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>0.9208613035710217</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>0.1808505238239727</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>0.8113617102902917</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>0.09686826109734731</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>0.01983111984188925</v>
       </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
         <v>0.004641073606929399</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <v>0.01318902773668324</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <v>0.003465579555458465</v>
       </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
         <v>0.05225449383286773</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <v>0.04461376726447958</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <v>3.998814105690726</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <v>0.4241142299589773</v>
       </c>
-      <c r="AH6">
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0.1808505238239727</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
         <v>0.001732789777729232</v>
       </c>
-      <c r="AI6">
+      <c r="AN6">
         <v>0.1586648164186252</v>
       </c>
-      <c r="AJ6">
+      <c r="AO6">
         <v>0.8358413071254758</v>
       </c>
-      <c r="AK6">
+      <c r="AP6">
         <v>0.01983111984188925</v>
       </c>
-      <c r="AL6">
+      <c r="AQ6">
         <v>0.02478264742259033</v>
       </c>
-      <c r="AM6">
+      <c r="AR6">
         <v>0.0137359232051387</v>
       </c>
-      <c r="AN6">
+      <c r="AS6">
         <v>0.7711103498848334</v>
       </c>
-      <c r="AO6">
+      <c r="AT6">
         <v>0.1653007387550805</v>
       </c>
-      <c r="AP6">
+      <c r="AU6">
         <v>0.7711103498848334</v>
       </c>
-      <c r="AQ6">
+      <c r="AV6">
         <v>0.6418256610065323</v>
       </c>
-      <c r="AR6">
+      <c r="AW6">
         <v>-0.002371788618547551</v>
       </c>
-      <c r="AS6">
+      <c r="AX6">
         <v>0.1832223124425203</v>
       </c>
-      <c r="AT6">
+      <c r="AY6">
         <v>56.32</v>
       </c>
-      <c r="AU6">
+      <c r="AZ6">
         <v>0.13</v>
       </c>
-      <c r="AV6">
+      <c r="BA6">
         <v>1.41</v>
       </c>
-      <c r="AW6">
+      <c r="BB6">
         <v>10.17</v>
       </c>
-      <c r="AX6">
+      <c r="BC6">
         <v>0.26</v>
       </c>
-      <c r="AY6">
+      <c r="BD6">
         <v>30.88</v>
       </c>
-      <c r="AZ6">
+      <c r="BE6">
         <v>1.05</v>
       </c>
-      <c r="BA6">
+      <c r="BF6">
         <v>0.02</v>
       </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
         <v>0.16</v>
       </c>
-      <c r="BD6">
+      <c r="BI6">
         <v>4</v>
       </c>
-      <c r="BE6">
+      <c r="BJ6">
         <v>1.971270522634756</v>
       </c>
-      <c r="BF6">
+      <c r="BK6">
         <v>1.611274072658397</v>
       </c>
-      <c r="BG6">
+      <c r="BL6">
         <v>0.2976874518029979</v>
       </c>
-      <c r="BH6">
+      <c r="BM6">
         <v>0.03937730748958942</v>
       </c>
-      <c r="BI6">
+      <c r="BN6">
         <v>0.0581647156864095</v>
       </c>
-      <c r="BJ6">
+      <c r="BO6">
         <v>0.001357252701294397</v>
       </c>
-      <c r="BK6">
-        <v>0</v>
-      </c>
-      <c r="BL6">
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
         <v>0.007708006222571412</v>
       </c>
-      <c r="BM6">
+      <c r="BR6">
         <v>0.003422602063461516</v>
       </c>
-      <c r="BN6">
+      <c r="BS6">
         <v>0.004427475033165146</v>
       </c>
-      <c r="BO6">
-        <v>0</v>
-      </c>
-      <c r="BP6">
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
         <v>0.02872947736524378</v>
       </c>
-      <c r="BQ6">
+      <c r="BV6">
         <v>0.02943523832116571</v>
       </c>
-      <c r="BR6">
+      <c r="BW6">
         <v>1.974693124698218</v>
       </c>
-      <c r="BS6">
+      <c r="BX6">
         <v>3.994689406292642</v>
       </c>
-      <c r="BT6">
+      <c r="BY6">
         <v>0.02021070813958917</v>
       </c>
-      <c r="BU6">
+      <c r="BZ6">
         <v>0.001357252701294397</v>
       </c>
-      <c r="BV6">
+      <c r="CA6">
         <v>0.003422602063461516</v>
       </c>
-      <c r="BW6">
+      <c r="CB6">
         <v>0.004427475033165146</v>
       </c>
-      <c r="BX6">
+      <c r="CC6">
         <v>0.02365051058670617</v>
       </c>
-      <c r="BY6">
+      <c r="CD6">
         <v>0.03937730748958942</v>
       </c>
-      <c r="BZ6">
+      <c r="CE6">
         <v>0.9251095552721045</v>
       </c>
-      <c r="CA6">
+      <c r="CF6">
         <v>0.777705815695081</v>
       </c>
-      <c r="CB6">
+      <c r="CG6">
         <v>0.03310306424416908</v>
       </c>
-      <c r="CC6">
+      <c r="CH6">
         <v>0.8440535120033101</v>
       </c>
-      <c r="CD6">
+      <c r="CI6">
         <v>0.8296045865037032</v>
       </c>
-      <c r="CE6">
+      <c r="CJ6">
         <v>1.063002871934069</v>
       </c>
-      <c r="CF6">
-        <v>0</v>
-      </c>
-      <c r="CG6">
-        <v>0</v>
-      </c>
-      <c r="CH6">
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
         <v>0.5851068494828572</v>
       </c>
-      <c r="CI6">
+      <c r="CM6">
         <v>0.2087450408407878</v>
       </c>
-      <c r="CJ6">
+      <c r="CN6">
         <v>0.6525320737780236</v>
       </c>
     </row>
-    <row r="7" spans="1:88">
+    <row r="7" spans="1:92">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2251,262 +2335,274 @@
         <v>18.82914054240627</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="F7">
+        <v>0.07565174043088119</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H7">
+        <v>0.3143482595691189</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7">
         <v>51.58</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>7.28</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>3.75</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
         <v>19.55</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>15.94</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>0.7</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
         <v>1.2</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>5</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>1.847739386950514</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>1.044034105337072</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>0.1123431612417111</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>0.6118160023842923</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>0.3073602305446699</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>0.04861883589316607</v>
       </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
         <v>0.03398546224820651</v>
       </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
         <v>0.1522606130494861</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <v>0.1550996174951838</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <v>4.005897184599632</v>
       </c>
-      <c r="AG7">
+      <c r="AI7">
         <v>0.3460119507994059</v>
       </c>
-      <c r="AH7">
+      <c r="AJ7">
+        <v>0.01179436919926188</v>
+      </c>
+      <c r="AK7">
+        <v>0.1005487920424493</v>
+      </c>
+      <c r="AL7">
+        <v>0.1049851995341825</v>
+      </c>
+      <c r="AM7">
         <v>0.01699273112410326</v>
       </c>
-      <c r="AI7">
+      <c r="AN7">
         <v>0.2733559775978762</v>
       </c>
-      <c r="AJ7">
+      <c r="AO7">
         <v>0.9028461101900846</v>
       </c>
-      <c r="AK7">
+      <c r="AP7">
         <v>0.04861883589316607</v>
       </c>
-      <c r="AL7">
+      <c r="AQ7">
         <v>0.1064807816020177</v>
       </c>
-      <c r="AM7">
+      <c r="AR7">
         <v>0.02288991572373419</v>
       </c>
-      <c r="AN7">
+      <c r="AS7">
         <v>0.4654525739344371</v>
       </c>
-      <c r="AO7">
+      <c r="AT7">
         <v>0.3454623463221731</v>
       </c>
-      <c r="AP7">
+      <c r="AU7">
         <v>0.4654525739344371</v>
       </c>
-      <c r="AQ7">
+      <c r="AV7">
         <v>0.4202334096744975</v>
       </c>
-      <c r="AR7">
+      <c r="AW7">
         <v>0.01179436919926188</v>
       </c>
-      <c r="AS7">
+      <c r="AX7">
         <v>0.1005487920424493</v>
       </c>
-      <c r="AT7">
+      <c r="AY7">
         <v>54.4</v>
       </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
         <v>5.4</v>
       </c>
-      <c r="AW7">
+      <c r="BB7">
         <v>5.9</v>
       </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
         <v>31.2</v>
       </c>
-      <c r="AZ7">
+      <c r="BE7">
         <v>2.3</v>
       </c>
-      <c r="BA7">
+      <c r="BF7">
         <v>0.2</v>
       </c>
-      <c r="BB7">
-        <v>0</v>
-      </c>
-      <c r="BC7">
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
         <v>0.6</v>
       </c>
-      <c r="BD7">
+      <c r="BI7">
         <v>5</v>
       </c>
-      <c r="BE7">
+      <c r="BJ7">
         <v>1.884938896072823</v>
       </c>
-      <c r="BF7">
+      <c r="BK7">
         <v>1.611615798778292</v>
       </c>
-      <c r="BG7">
+      <c r="BL7">
         <v>0.1709646738994268</v>
       </c>
-      <c r="BH7">
+      <c r="BM7">
         <v>0.08538849300403954</v>
       </c>
-      <c r="BI7">
+      <c r="BN7">
         <v>0.2205205422444773</v>
       </c>
-      <c r="BJ7">
+      <c r="BO7">
         <v>0.01343617060584427</v>
       </c>
-      <c r="BK7">
-        <v>0</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
         <v>0.01643622900197294</v>
       </c>
-      <c r="BO7">
-        <v>0</v>
-      </c>
-      <c r="BP7">
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
         <v>0.1150611039271772</v>
       </c>
-      <c r="BQ7">
+      <c r="BV7">
         <v>0.1054594383173002</v>
       </c>
-      <c r="BR7">
+      <c r="BW7">
         <v>1.884938896072823</v>
       </c>
-      <c r="BS7">
+      <c r="BX7">
         <v>4.003300803606875</v>
       </c>
-      <c r="BT7">
+      <c r="BY7">
         <v>0.04571194413440111</v>
       </c>
-      <c r="BU7">
+      <c r="BZ7">
         <v>0.01343617060584427</v>
       </c>
-      <c r="BV7">
-        <v>0</v>
-      </c>
-      <c r="BW7">
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
         <v>0.01643622900197294</v>
       </c>
-      <c r="BX7">
+      <c r="CC7">
         <v>0.07558703870948297</v>
       </c>
-      <c r="BY7">
+      <c r="CD7">
         <v>0.08538849300403954</v>
       </c>
-      <c r="BZ7">
+      <c r="CE7">
         <v>0.8108024704820979</v>
       </c>
-      <c r="CA7">
+      <c r="CF7">
         <v>0.7330395968909862</v>
       </c>
-      <c r="CB7">
+      <c r="CG7">
         <v>0.07719900810562709</v>
       </c>
-      <c r="CC7">
+      <c r="CH7">
         <v>0.9040885727474076</v>
       </c>
-      <c r="CD7">
+      <c r="CI7">
         <v>0.7579658805231981</v>
       </c>
-      <c r="CE7">
+      <c r="CJ7">
         <v>1.014348259569119</v>
       </c>
-      <c r="CF7">
+      <c r="CK7">
         <v>0.006601607213748313</v>
       </c>
-      <c r="CG7">
-        <v>0.01179436919926188</v>
-      </c>
-      <c r="CH7">
+      <c r="CL7">
         <v>0.4963113132676807</v>
       </c>
-      <c r="CI7">
+      <c r="CM7">
         <v>0.219969121675572</v>
       </c>
-      <c r="CJ7">
+      <c r="CN7">
         <v>0.647330384782533</v>
       </c>
     </row>
-    <row r="8" spans="1:88">
+    <row r="8" spans="1:92">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2517,262 +2613,274 @@
         <v>17.02961098278467</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="F8">
+        <v>0.09557103064066852</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H8">
+        <v>0.2944289693593316</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8">
         <v>51.12</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>0.1</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>8.07</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>3.57</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>17.95</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>17.26</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>0.77</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
         <v>1.16</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>6</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>1.836457648668606</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>0.9613091380575769</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>0.1072541936923052</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>0.664360800737868</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>0.3416807582724471</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>0.05363248682996966</v>
       </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
       <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
         <v>0.002702212795555727</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <v>0.03294584250684793</v>
       </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
         <v>0.1635423513313941</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>0.178138406941053</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <v>4.000343081561176</v>
       </c>
-      <c r="AG8">
+      <c r="AI8">
         <v>0.3833755836639688</v>
       </c>
-      <c r="AH8">
+      <c r="AJ8">
+        <v>0.0006861631223512785</v>
+      </c>
+      <c r="AK8">
+        <v>0.1065680305699539</v>
+      </c>
+      <c r="AL8">
+        <v>0.006397541193771583</v>
+      </c>
+      <c r="AM8">
         <v>0.01647292125342397</v>
       </c>
-      <c r="AI8">
+      <c r="AN8">
         <v>0.2216207437492193</v>
       </c>
-      <c r="AJ8">
+      <c r="AO8">
         <v>0.8996246513678383</v>
       </c>
-      <c r="AK8">
+      <c r="AP8">
         <v>0.05363248682996966</v>
       </c>
-      <c r="AL8">
+      <c r="AQ8">
         <v>0.1245059201110834</v>
       </c>
-      <c r="AM8">
+      <c r="AR8">
         <v>0.01951821561015533</v>
       </c>
-      <c r="AN8">
+      <c r="AS8">
         <v>0.5038637437632053</v>
       </c>
-      <c r="AO8">
+      <c r="AT8">
         <v>0.2823497939933383</v>
       </c>
-      <c r="AP8">
+      <c r="AU8">
         <v>0.5038637437632053</v>
       </c>
-      <c r="AQ8">
+      <c r="AV8">
         <v>0.4532897646995495</v>
       </c>
-      <c r="AR8">
+      <c r="AW8">
         <v>0.0006861631223512785</v>
       </c>
-      <c r="AS8">
+      <c r="AX8">
         <v>0.1065680305699539</v>
       </c>
-      <c r="AT8">
+      <c r="AY8">
         <v>54.1</v>
       </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
         <v>5.7</v>
       </c>
-      <c r="AW8">
+      <c r="BB8">
         <v>6.3</v>
       </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
         <v>31.5</v>
       </c>
-      <c r="AZ8">
+      <c r="BE8">
         <v>1.65</v>
       </c>
-      <c r="BA8">
+      <c r="BF8">
         <v>0.25</v>
       </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8">
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
         <v>0.5</v>
       </c>
-      <c r="BD8">
+      <c r="BI8">
         <v>6</v>
       </c>
-      <c r="BE8">
+      <c r="BJ8">
         <v>1.875133739150574</v>
       </c>
-      <c r="BF8">
+      <c r="BK8">
         <v>1.627623989793591</v>
       </c>
-      <c r="BG8">
+      <c r="BL8">
         <v>0.1826129307362284</v>
       </c>
-      <c r="BH8">
+      <c r="BM8">
         <v>0.06127623365431869</v>
       </c>
-      <c r="BI8">
+      <c r="BN8">
         <v>0.2328449128495909</v>
       </c>
-      <c r="BJ8">
+      <c r="BO8">
         <v>0.01680049698793725</v>
       </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BM8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
         <v>0.01370116649757252</v>
       </c>
-      <c r="BO8">
-        <v>0</v>
-      </c>
-      <c r="BP8">
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
         <v>0.124866260849426</v>
       </c>
-      <c r="BQ8">
+      <c r="BV8">
         <v>0.1079786520001649</v>
       </c>
-      <c r="BR8">
+      <c r="BW8">
         <v>1.875133739150574</v>
       </c>
-      <c r="BS8">
+      <c r="BX8">
         <v>4.009993469669814</v>
       </c>
-      <c r="BT8">
+      <c r="BY8">
         <v>0.03274154580069263</v>
       </c>
-      <c r="BU8">
+      <c r="BZ8">
         <v>0.01680049698793725</v>
       </c>
-      <c r="BV8">
-        <v>0</v>
-      </c>
-      <c r="BW8">
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
         <v>0.01370116649757252</v>
       </c>
-      <c r="BX8">
+      <c r="CC8">
         <v>0.07747698851465513</v>
       </c>
-      <c r="BY8">
+      <c r="CD8">
         <v>0.06127623365431869</v>
       </c>
-      <c r="BZ8">
+      <c r="CE8">
         <v>0.835741849180423</v>
       </c>
-      <c r="CA8">
+      <c r="CF8">
         <v>0.7514339518621626</v>
       </c>
-      <c r="CB8">
+      <c r="CG8">
         <v>0.05509481481063605</v>
       </c>
-      <c r="CC8">
+      <c r="CH8">
         <v>0.899119052553486</v>
       </c>
-      <c r="CD8">
+      <c r="CI8">
         <v>0.7840743493974384</v>
       </c>
-      <c r="CE8">
+      <c r="CJ8">
         <v>0.9944289693593316</v>
       </c>
-      <c r="CF8">
+      <c r="CK8">
         <v>0.01998693933962581</v>
       </c>
-      <c r="CG8">
-        <v>0.0006861631223512785</v>
-      </c>
-      <c r="CH8">
+      <c r="CL8">
         <v>0.5306684937570609</v>
       </c>
-      <c r="CI8">
+      <c r="CM8">
         <v>0.1825657842976271</v>
       </c>
-      <c r="CJ8">
+      <c r="CN8">
         <v>0.656377632234921</v>
       </c>
     </row>
-    <row r="9" spans="1:88">
+    <row r="9" spans="1:92">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2783,71 +2891,71 @@
         <v>8.915744173967228</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="F9">
+        <v>0.04053839957035454</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H9">
+        <v>0.4305383995703547</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9">
         <v>52.5</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>5.19</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>4.12</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>21.28</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>15.45</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
         <v>1.45</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>7</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>1.879277289509372</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>1.13556430151893</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>0.1233345552622844</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>0.5925611604137444</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>0.2189554881030956</v>
       </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
       <c r="Z9">
         <v>0</v>
       </c>
@@ -2855,190 +2963,202 @@
         <v>0</v>
       </c>
       <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
         <v>0.04103478108777066</v>
       </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
         <v>0.1207227104906279</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <v>0.09823277761246768</v>
       </c>
-      <c r="AF9">
+      <c r="AH9">
         <v>3.990727575895197</v>
       </c>
-      <c r="AG9">
+      <c r="AI9">
         <v>0.320050746389598</v>
       </c>
-      <c r="AH9">
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0.1233345552622844</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
         <v>0.02051739054388533</v>
       </c>
-      <c r="AI9">
+      <c r="AN9">
         <v>0.3544737727948332</v>
       </c>
-      <c r="AJ9">
+      <c r="AO9">
         <v>0.9020268617931068</v>
       </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
         <v>0.09823277761246768</v>
       </c>
-      <c r="AM9">
+      <c r="AR9">
         <v>0.0112449664390801</v>
       </c>
-      <c r="AN9">
+      <c r="AS9">
         <v>0.4625660258183113</v>
       </c>
-      <c r="AO9">
+      <c r="AT9">
         <v>0.3981664154814514</v>
       </c>
-      <c r="AP9">
+      <c r="AU9">
         <v>0.4625660258183113</v>
       </c>
-      <c r="AQ9">
+      <c r="AV9">
         <v>0.4172483461918386</v>
       </c>
-      <c r="AR9">
+      <c r="AW9">
         <v>-0.01854484820961046</v>
       </c>
-      <c r="AS9">
+      <c r="AX9">
         <v>0.1418794034718949</v>
       </c>
-      <c r="AT9">
+      <c r="AY9">
         <v>55.2</v>
       </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
         <v>3.3</v>
       </c>
-      <c r="AW9">
+      <c r="BB9">
         <v>5.6</v>
       </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
         <v>32.7</v>
       </c>
-      <c r="AZ9">
+      <c r="BE9">
         <v>2</v>
       </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-      <c r="BB9">
-        <v>0</v>
-      </c>
-      <c r="BC9">
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
         <v>1.3</v>
       </c>
-      <c r="BD9">
+      <c r="BI9">
         <v>7</v>
       </c>
-      <c r="BE9">
+      <c r="BJ9">
         <v>1.910589260875411</v>
       </c>
-      <c r="BF9">
+      <c r="BK9">
         <v>1.687269875927155</v>
       </c>
-      <c r="BG9">
+      <c r="BL9">
         <v>0.1620959916361255</v>
       </c>
-      <c r="BH9">
+      <c r="BM9">
         <v>0.07417053071472725</v>
       </c>
-      <c r="BI9">
+      <c r="BN9">
         <v>0.134616752611653</v>
       </c>
-      <c r="BJ9">
-        <v>0</v>
-      </c>
-      <c r="BK9">
-        <v>0</v>
-      </c>
-      <c r="BL9">
-        <v>0</v>
-      </c>
-      <c r="BM9">
-        <v>0</v>
-      </c>
-      <c r="BN9">
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
         <v>0.03557330070246002</v>
       </c>
-      <c r="BO9">
-        <v>0</v>
-      </c>
-      <c r="BP9">
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
         <v>0.08941073912458886</v>
       </c>
-      <c r="BQ9">
+      <c r="BV9">
         <v>0.0452060134870641</v>
       </c>
-      <c r="BR9">
+      <c r="BW9">
         <v>1.910589260875411</v>
       </c>
-      <c r="BS9">
+      <c r="BX9">
         <v>4.004315712467532</v>
       </c>
-      <c r="BT9">
+      <c r="BY9">
         <v>0.03855946307079312</v>
       </c>
-      <c r="BU9">
-        <v>0</v>
-      </c>
-      <c r="BV9">
-        <v>0</v>
-      </c>
-      <c r="BW9">
+      <c r="BZ9">
+        <v>0</v>
+      </c>
+      <c r="CA9">
+        <v>0</v>
+      </c>
+      <c r="CB9">
         <v>0.03557330070246002</v>
       </c>
-      <c r="BX9">
+      <c r="CC9">
         <v>0.009632712784604078</v>
       </c>
-      <c r="BY9">
+      <c r="CD9">
         <v>0.07417053071472725</v>
       </c>
-      <c r="BZ9">
+      <c r="CE9">
         <v>0.8827813120319747</v>
       </c>
-      <c r="CA9">
+      <c r="CF9">
         <v>0.8054059723647596</v>
       </c>
-      <c r="CB9">
+      <c r="CG9">
         <v>0.06766952086197023</v>
       </c>
-      <c r="CC9">
+      <c r="CH9">
         <v>0.9123478297178509</v>
       </c>
-      <c r="CD9">
+      <c r="CI9">
         <v>0.8226481108546227</v>
       </c>
-      <c r="CE9">
+      <c r="CJ9">
         <v>1.130538399570355</v>
       </c>
-      <c r="CF9">
+      <c r="CK9">
         <v>0.008631424935064733</v>
       </c>
-      <c r="CG9">
-        <v>0</v>
-      </c>
-      <c r="CH9">
+      <c r="CL9">
         <v>0.484906731449457</v>
       </c>
-      <c r="CI9">
+      <c r="CM9">
         <v>0.1820408942604629</v>
       </c>
-      <c r="CJ9">
+      <c r="CN9">
         <v>0.7086992178758251</v>
       </c>
     </row>
-    <row r="10" spans="1:88">
+    <row r="10" spans="1:92">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3049,262 +3169,274 @@
         <v>8.625977316843088</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="F10">
+        <v>0.04504138746551001</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H10">
+        <v>0.4350413874655101</v>
+      </c>
+      <c r="I10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10">
         <v>51.8</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>0.17</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>5.1</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>4.6</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>0.19</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>21.5</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>14.9</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>0.21</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
         <v>1.58</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>8</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>1.861378461256139</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>1.151733316417911</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>0.1382352334074168</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>0.5736728929273812</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>0.2159891900473516</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>0.01463091059973884</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
         <v>0.005782872969811762</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
         <v>0.004594976766137785</v>
       </c>
-      <c r="AB10">
+      <c r="AD10">
         <v>0.04488637857468496</v>
       </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
         <v>0.1386215387438605</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <v>0.07736765130349105</v>
       </c>
-      <c r="AF10">
+      <c r="AH10">
         <v>4.010904232966573</v>
       </c>
-      <c r="AG10">
+      <c r="AI10">
         <v>0.3078236401955262</v>
       </c>
-      <c r="AH10">
+      <c r="AJ10">
+        <v>0.02180846593314778</v>
+      </c>
+      <c r="AK10">
+        <v>0.1164267674742691</v>
+      </c>
+      <c r="AL10">
+        <v>0.1577634398668269</v>
+      </c>
+      <c r="AM10">
         <v>0.02244318928734248</v>
       </c>
-      <c r="AI10">
+      <c r="AN10">
         <v>0.3549837116732603</v>
       </c>
-      <c r="AJ10">
+      <c r="AO10">
         <v>0.892835095552128</v>
       </c>
-      <c r="AK10">
+      <c r="AP10">
         <v>0.01463091059973884</v>
       </c>
-      <c r="AL10">
+      <c r="AQ10">
         <v>0.06273674070375221</v>
       </c>
-      <c r="AM10">
+      <c r="AR10">
         <v>0.03794239902005415</v>
       </c>
-      <c r="AN10">
+      <c r="AS10">
         <v>0.4505505639162324</v>
       </c>
-      <c r="AO10">
+      <c r="AT10">
         <v>0.4197089929545478</v>
       </c>
-      <c r="AP10">
+      <c r="AU10">
         <v>0.4505505639162324</v>
       </c>
-      <c r="AQ10">
+      <c r="AV10">
         <v>0.4004734905664414</v>
       </c>
-      <c r="AR10">
+      <c r="AW10">
         <v>0.02180846593314778</v>
       </c>
-      <c r="AS10">
+      <c r="AX10">
         <v>0.1164267674742691</v>
       </c>
-      <c r="AT10">
+      <c r="AY10">
         <v>54.1</v>
       </c>
-      <c r="AU10">
+      <c r="AZ10">
         <v>0.09</v>
       </c>
-      <c r="AV10">
+      <c r="BA10">
         <v>4.2</v>
       </c>
-      <c r="AW10">
+      <c r="BB10">
         <v>5.9</v>
       </c>
-      <c r="AX10">
+      <c r="BC10">
         <v>0.21</v>
       </c>
-      <c r="AY10">
+      <c r="BD10">
         <v>31.3</v>
       </c>
-      <c r="AZ10">
+      <c r="BE10">
         <v>2.9</v>
       </c>
-      <c r="BA10">
+      <c r="BF10">
         <v>0.04</v>
       </c>
-      <c r="BB10">
-        <v>0</v>
-      </c>
-      <c r="BC10">
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
         <v>1.32</v>
       </c>
-      <c r="BD10">
+      <c r="BI10">
         <v>8</v>
       </c>
-      <c r="BE10">
+      <c r="BJ10">
         <v>1.884529079318038</v>
       </c>
-      <c r="BF10">
+      <c r="BK10">
         <v>1.625393285077764</v>
       </c>
-      <c r="BG10">
+      <c r="BL10">
         <v>0.1718753453420814</v>
       </c>
-      <c r="BH10">
+      <c r="BM10">
         <v>0.1082372407241173</v>
       </c>
-      <c r="BI10">
+      <c r="BN10">
         <v>0.1724295853521207</v>
       </c>
-      <c r="BJ10">
+      <c r="BO10">
         <v>0.002701548115504989</v>
       </c>
-      <c r="BK10">
-        <v>0</v>
-      </c>
-      <c r="BL10">
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
         <v>0.006195979895008837</v>
       </c>
-      <c r="BM10">
+      <c r="BR10">
         <v>0.002358183310942092</v>
       </c>
-      <c r="BN10">
+      <c r="BS10">
         <v>0.03635231441142317</v>
       </c>
-      <c r="BO10">
-        <v>0</v>
-      </c>
-      <c r="BP10">
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
         <v>0.115470920681962</v>
       </c>
-      <c r="BQ10">
+      <c r="BV10">
         <v>0.0569586646701587</v>
       </c>
-      <c r="BR10">
+      <c r="BW10">
         <v>1.88688726262898</v>
       </c>
-      <c r="BS10">
+      <c r="BX10">
         <v>4.010072561547001</v>
       </c>
-      <c r="BT10">
+      <c r="BY10">
         <v>0.05680236537877342</v>
       </c>
-      <c r="BU10">
+      <c r="BZ10">
         <v>0.002701548115504989</v>
       </c>
-      <c r="BV10">
+      <c r="CA10">
         <v>0.002358183310942092</v>
       </c>
-      <c r="BW10">
+      <c r="CB10">
         <v>0.03635231441142317</v>
       </c>
-      <c r="BX10">
+      <c r="CC10">
         <v>0.01790480214323054</v>
       </c>
-      <c r="BY10">
+      <c r="CD10">
         <v>0.1082372407241173</v>
       </c>
-      <c r="BZ10">
+      <c r="CE10">
         <v>0.837482192068282</v>
       </c>
-      <c r="CA10">
+      <c r="CF10">
         <v>0.7547904869185887</v>
       </c>
-      <c r="CB10">
+      <c r="CG10">
         <v>0.09755006184324942</v>
       </c>
-      <c r="CC10">
+      <c r="CH10">
         <v>0.9043656941674904</v>
       </c>
-      <c r="CD10">
+      <c r="CI10">
         <v>0.7693168123217753</v>
       </c>
-      <c r="CE10">
+      <c r="CJ10">
         <v>1.13504138746551</v>
       </c>
-      <c r="CF10">
+      <c r="CK10">
         <v>0.02014512309400091</v>
       </c>
-      <c r="CG10">
-        <v>0.02180846593314778</v>
-      </c>
-      <c r="CH10">
+      <c r="CL10">
         <v>0.4670969212181884</v>
       </c>
-      <c r="CI10">
+      <c r="CM10">
         <v>0.253883083971202</v>
       </c>
-      <c r="CJ10">
+      <c r="CN10">
         <v>0.6538733533098016</v>
       </c>
     </row>
-    <row r="11" spans="1:88">
+    <row r="11" spans="1:92">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3315,262 +3447,274 @@
         <v>9.720729521746621</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="F11">
+        <v>0.04861241834087449</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H11">
+        <v>0.4386124183408746</v>
+      </c>
+      <c r="I11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11">
         <v>51.67</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>0.16</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>5.62</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>4.45</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>0.16</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>21.82</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>14.34</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>0.22</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
         <v>1.56</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>9</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>1.852752418471857</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>1.166385787529004</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>0.1334427343054796</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>0.5509360803866258</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>0.2375046725662534</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>0.015294974087112</v>
       </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
         <v>0.004859415526203699</v>
       </c>
-      <c r="AA11">
+      <c r="AC11">
         <v>0.004315472802421606</v>
       </c>
-      <c r="AB11">
+      <c r="AD11">
         <v>0.04422380254079628</v>
       </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
         <v>0.1472475815281433</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <v>0.09025709103811011</v>
       </c>
-      <c r="AF11">
+      <c r="AH11">
         <v>4.009715358215752</v>
       </c>
-      <c r="AG11">
+      <c r="AI11">
         <v>0.2976802558928594</v>
       </c>
-      <c r="AH11">
+      <c r="AJ11">
+        <v>0.01943071643150573</v>
+      </c>
+      <c r="AK11">
+        <v>0.1140120178739739</v>
+      </c>
+      <c r="AL11">
+        <v>0.1456108984324659</v>
+      </c>
+      <c r="AM11">
         <v>0.02211190127039814</v>
       </c>
-      <c r="AI11">
+      <c r="AN11">
         <v>0.3693491713494998</v>
       </c>
-      <c r="AJ11">
+      <c r="AO11">
         <v>0.8973351237035234</v>
       </c>
-      <c r="AK11">
+      <c r="AP11">
         <v>0.015294974087112</v>
       </c>
-      <c r="AL11">
+      <c r="AQ11">
         <v>0.07496211695099811</v>
       </c>
-      <c r="AM11">
+      <c r="AR11">
         <v>0.03614273228857261</v>
       </c>
-      <c r="AN11">
+      <c r="AS11">
         <v>0.4177193298766569</v>
       </c>
-      <c r="AO11">
+      <c r="AT11">
         <v>0.4410545959789131</v>
       </c>
-      <c r="AP11">
+      <c r="AU11">
         <v>0.4177193298766569</v>
       </c>
-      <c r="AQ11">
+      <c r="AV11">
         <v>0.3734394069204746</v>
       </c>
-      <c r="AR11">
+      <c r="AW11">
         <v>0.01943071643150573</v>
       </c>
-      <c r="AS11">
+      <c r="AX11">
         <v>0.1140120178739739</v>
       </c>
-      <c r="AT11">
+      <c r="AY11">
         <v>54.2</v>
       </c>
-      <c r="AU11">
+      <c r="AZ11">
         <v>0.06</v>
       </c>
-      <c r="AV11">
+      <c r="BA11">
         <v>4.3</v>
       </c>
-      <c r="AW11">
+      <c r="BB11">
         <v>5.66</v>
       </c>
-      <c r="AX11">
+      <c r="BC11">
         <v>0.19</v>
       </c>
-      <c r="AY11">
+      <c r="BD11">
         <v>31.6</v>
       </c>
-      <c r="AZ11">
+      <c r="BE11">
         <v>2.68</v>
       </c>
-      <c r="BA11">
+      <c r="BF11">
         <v>0.04</v>
       </c>
-      <c r="BB11">
-        <v>0</v>
-      </c>
-      <c r="BC11">
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
         <v>1.3</v>
       </c>
-      <c r="BD11">
+      <c r="BI11">
         <v>9</v>
       </c>
-      <c r="BE11">
+      <c r="BJ11">
         <v>1.88471022115226</v>
       </c>
-      <c r="BF11">
+      <c r="BK11">
         <v>1.638101950599026</v>
       </c>
-      <c r="BG11">
+      <c r="BL11">
         <v>0.164595411675496</v>
       </c>
-      <c r="BH11">
+      <c r="BM11">
         <v>0.0998511864516432</v>
       </c>
-      <c r="BI11">
+      <c r="BN11">
         <v>0.1762262785685434</v>
       </c>
-      <c r="BJ11">
+      <c r="BO11">
         <v>0.002696822904378111</v>
       </c>
-      <c r="BK11">
-        <v>0</v>
-      </c>
-      <c r="BL11">
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
         <v>0.005596081453841497</v>
       </c>
-      <c r="BM11">
+      <c r="BR11">
         <v>0.001569372447146431</v>
       </c>
-      <c r="BN11">
+      <c r="BS11">
         <v>0.03573890221078418</v>
       </c>
-      <c r="BO11">
-        <v>0</v>
-      </c>
-      <c r="BP11">
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
         <v>0.1152897788477401</v>
       </c>
-      <c r="BQ11">
+      <c r="BV11">
         <v>0.06093649972080331</v>
       </c>
-      <c r="BR11">
+      <c r="BW11">
         <v>1.886279593599406</v>
       </c>
-      <c r="BS11">
+      <c r="BX11">
         <v>4.009086227463119</v>
       </c>
-      <c r="BT11">
+      <c r="BY11">
         <v>0.05248285859433006</v>
       </c>
-      <c r="BU11">
+      <c r="BZ11">
         <v>0.002696822904378111</v>
       </c>
-      <c r="BV11">
+      <c r="CA11">
         <v>0.001569372447146431</v>
       </c>
-      <c r="BW11">
+      <c r="CB11">
         <v>0.03573890221078418</v>
       </c>
-      <c r="BX11">
+      <c r="CC11">
         <v>0.02250077460564102</v>
       </c>
-      <c r="BY11">
+      <c r="CD11">
         <v>0.0998511864516432</v>
       </c>
-      <c r="BZ11">
+      <c r="CE11">
         <v>0.8421860551119666</v>
       </c>
-      <c r="CA11">
+      <c r="CF11">
         <v>0.7629218722387011</v>
       </c>
-      <c r="CB11">
+      <c r="CG11">
         <v>0.09045347361256829</v>
       </c>
-      <c r="CC11">
+      <c r="CH11">
         <v>0.9086921568214386</v>
       </c>
-      <c r="CD11">
+      <c r="CI11">
         <v>0.776617560898286</v>
       </c>
-      <c r="CE11">
+      <c r="CJ11">
         <v>1.138612418340875</v>
       </c>
-      <c r="CF11">
+      <c r="CK11">
         <v>0.01817245492623782</v>
       </c>
-      <c r="CG11">
-        <v>0.01943071643150573</v>
-      </c>
-      <c r="CH11">
+      <c r="CL11">
         <v>0.4548344043982839</v>
       </c>
-      <c r="CI11">
+      <c r="CM11">
         <v>0.2223540616169097</v>
       </c>
-      <c r="CJ11">
+      <c r="CN11">
         <v>0.6648016155718204</v>
       </c>
     </row>
-    <row r="12" spans="1:88">
+    <row r="12" spans="1:92">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3581,262 +3725,274 @@
         <v>12.12628031744168</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="F12">
+        <v>0.03494764763367342</v>
       </c>
       <c r="G12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H12">
+        <v>0.4249476476336735</v>
+      </c>
+      <c r="I12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12">
         <v>53</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>0.11</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>4.5</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>5.1</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>0.2</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>24.7</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>10.9</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>0.16</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
         <v>1.5</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>10</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>1.881768714147003</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>1.307362046524132</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>0.1514316115869663</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>0.4146579615837263</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>0.1883041117576412</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <v>0.01101431503741985</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
         <v>0.006014582645574814</v>
       </c>
-      <c r="AA12">
+      <c r="AC12">
         <v>0.002937734430552973</v>
       </c>
-      <c r="AB12">
+      <c r="AD12">
         <v>0.04210505023287744</v>
       </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
         <v>0.1182312858529966</v>
       </c>
-      <c r="AE12">
+      <c r="AG12">
         <v>0.07007282590464459</v>
       </c>
-      <c r="AF12">
+      <c r="AH12">
         <v>4.005596127945894</v>
       </c>
-      <c r="AG12">
+      <c r="AI12">
         <v>0.2213336908327913</v>
       </c>
-      <c r="AH12">
+      <c r="AJ12">
+        <v>0.01119225589178845</v>
+      </c>
+      <c r="AK12">
+        <v>0.1402393556951778</v>
+      </c>
+      <c r="AL12">
+        <v>0.07390963996550222</v>
+      </c>
+      <c r="AM12">
         <v>0.02105252511643872</v>
       </c>
-      <c r="AI12">
+      <c r="AN12">
         <v>0.5049996254130223</v>
       </c>
-      <c r="AJ12">
+      <c r="AO12">
         <v>0.8961908394045947</v>
       </c>
-      <c r="AK12">
+      <c r="AP12">
         <v>0.01101431503741985</v>
       </c>
-      <c r="AL12">
+      <c r="AQ12">
         <v>0.05905851086722473</v>
       </c>
-      <c r="AM12">
+      <c r="AR12">
         <v>0.02958638749288593</v>
       </c>
-      <c r="AN12">
+      <c r="AS12">
         <v>0.3049605381071769</v>
       </c>
-      <c r="AO12">
+      <c r="AT12">
         <v>0.5769165600019606</v>
       </c>
-      <c r="AP12">
+      <c r="AU12">
         <v>0.3049605381071769</v>
       </c>
-      <c r="AQ12">
+      <c r="AV12">
         <v>0.2721815880848314</v>
       </c>
-      <c r="AR12">
+      <c r="AW12">
         <v>0.01119225589178845</v>
       </c>
-      <c r="AS12">
+      <c r="AX12">
         <v>0.1402393556951778</v>
       </c>
-      <c r="AT12">
+      <c r="AY12">
         <v>54.5</v>
       </c>
-      <c r="AU12">
+      <c r="AZ12">
         <v>0.09</v>
       </c>
-      <c r="AV12">
+      <c r="BA12">
         <v>3.9</v>
       </c>
-      <c r="AW12">
+      <c r="BB12">
         <v>5.8</v>
       </c>
-      <c r="AX12">
+      <c r="BC12">
         <v>0.19</v>
       </c>
-      <c r="AY12">
+      <c r="BD12">
         <v>31.6</v>
       </c>
-      <c r="AZ12">
+      <c r="BE12">
         <v>2.7</v>
       </c>
-      <c r="BA12">
+      <c r="BF12">
         <v>0.08</v>
       </c>
-      <c r="BB12">
-        <v>0</v>
-      </c>
-      <c r="BC12">
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
         <v>1.3</v>
       </c>
-      <c r="BD12">
+      <c r="BI12">
         <v>10</v>
       </c>
-      <c r="BE12">
+      <c r="BJ12">
         <v>1.893876946565446</v>
       </c>
-      <c r="BF12">
+      <c r="BK12">
         <v>1.637008307881837</v>
       </c>
-      <c r="BG12">
+      <c r="BL12">
         <v>0.1685540696807186</v>
       </c>
-      <c r="BH12">
+      <c r="BM12">
         <v>0.1005291836238956</v>
       </c>
-      <c r="BI12">
+      <c r="BN12">
         <v>0.1597264273001079</v>
       </c>
-      <c r="BJ12">
+      <c r="BO12">
         <v>0.005390044859831346</v>
       </c>
-      <c r="BK12">
-        <v>0</v>
-      </c>
-      <c r="BL12">
+      <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
         <v>0.005592345353213232</v>
       </c>
-      <c r="BM12">
+      <c r="BR12">
         <v>0.002352487035254511</v>
       </c>
-      <c r="BN12">
+      <c r="BS12">
         <v>0.03571504191923829</v>
       </c>
-      <c r="BO12">
-        <v>0</v>
-      </c>
-      <c r="BP12">
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BU12">
         <v>0.1061230534345543</v>
       </c>
-      <c r="BQ12">
+      <c r="BV12">
         <v>0.05360337386555356</v>
       </c>
-      <c r="BR12">
+      <c r="BW12">
         <v>1.8962294336007</v>
       </c>
-      <c r="BS12">
+      <c r="BX12">
         <v>4.008744854219541</v>
       </c>
-      <c r="BT12">
+      <c r="BY12">
         <v>0.05274100450941662</v>
       </c>
-      <c r="BU12">
+      <c r="BZ12">
         <v>0.005390044859831346</v>
       </c>
-      <c r="BV12">
+      <c r="CA12">
         <v>0.002352487035254511</v>
       </c>
-      <c r="BW12">
+      <c r="CB12">
         <v>0.03571504191923829</v>
       </c>
-      <c r="BX12">
+      <c r="CC12">
         <v>0.01249828708648391</v>
       </c>
-      <c r="BY12">
+      <c r="CD12">
         <v>0.1005291836238956</v>
       </c>
-      <c r="BZ12">
+      <c r="CE12">
         <v>0.8478873825850674</v>
       </c>
-      <c r="CA12">
+      <c r="CF12">
         <v>0.7663611903931702</v>
       </c>
-      <c r="CB12">
+      <c r="CG12">
         <v>0.0908630867891618</v>
       </c>
-      <c r="CC12">
+      <c r="CH12">
         <v>0.906644502128388</v>
       </c>
-      <c r="CD12">
+      <c r="CI12">
         <v>0.7734933863212933</v>
       </c>
-      <c r="CE12">
+      <c r="CJ12">
         <v>1.124947647633673</v>
       </c>
-      <c r="CF12">
+      <c r="CK12">
         <v>0.01748970843908478</v>
       </c>
-      <c r="CG12">
-        <v>0.01119225589178845</v>
-      </c>
-      <c r="CH12">
+      <c r="CL12">
         <v>0.358859736619458</v>
       </c>
-      <c r="CI12">
+      <c r="CM12">
         <v>0.1717443426682485</v>
       </c>
-      <c r="CJ12">
+      <c r="CN12">
         <v>0.6641295546377679</v>
       </c>
     </row>
-    <row r="13" spans="1:88">
+    <row r="13" spans="1:92">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3847,262 +4003,274 @@
         <v>15.30764930900497</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="F13">
+        <v>0.05428619871142759</v>
       </c>
       <c r="G13" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H13">
+        <v>0.4442861987114277</v>
+      </c>
+      <c r="I13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13">
         <v>51.64</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>0.38</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>8.16</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>3.97</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>19.66</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>14.85</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>0.66</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
         <v>0.75</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>11</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>1.840493048516363</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>1.044575912423586</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>0.118329886690765</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>0.5670841877311179</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>0.3427638576210553</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <v>0.04560778921582524</v>
       </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
       <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
         <v>0.01018734510312394</v>
       </c>
-      <c r="AB13">
+      <c r="AD13">
         <v>0.02113302991737515</v>
       </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
         <v>0.1595069514836374</v>
       </c>
-      <c r="AE13">
+      <c r="AG13">
         <v>0.183256906137418</v>
       </c>
-      <c r="AF13">
+      <c r="AH13">
         <v>3.990175057219212</v>
       </c>
-      <c r="AG13">
+      <c r="AI13">
         <v>0.3277962254366346</v>
       </c>
-      <c r="AH13">
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0.118329886690765</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
         <v>0.01056651495868757</v>
       </c>
-      <c r="AI13">
+      <c r="AN13">
         <v>0.3080057996607209</v>
       </c>
-      <c r="AJ13">
+      <c r="AO13">
         <v>0.8982433164907716</v>
       </c>
-      <c r="AK13">
+      <c r="AP13">
         <v>0.04560778921582524</v>
       </c>
-      <c r="AL13">
+      <c r="AQ13">
         <v>0.1376491169215927</v>
       </c>
-      <c r="AM13">
+      <c r="AR13">
         <v>0.01092891728102231</v>
       </c>
-      <c r="AN13">
+      <c r="AS13">
         <v>0.4079396385698152</v>
       </c>
-      <c r="AO13">
+      <c r="AT13">
         <v>0.377483080272268</v>
       </c>
-      <c r="AP13">
+      <c r="AU13">
         <v>0.4079396385698152</v>
       </c>
-      <c r="AQ13">
+      <c r="AV13">
         <v>0.366430299425234</v>
       </c>
-      <c r="AR13">
+      <c r="AW13">
         <v>-0.0196498855615784</v>
       </c>
-      <c r="AS13">
+      <c r="AX13">
         <v>0.1379797722523434</v>
       </c>
-      <c r="AT13">
+      <c r="AY13">
         <v>53.3</v>
       </c>
-      <c r="AU13">
+      <c r="AZ13">
         <v>0.16</v>
       </c>
-      <c r="AV13">
+      <c r="BA13">
         <v>7.5</v>
       </c>
-      <c r="AW13">
+      <c r="BB13">
         <v>5.4</v>
       </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
         <v>30.6</v>
       </c>
-      <c r="AZ13">
+      <c r="BE13">
         <v>2.3</v>
       </c>
-      <c r="BA13">
-        <v>0</v>
-      </c>
-      <c r="BB13">
-        <v>0</v>
-      </c>
-      <c r="BC13">
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
         <v>0.76</v>
       </c>
-      <c r="BD13">
+      <c r="BI13">
         <v>11</v>
       </c>
-      <c r="BE13">
+      <c r="BJ13">
         <v>1.842181005574265</v>
       </c>
-      <c r="BF13">
+      <c r="BK13">
         <v>1.576649157469215</v>
       </c>
-      <c r="BG13">
+      <c r="BL13">
         <v>0.156082727225685</v>
       </c>
-      <c r="BH13">
+      <c r="BM13">
         <v>0.08517380779759282</v>
       </c>
-      <c r="BI13">
+      <c r="BN13">
         <v>0.3055084801854373</v>
       </c>
-      <c r="BJ13">
-        <v>0</v>
-      </c>
-      <c r="BK13">
-        <v>0</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BM13">
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
+      <c r="BR13">
         <v>0.004159628523638295</v>
       </c>
-      <c r="BN13">
+      <c r="BS13">
         <v>0.02076687935569623</v>
       </c>
-      <c r="BO13">
-        <v>0</v>
-      </c>
-      <c r="BP13">
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BU13">
         <v>0.1578189944257351</v>
       </c>
-      <c r="BQ13">
+      <c r="BV13">
         <v>0.1476894857597022</v>
       </c>
-      <c r="BR13">
+      <c r="BW13">
         <v>1.846340634097903</v>
       </c>
-      <c r="BS13">
+      <c r="BX13">
         <v>3.99052168613153</v>
       </c>
-      <c r="BT13">
+      <c r="BY13">
         <v>0.04685270976890597</v>
       </c>
-      <c r="BU13">
-        <v>0</v>
-      </c>
-      <c r="BV13">
+      <c r="BZ13">
+        <v>0</v>
+      </c>
+      <c r="CA13">
         <v>0.004159628523638295</v>
       </c>
-      <c r="BW13">
+      <c r="CB13">
         <v>0.02076687935569623</v>
       </c>
-      <c r="BX13">
+      <c r="CC13">
         <v>0.126922606404006</v>
       </c>
-      <c r="BY13">
+      <c r="CD13">
         <v>0.08517380779759282</v>
       </c>
-      <c r="BZ13">
+      <c r="CE13">
         <v>0.7582379209848318</v>
       </c>
-      <c r="CA13">
+      <c r="CF13">
         <v>0.6899366196475595</v>
       </c>
-      <c r="CB13">
+      <c r="CG13">
         <v>0.07750143775196083</v>
       </c>
-      <c r="CC13">
+      <c r="CH13">
         <v>0.909918278200994</v>
       </c>
-      <c r="CD13">
+      <c r="CI13">
         <v>0.705303810923759</v>
       </c>
-      <c r="CE13">
+      <c r="CJ13">
         <v>1.144286198711428</v>
       </c>
-      <c r="CF13">
-        <v>0</v>
-      </c>
-      <c r="CG13">
-        <v>0</v>
-      </c>
-      <c r="CH13">
+      <c r="CK13">
+        <v>0</v>
+      </c>
+      <c r="CL13">
         <v>0.4748872594012775</v>
       </c>
-      <c r="CI13">
+      <c r="CM13">
         <v>0.196744506399992</v>
       </c>
-      <c r="CJ13">
+      <c r="CN13">
         <v>0.6286011952631089</v>
       </c>
     </row>
-    <row r="14" spans="1:88">
+    <row r="14" spans="1:92">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4113,262 +4281,274 @@
         <v>11.22226775838634</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="F14">
+        <v>0.08096996753246755</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H14">
+        <v>0.3090300324675326</v>
+      </c>
+      <c r="I14" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14">
         <v>51.3</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>0.19</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>7.2</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>3.9</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>0.09</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>17.6</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>19.1</v>
-      </c>
-      <c r="O14">
-        <v>0.5</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
       </c>
       <c r="Q14">
         <v>0.5</v>
       </c>
       <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.5</v>
+      </c>
+      <c r="T14">
         <v>12</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>1.846076040845911</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>0.9441770375171862</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>0.117368842565323</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>0.7364422976570377</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>0.3053666695360072</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <v>0.03488585429046644</v>
       </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
         <v>0.002743215065423861</v>
       </c>
-      <c r="AA14">
+      <c r="AC14">
         <v>0.005142985449854582</v>
       </c>
-      <c r="AB14">
+      <c r="AD14">
         <v>0.01422508210283668</v>
       </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
         <v>0.1539239591540893</v>
       </c>
-      <c r="AE14">
+      <c r="AG14">
         <v>0.1514427103819179</v>
       </c>
-      <c r="AF14">
+      <c r="AH14">
         <v>4.006428025030046</v>
       </c>
-      <c r="AG14">
+      <c r="AI14">
         <v>0.4095924026502233</v>
       </c>
-      <c r="AH14">
+      <c r="AJ14">
+        <v>0.01285605006009203</v>
+      </c>
+      <c r="AK14">
+        <v>0.104512792505231</v>
+      </c>
+      <c r="AL14">
+        <v>0.109535459148256</v>
+      </c>
+      <c r="AM14">
         <v>0.007112541051418342</v>
       </c>
-      <c r="AI14">
+      <c r="AN14">
         <v>0.188142323431956</v>
       </c>
-      <c r="AJ14">
+      <c r="AO14">
         <v>0.8894326358888945</v>
       </c>
-      <c r="AK14">
+      <c r="AP14">
         <v>0.03488585429046644</v>
       </c>
-      <c r="AL14">
+      <c r="AQ14">
         <v>0.1165568560914514</v>
       </c>
-      <c r="AM14">
+      <c r="AR14">
         <v>0.01868355153131894</v>
       </c>
-      <c r="AN14">
+      <c r="AS14">
         <v>0.594089348982849</v>
       </c>
-      <c r="AO14">
+      <c r="AT14">
         <v>0.2337282655498301</v>
       </c>
-      <c r="AP14">
+      <c r="AU14">
         <v>0.594089348982849</v>
       </c>
-      <c r="AQ14">
+      <c r="AV14">
         <v>0.5270424399727343</v>
       </c>
-      <c r="AR14">
+      <c r="AW14">
         <v>0.01285605006009203</v>
       </c>
-      <c r="AS14">
+      <c r="AX14">
         <v>0.104512792505231</v>
       </c>
-      <c r="AT14">
+      <c r="AY14">
         <v>52.9</v>
       </c>
-      <c r="AU14">
+      <c r="AZ14">
         <v>0.09</v>
       </c>
-      <c r="AV14">
+      <c r="BA14">
         <v>6.9</v>
       </c>
-      <c r="AW14">
+      <c r="BB14">
         <v>6.72</v>
       </c>
-      <c r="AX14">
+      <c r="BC14">
         <v>0.12</v>
       </c>
-      <c r="AY14">
+      <c r="BD14">
         <v>30.6</v>
       </c>
-      <c r="AZ14">
+      <c r="BE14">
         <v>1.63</v>
       </c>
-      <c r="BA14">
+      <c r="BF14">
         <v>0.07000000000000001</v>
       </c>
-      <c r="BB14">
-        <v>0</v>
-      </c>
-      <c r="BC14">
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
         <v>0.5</v>
       </c>
-      <c r="BD14">
+      <c r="BI14">
         <v>12</v>
       </c>
-      <c r="BE14">
+      <c r="BJ14">
         <v>1.846639883734539</v>
       </c>
-      <c r="BF14">
+      <c r="BK14">
         <v>1.59241592175787</v>
       </c>
-      <c r="BG14">
+      <c r="BL14">
         <v>0.1961786791946065</v>
       </c>
-      <c r="BH14">
+      <c r="BM14">
         <v>0.060965940778808</v>
       </c>
-      <c r="BI14">
+      <c r="BN14">
         <v>0.2838785284047767</v>
       </c>
-      <c r="BJ14">
+      <c r="BO14">
         <v>0.004737745378160746</v>
       </c>
-      <c r="BK14">
-        <v>0</v>
-      </c>
-      <c r="BL14">
+      <c r="BP14">
+        <v>0</v>
+      </c>
+      <c r="BQ14">
         <v>0.003548075986629926</v>
       </c>
-      <c r="BM14">
+      <c r="BR14">
         <v>0.002363189359707084</v>
       </c>
-      <c r="BN14">
+      <c r="BS14">
         <v>0.01379904719823219</v>
       </c>
-      <c r="BO14">
-        <v>0</v>
-      </c>
-      <c r="BP14">
+      <c r="BT14">
+        <v>0</v>
+      </c>
+      <c r="BU14">
         <v>0.1533601162654608</v>
       </c>
-      <c r="BQ14">
+      <c r="BV14">
         <v>0.130518412139316</v>
       </c>
-      <c r="BR14">
+      <c r="BW14">
         <v>1.849003073094246</v>
       </c>
-      <c r="BS14">
+      <c r="BX14">
         <v>4.004527011793331</v>
       </c>
-      <c r="BT14">
+      <c r="BY14">
         <v>0.03296239263503141</v>
       </c>
-      <c r="BU14">
+      <c r="BZ14">
         <v>0.004737745378160746</v>
       </c>
-      <c r="BV14">
+      <c r="CA14">
         <v>0.002363189359707084</v>
       </c>
-      <c r="BW14">
+      <c r="CB14">
         <v>0.01379904719823219</v>
       </c>
-      <c r="BX14">
+      <c r="CC14">
         <v>0.111981619562923</v>
       </c>
-      <c r="BY14">
+      <c r="CD14">
         <v>0.060965940778808</v>
       </c>
-      <c r="BZ14">
+      <c r="CE14">
         <v>0.8084159636188342</v>
       </c>
-      <c r="CA14">
+      <c r="CF14">
         <v>0.7183214084654063</v>
       </c>
-      <c r="CB14">
+      <c r="CG14">
         <v>0.05417154338790402</v>
       </c>
-      <c r="CC14">
+      <c r="CH14">
         <v>0.8903135938406279</v>
       </c>
-      <c r="CD14">
+      <c r="CI14">
         <v>0.7517158652960805</v>
       </c>
-      <c r="CE14">
+      <c r="CJ14">
         <v>1.009030032467533</v>
       </c>
-      <c r="CF14">
+      <c r="CK14">
         <v>0.009054023586659158</v>
       </c>
-      <c r="CG14">
-        <v>0.01285605006009203</v>
-      </c>
-      <c r="CH14">
+      <c r="CL14">
         <v>0.5671850452375549</v>
       </c>
-      <c r="CI14">
+      <c r="CM14">
         <v>0.2313191389848826</v>
       </c>
-      <c r="CJ14">
+      <c r="CN14">
         <v>0.6322638334924512</v>
       </c>
     </row>
-    <row r="15" spans="1:88">
+    <row r="15" spans="1:92">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4379,262 +4559,274 @@
         <v>11.46322728215987</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="F15">
+        <v>0.05971649484536101</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H15">
+        <v>0.3302835051546391</v>
+      </c>
+      <c r="I15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15">
         <v>52.4</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>0.14</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>6</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>4.1</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>0.08</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>19.4</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>17.6</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>0.49</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
         <v>0.9</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>13</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>1.866595243387765</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>1.030218022952346</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>0.1221402257989655</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>0.671745354794176</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>0.2518993422547586</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <v>0.03384247254431844</v>
       </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
         <v>0.002413759420676647</v>
       </c>
-      <c r="AA15">
+      <c r="AC15">
         <v>0.003751253187108932</v>
       </c>
-      <c r="AB15">
+      <c r="AD15">
         <v>0.02534626281985982</v>
       </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
         <v>0.1334047566122347</v>
       </c>
-      <c r="AE15">
+      <c r="AG15">
         <v>0.1184945856425239</v>
       </c>
-      <c r="AF15">
+      <c r="AH15">
         <v>4.007951937159976</v>
       </c>
-      <c r="AG15">
+      <c r="AI15">
         <v>0.3682605272466503</v>
       </c>
-      <c r="AH15">
+      <c r="AJ15">
+        <v>0.01590387431995156</v>
+      </c>
+      <c r="AK15">
+        <v>0.1062363514790139</v>
+      </c>
+      <c r="AL15">
+        <v>0.1302099633099439</v>
+      </c>
+      <c r="AM15">
         <v>0.01267313140992991</v>
       </c>
-      <c r="AI15">
+      <c r="AN15">
         <v>0.2486181142510644</v>
       </c>
-      <c r="AJ15">
+      <c r="AO15">
         <v>0.894005294243382</v>
       </c>
-      <c r="AK15">
+      <c r="AP15">
         <v>0.03384247254431844</v>
       </c>
-      <c r="AL15">
+      <c r="AQ15">
         <v>0.08465211309820547</v>
       </c>
-      <c r="AM15">
+      <c r="AR15">
         <v>0.02437632175701462</v>
       </c>
-      <c r="AN15">
+      <c r="AS15">
         <v>0.5500437885290259</v>
       </c>
-      <c r="AO15">
+      <c r="AT15">
         <v>0.3011572301111428</v>
       </c>
-      <c r="AP15">
+      <c r="AU15">
         <v>0.5500437885290259</v>
       </c>
-      <c r="AQ15">
+      <c r="AV15">
         <v>0.490715933834096</v>
       </c>
-      <c r="AR15">
+      <c r="AW15">
         <v>0.01590387431995156</v>
       </c>
-      <c r="AS15">
+      <c r="AX15">
         <v>0.1062363514790139</v>
       </c>
-      <c r="AT15">
+      <c r="AY15">
         <v>55</v>
       </c>
-      <c r="AU15">
+      <c r="AZ15">
         <v>0.09</v>
       </c>
-      <c r="AV15">
+      <c r="BA15">
         <v>6</v>
       </c>
-      <c r="AW15">
+      <c r="BB15">
         <v>6.4</v>
       </c>
-      <c r="AX15">
+      <c r="BC15">
         <v>0.13</v>
       </c>
-      <c r="AY15">
+      <c r="BD15">
         <v>31.2</v>
       </c>
-      <c r="AZ15">
+      <c r="BE15">
         <v>1.7</v>
       </c>
-      <c r="BA15">
+      <c r="BF15">
         <v>0.05</v>
       </c>
-      <c r="BB15">
-        <v>0</v>
-      </c>
-      <c r="BC15">
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
         <v>0.8</v>
       </c>
-      <c r="BD15">
+      <c r="BI15">
         <v>13</v>
       </c>
-      <c r="BE15">
+      <c r="BJ15">
         <v>1.87996300504202</v>
       </c>
-      <c r="BF15">
+      <c r="BK15">
         <v>1.58982657834606</v>
       </c>
-      <c r="BG15">
+      <c r="BL15">
         <v>0.1829458581277978</v>
       </c>
-      <c r="BH15">
+      <c r="BM15">
         <v>0.06225993618966856</v>
       </c>
-      <c r="BI15">
+      <c r="BN15">
         <v>0.2417100895451389</v>
       </c>
-      <c r="BJ15">
+      <c r="BO15">
         <v>0.003313628030414639</v>
       </c>
-      <c r="BK15">
-        <v>0</v>
-      </c>
-      <c r="BL15">
+      <c r="BP15">
+        <v>0</v>
+      </c>
+      <c r="BQ15">
         <v>0.003763700813174212</v>
       </c>
-      <c r="BM15">
+      <c r="BR15">
         <v>0.00231397465035578</v>
       </c>
-      <c r="BN15">
+      <c r="BS15">
         <v>0.0216186792037554</v>
       </c>
-      <c r="BO15">
-        <v>0</v>
-      </c>
-      <c r="BP15">
+      <c r="BT15">
+        <v>0</v>
+      </c>
+      <c r="BU15">
         <v>0.1200369949579803</v>
       </c>
-      <c r="BQ15">
+      <c r="BV15">
         <v>0.1216730945871586</v>
       </c>
-      <c r="BR15">
+      <c r="BW15">
         <v>1.882276979692376</v>
       </c>
-      <c r="BS15">
+      <c r="BX15">
         <v>3.987715449948386</v>
       </c>
-      <c r="BT15">
+      <c r="BY15">
         <v>0.0339285219798597</v>
       </c>
-      <c r="BU15">
+      <c r="BZ15">
         <v>0.003313628030414639</v>
       </c>
-      <c r="BV15">
+      <c r="CA15">
         <v>0.00231397465035578</v>
       </c>
-      <c r="BW15">
+      <c r="CB15">
         <v>0.0216186792037554</v>
       </c>
-      <c r="BX15">
+      <c r="CC15">
         <v>0.09674078735298856</v>
       </c>
-      <c r="BY15">
+      <c r="CD15">
         <v>0.06225993618966856</v>
       </c>
-      <c r="BZ15">
+      <c r="CE15">
         <v>0.8076107195470097</v>
       </c>
-      <c r="CA15">
+      <c r="CF15">
         <v>0.7227328281955316</v>
       </c>
-      <c r="CB15">
+      <c r="CG15">
         <v>0.05571657071475173</v>
       </c>
-      <c r="CC15">
+      <c r="CH15">
         <v>0.8967993098855213</v>
       </c>
-      <c r="CD15">
+      <c r="CI15">
         <v>0.7489358046748616</v>
       </c>
-      <c r="CE15">
+      <c r="CJ15">
         <v>1.030283505154639</v>
       </c>
-      <c r="CF15">
-        <v>0</v>
-      </c>
-      <c r="CG15">
-        <v>0.01590387431995156</v>
-      </c>
-      <c r="CH15">
+      <c r="CK15">
+        <v>0</v>
+      </c>
+      <c r="CL15">
         <v>0.5263518332234477</v>
       </c>
-      <c r="CI15">
+      <c r="CM15">
         <v>0.1896696272207511</v>
       </c>
-      <c r="CJ15">
+      <c r="CN15">
         <v>0.640664914785542</v>
       </c>
     </row>
-    <row r="16" spans="1:88">
+    <row r="16" spans="1:92">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4645,262 +4837,274 @@
         <v>19.19890573884669</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="F16">
+        <v>0.07972800853306561</v>
       </c>
       <c r="G16" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H16">
+        <v>0.4697280085330657</v>
+      </c>
+      <c r="I16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16">
         <v>52</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>0.14</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>9.390000000000001</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>4.89</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>0.06</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>20.8</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>13.3</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>0.6899999999999999</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
         <v>0.09</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>14</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>1.82472221345717</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>1.088091194907004</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>0.1435021039521653</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>0.5000554819140521</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <v>0.3883433949471371</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <v>0.04694503244349596</v>
       </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
         <v>0.001783322104615785</v>
       </c>
-      <c r="AA16">
+      <c r="AC16">
         <v>0.003695310405987053</v>
       </c>
-      <c r="AB16">
+      <c r="AD16">
         <v>0.002496827168930597</v>
       </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
         <v>0.1752777865428303</v>
       </c>
-      <c r="AE16">
+      <c r="AG16">
         <v>0.2130656084043068</v>
       </c>
-      <c r="AF16">
+      <c r="AH16">
         <v>3.999634881300557</v>
       </c>
-      <c r="AG16">
+      <c r="AI16">
         <v>0.2887741945516029</v>
       </c>
-      <c r="AH16">
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0.1435021039521653</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
         <v>0.001248413584465299</v>
       </c>
-      <c r="AI16">
+      <c r="AN16">
         <v>0.3538412380737858</v>
       </c>
-      <c r="AJ16">
+      <c r="AO16">
         <v>0.883479116605734</v>
       </c>
-      <c r="AK16">
+      <c r="AP16">
         <v>0.04694503244349596</v>
       </c>
-      <c r="AL16">
+      <c r="AQ16">
         <v>0.1661205759608108</v>
       </c>
-      <c r="AM16">
+      <c r="AR16">
         <v>0.004578605291009757</v>
       </c>
-      <c r="AN16">
+      <c r="AS16">
         <v>0.3281078870777662</v>
       </c>
-      <c r="AO16">
+      <c r="AT16">
         <v>0.4517427058907014</v>
       </c>
-      <c r="AP16">
+      <c r="AU16">
         <v>0.3281078870777662</v>
       </c>
-      <c r="AQ16">
+      <c r="AV16">
         <v>0.2894584645441741</v>
       </c>
-      <c r="AR16">
+      <c r="AW16">
         <v>-0.0007302373988851891</v>
       </c>
-      <c r="AS16">
+      <c r="AX16">
         <v>0.1442323413510505</v>
       </c>
-      <c r="AT16">
+      <c r="AY16">
         <v>54</v>
       </c>
-      <c r="AU16">
+      <c r="AZ16">
         <v>0.06</v>
       </c>
-      <c r="AV16">
+      <c r="BA16">
         <v>8.26</v>
       </c>
-      <c r="AW16">
+      <c r="BB16">
         <v>6.13</v>
       </c>
-      <c r="AX16">
+      <c r="BC16">
         <v>0.04</v>
       </c>
-      <c r="AY16">
+      <c r="BD16">
         <v>30.5</v>
       </c>
-      <c r="AZ16">
+      <c r="BE16">
         <v>2.18</v>
       </c>
-      <c r="BA16">
+      <c r="BF16">
         <v>0.15</v>
       </c>
-      <c r="BB16">
-        <v>0</v>
-      </c>
-      <c r="BC16">
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
         <v>0.06</v>
       </c>
-      <c r="BD16">
+      <c r="BI16">
         <v>14</v>
       </c>
-      <c r="BE16">
+      <c r="BJ16">
         <v>1.842230838886937</v>
       </c>
-      <c r="BF16">
+      <c r="BK16">
         <v>1.551167415497921</v>
       </c>
-      <c r="BG16">
+      <c r="BL16">
         <v>0.174890716426702</v>
       </c>
-      <c r="BH16">
+      <c r="BM16">
         <v>0.07968561305168195</v>
       </c>
-      <c r="BI16">
+      <c r="BN16">
         <v>0.3321140516855712</v>
       </c>
-      <c r="BJ16">
+      <c r="BO16">
         <v>0.00992175925040927</v>
       </c>
-      <c r="BK16">
-        <v>0</v>
-      </c>
-      <c r="BL16">
+      <c r="BP16">
+        <v>0</v>
+      </c>
+      <c r="BQ16">
         <v>0.001155833843228553</v>
       </c>
-      <c r="BM16">
+      <c r="BR16">
         <v>0.001539681929135618</v>
       </c>
-      <c r="BN16">
+      <c r="BS16">
         <v>0.001618281596506251</v>
       </c>
-      <c r="BO16">
-        <v>0</v>
-      </c>
-      <c r="BP16">
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BU16">
         <v>0.1577691611130627</v>
       </c>
-      <c r="BQ16">
+      <c r="BV16">
         <v>0.1743448905725085</v>
       </c>
-      <c r="BR16">
+      <c r="BW16">
         <v>1.843770520816073</v>
       </c>
-      <c r="BS16">
+      <c r="BX16">
         <v>3.994324192168093</v>
       </c>
-      <c r="BT16">
+      <c r="BY16">
         <v>0.04412897083175419</v>
       </c>
-      <c r="BU16">
+      <c r="BZ16">
         <v>0.00992175925040927</v>
       </c>
-      <c r="BV16">
+      <c r="CA16">
         <v>0.001539681929135618</v>
       </c>
-      <c r="BW16">
+      <c r="CB16">
         <v>0.001618281596506251</v>
       </c>
-      <c r="BX16">
+      <c r="CC16">
         <v>0.1628048497255929</v>
       </c>
-      <c r="BY16">
+      <c r="CD16">
         <v>0.07968561305168195</v>
       </c>
-      <c r="BZ16">
+      <c r="CE16">
         <v>0.7415919105307207</v>
       </c>
-      <c r="CA16">
+      <c r="CF16">
         <v>0.6660050404934692</v>
       </c>
-      <c r="CB16">
+      <c r="CG16">
         <v>0.07156364463206193</v>
       </c>
-      <c r="CC16">
+      <c r="CH16">
         <v>0.8986731886057254</v>
       </c>
-      <c r="CD16">
+      <c r="CI16">
         <v>0.6780814526844665</v>
       </c>
-      <c r="CE16">
+      <c r="CJ16">
         <v>1.169728008533066</v>
       </c>
-      <c r="CF16">
-        <v>0</v>
-      </c>
-      <c r="CG16">
-        <v>0</v>
-      </c>
-      <c r="CH16">
+      <c r="CK16">
+        <v>0</v>
+      </c>
+      <c r="CL16">
         <v>0.4293867946199933</v>
       </c>
-      <c r="CI16">
+      <c r="CM16">
         <v>0.1593889125072531</v>
       </c>
-      <c r="CJ16">
+      <c r="CN16">
         <v>0.6061053929384528</v>
       </c>
     </row>
-    <row r="17" spans="1:88">
+    <row r="17" spans="1:92">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4911,262 +5115,274 @@
         <v>15.66897266135065</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="F17">
+        <v>0.09340476549431753</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H17">
+        <v>0.4834047654943177</v>
+      </c>
+      <c r="I17" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17">
         <v>52.9</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>0.35</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>7.4</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>5.2</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>0.17</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>23.1</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>11.6</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>0.55</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
         <v>0.12</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>15</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>1.851351007540498</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>1.205184729374228</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>0.1521922131055338</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>0.4349749233549691</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <v>0.3052261437273683</v>
       </c>
-      <c r="X17">
+      <c r="Z17">
         <v>0.03732011055881662</v>
       </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
         <v>0.00503926437232971</v>
       </c>
-      <c r="AA17">
+      <c r="AC17">
         <v>0.009213626713901604</v>
       </c>
-      <c r="AB17">
+      <c r="AD17">
         <v>0.003320220275786289</v>
       </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
         <v>0.148648992459502</v>
       </c>
-      <c r="AE17">
+      <c r="AG17">
         <v>0.1565771512678663</v>
       </c>
-      <c r="AF17">
+      <c r="AH17">
         <v>4.003822239023432</v>
       </c>
-      <c r="AG17">
+      <c r="AI17">
         <v>0.2426838901704121</v>
       </c>
-      <c r="AH17">
+      <c r="AJ17">
+        <v>0.007644478046862843</v>
+      </c>
+      <c r="AK17">
+        <v>0.1445477350586709</v>
+      </c>
+      <c r="AL17">
+        <v>0.05022910102215267</v>
+      </c>
+      <c r="AM17">
         <v>0.001660110137893144</v>
       </c>
-      <c r="AI17">
+      <c r="AN17">
         <v>0.4364472379716725</v>
       </c>
-      <c r="AJ17">
+      <c r="AO17">
         <v>0.887874383028684</v>
       </c>
-      <c r="AK17">
+      <c r="AP17">
         <v>0.03732011055881662</v>
       </c>
-      <c r="AL17">
+      <c r="AQ17">
         <v>0.1192570407090497</v>
       </c>
-      <c r="AM17">
+      <c r="AR17">
         <v>0.01469597587522617</v>
       </c>
-      <c r="AN17">
+      <c r="AS17">
         <v>0.2993617966328</v>
       </c>
-      <c r="AO17">
+      <c r="AT17">
         <v>0.5290075729234809</v>
       </c>
-      <c r="AP17">
+      <c r="AU17">
         <v>0.2993617966328</v>
       </c>
-      <c r="AQ17">
+      <c r="AV17">
         <v>0.2648135452627158</v>
       </c>
-      <c r="AR17">
+      <c r="AW17">
         <v>0.007644478046862843</v>
       </c>
-      <c r="AS17">
+      <c r="AX17">
         <v>0.1445477350586709</v>
       </c>
-      <c r="AT17">
+      <c r="AY17">
         <v>54.9</v>
       </c>
-      <c r="AU17">
+      <c r="AZ17">
         <v>0.17</v>
       </c>
-      <c r="AV17">
+      <c r="BA17">
         <v>6.22</v>
       </c>
-      <c r="AW17">
+      <c r="BB17">
         <v>6.03</v>
       </c>
-      <c r="AX17">
+      <c r="BC17">
         <v>0.15</v>
       </c>
-      <c r="AY17">
+      <c r="BD17">
         <v>31.7</v>
       </c>
-      <c r="AZ17">
+      <c r="BE17">
         <v>2.46</v>
       </c>
-      <c r="BA17">
+      <c r="BF17">
         <v>0.14</v>
       </c>
-      <c r="BB17">
-        <v>0</v>
-      </c>
-      <c r="BC17">
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
         <v>0.1</v>
       </c>
-      <c r="BD17">
+      <c r="BI17">
         <v>15</v>
       </c>
-      <c r="BE17">
+      <c r="BJ17">
         <v>1.867675416776513</v>
       </c>
-      <c r="BF17">
+      <c r="BK17">
         <v>1.607669844867595</v>
       </c>
-      <c r="BG17">
+      <c r="BL17">
         <v>0.1715545986484071</v>
       </c>
-      <c r="BH17">
+      <c r="BM17">
         <v>0.08966796247156576</v>
       </c>
-      <c r="BI17">
+      <c r="BN17">
         <v>0.2493884626214291</v>
       </c>
-      <c r="BJ17">
+      <c r="BO17">
         <v>0.009234305346775273</v>
       </c>
-      <c r="BK17">
-        <v>0</v>
-      </c>
-      <c r="BL17">
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
         <v>0.004322205822458778</v>
       </c>
-      <c r="BM17">
+      <c r="BR17">
         <v>0.004350182262812648</v>
       </c>
-      <c r="BN17">
+      <c r="BS17">
         <v>0.002689562337191446</v>
       </c>
-      <c r="BO17">
-        <v>0</v>
-      </c>
-      <c r="BP17">
+      <c r="BT17">
+        <v>0</v>
+      </c>
+      <c r="BU17">
         <v>0.1323245832234865</v>
       </c>
-      <c r="BQ17">
+      <c r="BV17">
         <v>0.1170638793979426</v>
       </c>
-      <c r="BR17">
+      <c r="BW17">
         <v>1.872025599039326</v>
       </c>
-      <c r="BS17">
+      <c r="BX17">
         <v>4.00655254115475</v>
       </c>
-      <c r="BT17">
+      <c r="BY17">
         <v>0.04797919997121666</v>
       </c>
-      <c r="BU17">
+      <c r="BZ17">
         <v>0.009234305346775273</v>
       </c>
-      <c r="BV17">
+      <c r="CA17">
         <v>0.004350182262812648</v>
       </c>
-      <c r="BW17">
+      <c r="CB17">
         <v>0.002689562337191446</v>
       </c>
-      <c r="BX17">
+      <c r="CC17">
         <v>0.1051400117139759</v>
       </c>
-      <c r="BY17">
+      <c r="CD17">
         <v>0.08966796247156576</v>
       </c>
-      <c r="BZ17">
+      <c r="CE17">
         <v>0.7921942464450535</v>
       </c>
-      <c r="CA17">
+      <c r="CF17">
         <v>0.7140754079853809</v>
       </c>
-      <c r="CB17">
+      <c r="CG17">
         <v>0.08082574087407518</v>
       </c>
-      <c r="CC17">
+      <c r="CH17">
         <v>0.9035760903684356</v>
       </c>
-      <c r="CD17">
+      <c r="CI17">
         <v>0.7216192685462962</v>
       </c>
-      <c r="CE17">
+      <c r="CJ17">
         <v>1.183404765494318</v>
       </c>
-      <c r="CF17">
+      <c r="CK17">
         <v>0.01310508230950243</v>
       </c>
-      <c r="CG17">
-        <v>0.007644478046862843</v>
-      </c>
-      <c r="CH17">
+      <c r="CL17">
         <v>0.3775166838061101</v>
       </c>
-      <c r="CI17">
+      <c r="CM17">
         <v>0.158697314823601</v>
       </c>
-      <c r="CJ17">
+      <c r="CN17">
         <v>0.6421215631098643</v>
       </c>
     </row>
-    <row r="18" spans="1:88">
+    <row r="18" spans="1:92">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5177,262 +5393,274 @@
         <v>20.1254201128161</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" t="s">
-        <v>88</v>
+        <v>91</v>
+      </c>
+      <c r="F18">
+        <v>0.3153521126760562</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H18">
+        <v>0.0746478873239439</v>
+      </c>
+      <c r="I18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18">
         <v>51.3</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>0.53</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>9.15</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>7.15</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>0.19</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>20.6</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>10.8</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>0.93</v>
       </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
         <v>0.08</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>16</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>1.821393431535253</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>1.090340557472115</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <v>0.2122992386770449</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>0.4108500013360992</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
         <v>0.3828815243520189</v>
       </c>
-      <c r="X18">
+      <c r="Z18">
         <v>0.06402012045072991</v>
       </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
         <v>0.005713801239139493</v>
       </c>
-      <c r="AA18">
+      <c r="AC18">
         <v>0.01415440912474324</v>
       </c>
-      <c r="AB18">
+      <c r="AD18">
         <v>0.002245582134810365</v>
       </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
         <v>0.1786065684647471</v>
       </c>
-      <c r="AE18">
+      <c r="AG18">
         <v>0.2042749558872718</v>
       </c>
-      <c r="AF18">
+      <c r="AH18">
         <v>4.003898666321953</v>
       </c>
-      <c r="AG18">
+      <c r="AI18">
         <v>0.2397738241214324</v>
       </c>
-      <c r="AH18">
+      <c r="AJ18">
+        <v>0.007797332643908373</v>
+      </c>
+      <c r="AK18">
+        <v>0.2045019060331365</v>
+      </c>
+      <c r="AL18">
+        <v>0.03672802923127708</v>
+      </c>
+      <c r="AM18">
         <v>0.001122791067405183</v>
       </c>
-      <c r="AI18">
+      <c r="AN18">
         <v>0.407199563922419</v>
       </c>
-      <c r="AJ18">
+      <c r="AO18">
         <v>0.8370192777377984</v>
       </c>
-      <c r="AK18">
+      <c r="AP18">
         <v>0.06402012045072991</v>
       </c>
-      <c r="AL18">
+      <c r="AQ18">
         <v>0.1402548354365419</v>
       </c>
-      <c r="AM18">
+      <c r="AR18">
         <v>0.01917586651410261</v>
       </c>
-      <c r="AN18">
+      <c r="AS18">
         <v>0.2502965083180495</v>
       </c>
-      <c r="AO18">
+      <c r="AT18">
         <v>0.526171643915555</v>
       </c>
-      <c r="AP18">
+      <c r="AU18">
         <v>0.2502965083180495</v>
       </c>
-      <c r="AQ18">
+      <c r="AV18">
         <v>0.2085892032227362</v>
       </c>
-      <c r="AR18">
+      <c r="AW18">
         <v>0.007797332643908373</v>
       </c>
-      <c r="AS18">
+      <c r="AX18">
         <v>0.2045019060331365</v>
       </c>
-      <c r="AT18">
+      <c r="AY18">
         <v>52.3</v>
       </c>
-      <c r="AU18">
+      <c r="AZ18">
         <v>0.38</v>
       </c>
-      <c r="AV18">
+      <c r="BA18">
         <v>8.16</v>
       </c>
-      <c r="AW18">
+      <c r="BB18">
         <v>9.23</v>
       </c>
-      <c r="AX18">
+      <c r="BC18">
         <v>0.15</v>
       </c>
-      <c r="AY18">
+      <c r="BD18">
         <v>20.6</v>
       </c>
-      <c r="AZ18">
+      <c r="BE18">
         <v>2.16</v>
       </c>
-      <c r="BA18">
+      <c r="BF18">
         <v>0.23</v>
       </c>
-      <c r="BB18">
-        <v>0</v>
-      </c>
-      <c r="BC18">
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
         <v>0.06</v>
       </c>
-      <c r="BD18">
+      <c r="BI18">
         <v>16</v>
       </c>
-      <c r="BE18">
+      <c r="BJ18">
         <v>1.951958915159523</v>
       </c>
-      <c r="BF18">
+      <c r="BK18">
         <v>1.146158684585286</v>
       </c>
-      <c r="BG18">
+      <c r="BL18">
         <v>0.2880890016440429</v>
       </c>
-      <c r="BH18">
+      <c r="BM18">
         <v>0.08637655342932422</v>
       </c>
-      <c r="BI18">
+      <c r="BN18">
         <v>0.3589352056558399</v>
       </c>
-      <c r="BJ18">
+      <c r="BO18">
         <v>0.01664347304416928</v>
       </c>
-      <c r="BK18">
-        <v>0</v>
-      </c>
-      <c r="BL18">
+      <c r="BP18">
+        <v>0</v>
+      </c>
+      <c r="BQ18">
         <v>0.004741823335562981</v>
       </c>
-      <c r="BM18">
+      <c r="BR18">
         <v>0.01066797659197598</v>
       </c>
-      <c r="BN18">
+      <c r="BS18">
         <v>0.001770405664627602</v>
       </c>
-      <c r="BO18">
-        <v>0</v>
-      </c>
-      <c r="BP18">
+      <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BU18">
         <v>0.04804108484047731</v>
       </c>
-      <c r="BQ18">
+      <c r="BV18">
         <v>0.3108941208153626</v>
       </c>
-      <c r="BR18">
+      <c r="BW18">
         <v>1.962626891751499</v>
       </c>
-      <c r="BS18">
+      <c r="BX18">
         <v>3.865342039110351</v>
       </c>
-      <c r="BT18">
+      <c r="BY18">
         <v>0.05680335166083758</v>
       </c>
-      <c r="BU18">
+      <c r="BZ18">
         <v>0.01664347304416928</v>
       </c>
-      <c r="BV18">
+      <c r="CA18">
         <v>0.01066797659197598</v>
       </c>
-      <c r="BW18">
+      <c r="CB18">
         <v>0.001770405664627602</v>
       </c>
-      <c r="BX18">
+      <c r="CC18">
         <v>0.2924802421065656</v>
       </c>
-      <c r="BY18">
+      <c r="CD18">
         <v>0.08637655342932422</v>
       </c>
-      <c r="BZ18">
+      <c r="CE18">
         <v>0.524732368718513</v>
       </c>
-      <c r="CA18">
+      <c r="CF18">
         <v>0.4179506226362872</v>
       </c>
-      <c r="CB18">
+      <c r="CG18">
         <v>0.06879913731094536</v>
       </c>
-      <c r="CC18">
+      <c r="CH18">
         <v>0.7991304465076785</v>
       </c>
-      <c r="CD18">
+      <c r="CI18">
         <v>0.4408730592253848</v>
       </c>
-      <c r="CE18">
+      <c r="CJ18">
         <v>0.7746478873239439</v>
       </c>
-      <c r="CF18">
-        <v>0</v>
-      </c>
-      <c r="CG18">
-        <v>0.007797332643908373</v>
-      </c>
-      <c r="CH18">
+      <c r="CK18">
+        <v>0</v>
+      </c>
+      <c r="CL18">
         <v>0.3642270601296509</v>
       </c>
-      <c r="CI18">
+      <c r="CM18">
         <v>0.1466121592552196</v>
       </c>
-      <c r="CJ18">
+      <c r="CN18">
         <v>0.3826589477726368</v>
       </c>
     </row>
-    <row r="19" spans="1:88">
+    <row r="19" spans="1:92">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5443,262 +5671,274 @@
         <v>17.40991618087587</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="F19">
+        <v>0.0752320664896351</v>
       </c>
       <c r="G19" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H19">
+        <v>0.4652320664896352</v>
+      </c>
+      <c r="I19" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19">
         <v>51.5</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>0.49</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>8.970000000000001</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>6.53</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>0.18</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>20.9</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>11.1</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>0.74</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
         <v>0.08</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>17</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>1.827638769869947</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>1.105701668235015</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>0.1937993465881055</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>0.4220649113094816</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <v>0.3751737908470266</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <v>0.05091690420980111</v>
       </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
         <v>0.005410541908124221</v>
       </c>
-      <c r="AA19">
+      <c r="AC19">
         <v>0.01308002840537479</v>
       </c>
-      <c r="AB19">
+      <c r="AD19">
         <v>0.002244531355459396</v>
       </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
         <v>0.1723612301300526</v>
       </c>
-      <c r="AE19">
+      <c r="AG19">
         <v>0.202812560716974</v>
       </c>
-      <c r="AF19">
+      <c r="AH19">
         <v>3.996030492728336</v>
       </c>
-      <c r="AG19">
+      <c r="AI19">
         <v>0.2451633741715752</v>
       </c>
-      <c r="AH19">
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0.1937993465881055</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
         <v>0.001122265677729698</v>
       </c>
-      <c r="AI19">
+      <c r="AN19">
         <v>0.414147957794247</v>
       </c>
-      <c r="AJ19">
+      <c r="AO19">
         <v>0.8508620979413719</v>
       </c>
-      <c r="AK19">
+      <c r="AP19">
         <v>0.05091690420980111</v>
       </c>
-      <c r="AL19">
+      <c r="AQ19">
         <v>0.1518956565071729</v>
       </c>
-      <c r="AM19">
+      <c r="AR19">
         <v>0.01023278681143983</v>
       </c>
-      <c r="AN19">
+      <c r="AS19">
         <v>0.2588142023131392</v>
       </c>
-      <c r="AO19">
+      <c r="AT19">
         <v>0.5203434062549909</v>
       </c>
-      <c r="AP19">
+      <c r="AU19">
         <v>0.2588142023131392</v>
       </c>
-      <c r="AQ19">
+      <c r="AV19">
         <v>0.2193032116118284</v>
       </c>
-      <c r="AR19">
+      <c r="AW19">
         <v>-0.007939014543329331</v>
       </c>
-      <c r="AS19">
+      <c r="AX19">
         <v>0.2017383611314348</v>
       </c>
-      <c r="AT19">
+      <c r="AY19">
         <v>52.6</v>
       </c>
-      <c r="AU19">
+      <c r="AZ19">
         <v>0.28</v>
       </c>
-      <c r="AV19">
+      <c r="BA19">
         <v>8.6</v>
       </c>
-      <c r="AW19">
+      <c r="BB19">
         <v>7.91</v>
       </c>
-      <c r="AX19">
+      <c r="BC19">
         <v>0.12</v>
       </c>
-      <c r="AY19">
+      <c r="BD19">
         <v>29.5</v>
       </c>
-      <c r="AZ19">
+      <c r="BE19">
         <v>2.11</v>
       </c>
-      <c r="BA19">
+      <c r="BF19">
         <v>0.15</v>
       </c>
-      <c r="BB19">
-        <v>0</v>
-      </c>
-      <c r="BC19">
-        <v>0</v>
-      </c>
-      <c r="BD19">
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
         <v>17</v>
       </c>
-      <c r="BE19">
+      <c r="BJ19">
         <v>1.814573177470779</v>
       </c>
-      <c r="BF19">
+      <c r="BK19">
         <v>1.517117801699066</v>
       </c>
-      <c r="BG19">
+      <c r="BL19">
         <v>0.2282029321540315</v>
       </c>
-      <c r="BH19">
+      <c r="BM19">
         <v>0.07799097225580869</v>
       </c>
-      <c r="BI19">
+      <c r="BN19">
         <v>0.3496585154612812</v>
       </c>
-      <c r="BJ19">
+      <c r="BO19">
         <v>0.01003291514820883</v>
       </c>
-      <c r="BK19">
-        <v>0</v>
-      </c>
-      <c r="BL19">
+      <c r="BP19">
+        <v>0</v>
+      </c>
+      <c r="BQ19">
         <v>0.003506348798191762</v>
       </c>
-      <c r="BM19">
+      <c r="BR19">
         <v>0.007265679692659784</v>
       </c>
-      <c r="BN19">
-        <v>0</v>
-      </c>
-      <c r="BO19">
-        <v>0</v>
-      </c>
-      <c r="BP19">
+      <c r="BS19">
+        <v>0</v>
+      </c>
+      <c r="BT19">
+        <v>0</v>
+      </c>
+      <c r="BU19">
         <v>0.1854268225292215</v>
       </c>
-      <c r="BQ19">
+      <c r="BV19">
         <v>0.1642316929320597</v>
       </c>
-      <c r="BR19">
+      <c r="BW19">
         <v>1.821838857163438</v>
       </c>
-      <c r="BS19">
+      <c r="BX19">
         <v>4.008348342680025</v>
       </c>
-      <c r="BT19">
+      <c r="BY19">
         <v>0.04277434955005455</v>
       </c>
-      <c r="BU19">
+      <c r="BZ19">
         <v>0.01003291514820883</v>
       </c>
-      <c r="BV19">
+      <c r="CA19">
         <v>0.007265679692659784</v>
       </c>
-      <c r="BW19">
-        <v>0</v>
-      </c>
-      <c r="BX19">
+      <c r="CB19">
+        <v>0</v>
+      </c>
+      <c r="CC19">
         <v>0.1541987777838509</v>
       </c>
-      <c r="BY19">
+      <c r="CD19">
         <v>0.07799097225580869</v>
       </c>
-      <c r="BZ19">
+      <c r="CE19">
         <v>0.7546858264594847</v>
       </c>
-      <c r="CA19">
+      <c r="CF19">
         <v>0.6546944025339955</v>
       </c>
-      <c r="CB19">
+      <c r="CG19">
         <v>0.06765762810679109</v>
       </c>
-      <c r="CC19">
+      <c r="CH19">
         <v>0.8692449162917339</v>
       </c>
-      <c r="CD19">
+      <c r="CI19">
         <v>0.667091318605584</v>
       </c>
-      <c r="CE19">
+      <c r="CJ19">
         <v>1.165232066489635</v>
       </c>
-      <c r="CF19">
+      <c r="CK19">
         <v>0.01669668536005101</v>
       </c>
-      <c r="CG19">
-        <v>0</v>
-      </c>
-      <c r="CH19">
+      <c r="CL19">
         <v>0.3741236366989101</v>
       </c>
-      <c r="CI19">
+      <c r="CM19">
         <v>0.134947633016227</v>
       </c>
-      <c r="CJ19">
+      <c r="CN19">
         <v>0.57196278896501</v>
       </c>
     </row>
-    <row r="20" spans="1:88">
+    <row r="20" spans="1:92">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5709,262 +5949,274 @@
         <v>17.6125149573878</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="F20">
+        <v>0.03737522181551789</v>
       </c>
       <c r="G20" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H20">
+        <v>0.427375221815518</v>
+      </c>
+      <c r="I20" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20">
         <v>50.93</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>0.8100000000000001</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>9.02</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>5.82</v>
       </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
         <v>18.51</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>13.34</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>1.23</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
         <v>0.34</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <v>18</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>1.825724344071292</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>0.9891826596478841</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <v>0.1744779335294316</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>0.5123780259526307</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
         <v>0.381087745125077</v>
       </c>
-      <c r="X20">
+      <c r="Z20">
         <v>0.08548969725774266</v>
       </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
       <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
         <v>0.02184117623091262</v>
       </c>
-      <c r="AB20">
+      <c r="AD20">
         <v>0.00963591596610525</v>
       </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
         <v>0.174275655928708</v>
       </c>
-      <c r="AE20">
+      <c r="AG20">
         <v>0.2068120891963691</v>
       </c>
-      <c r="AF20">
+      <c r="AH20">
         <v>3.999817497781076</v>
       </c>
-      <c r="AG20">
+      <c r="AI20">
         <v>0.3057077683678989</v>
       </c>
-      <c r="AH20">
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0.1744779335294316</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
         <v>0.004817957983052625</v>
       </c>
-      <c r="AI20">
+      <c r="AN20">
         <v>0.3063818957743829</v>
       </c>
-      <c r="AJ20">
+      <c r="AO20">
         <v>0.8500568901621762</v>
       </c>
-      <c r="AK20">
+      <c r="AP20">
         <v>0.08548969725774266</v>
       </c>
-      <c r="AL20">
+      <c r="AQ20">
         <v>0.1213223919386264</v>
       </c>
-      <c r="AM20">
+      <c r="AR20">
         <v>0.02647663199504079</v>
       </c>
-      <c r="AN20">
+      <c r="AS20">
         <v>0.3597610440359109</v>
       </c>
-      <c r="AO20">
+      <c r="AT20">
         <v>0.4019497745707024</v>
       </c>
-      <c r="AP20">
+      <c r="AU20">
         <v>0.3597610440359109</v>
       </c>
-      <c r="AQ20">
+      <c r="AV20">
         <v>0.3058188860769606</v>
       </c>
-      <c r="AR20">
+      <c r="AW20">
         <v>-0.0003650044378488947</v>
       </c>
-      <c r="AS20">
+      <c r="AX20">
         <v>0.1748429379672805</v>
       </c>
-      <c r="AT20">
+      <c r="AY20">
         <v>52.95</v>
       </c>
-      <c r="AU20">
+      <c r="AZ20">
         <v>0.52</v>
       </c>
-      <c r="AV20">
+      <c r="BA20">
         <v>7.43</v>
       </c>
-      <c r="AW20">
+      <c r="BB20">
         <v>8.01</v>
       </c>
-      <c r="AX20">
-        <v>0</v>
-      </c>
-      <c r="AY20">
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
         <v>28.72</v>
       </c>
-      <c r="AZ20">
+      <c r="BE20">
         <v>1.93</v>
       </c>
-      <c r="BA20">
+      <c r="BF20">
         <v>0.27</v>
       </c>
-      <c r="BB20">
-        <v>0</v>
-      </c>
-      <c r="BC20">
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
         <v>0.16</v>
       </c>
-      <c r="BD20">
+      <c r="BI20">
         <v>18</v>
       </c>
-      <c r="BE20">
+      <c r="BJ20">
         <v>1.848702475471231</v>
       </c>
-      <c r="BF20">
+      <c r="BK20">
         <v>1.494837690229562</v>
       </c>
-      <c r="BG20">
+      <c r="BL20">
         <v>0.2338781061325325</v>
       </c>
-      <c r="BH20">
+      <c r="BM20">
         <v>0.07219905340519464</v>
       </c>
-      <c r="BI20">
+      <c r="BN20">
         <v>0.3057361464668906</v>
       </c>
-      <c r="BJ20">
+      <c r="BO20">
         <v>0.01827729661506991</v>
       </c>
-      <c r="BK20">
-        <v>0</v>
-      </c>
-      <c r="BL20">
-        <v>0</v>
-      </c>
-      <c r="BM20">
+      <c r="BP20">
+        <v>0</v>
+      </c>
+      <c r="BQ20">
+        <v>0</v>
+      </c>
+      <c r="BR20">
         <v>0.01365632600916762</v>
       </c>
-      <c r="BN20">
+      <c r="BS20">
         <v>0.004416452842694994</v>
       </c>
-      <c r="BO20">
-        <v>0</v>
-      </c>
-      <c r="BP20">
+      <c r="BT20">
+        <v>0</v>
+      </c>
+      <c r="BU20">
         <v>0.1512975245287687</v>
       </c>
-      <c r="BQ20">
+      <c r="BV20">
         <v>0.1544386219381219</v>
       </c>
-      <c r="BR20">
+      <c r="BW20">
         <v>1.862358801480399</v>
       </c>
-      <c r="BS20">
+      <c r="BX20">
         <v>3.991703547172344</v>
       </c>
-      <c r="BT20">
+      <c r="BY20">
         <v>0.04009020938137306</v>
       </c>
-      <c r="BU20">
+      <c r="BZ20">
         <v>0.01827729661506991</v>
       </c>
-      <c r="BV20">
+      <c r="CA20">
         <v>0.01365632600916762</v>
       </c>
-      <c r="BW20">
+      <c r="CB20">
         <v>0.004416452842694994</v>
       </c>
-      <c r="BX20">
+      <c r="CC20">
         <v>0.131744872480357</v>
       </c>
-      <c r="BY20">
+      <c r="CD20">
         <v>0.07219905340519464</v>
       </c>
-      <c r="BZ20">
+      <c r="CE20">
         <v>0.7555577722336878</v>
       </c>
-      <c r="CA20">
+      <c r="CF20">
         <v>0.6533382973983245</v>
       </c>
-      <c r="CB20">
+      <c r="CG20">
         <v>0.06243123737059666</v>
       </c>
-      <c r="CC20">
+      <c r="CH20">
         <v>0.8647060075139015</v>
       </c>
-      <c r="CD20">
+      <c r="CI20">
         <v>0.6765863920553955</v>
       </c>
-      <c r="CE20">
+      <c r="CJ20">
         <v>1.127375221815518</v>
       </c>
-      <c r="CF20">
-        <v>0</v>
-      </c>
-      <c r="CG20">
-        <v>0</v>
-      </c>
-      <c r="CH20">
+      <c r="CK20">
+        <v>0</v>
+      </c>
+      <c r="CL20">
         <v>0.4343298177612585</v>
       </c>
-      <c r="CI20">
+      <c r="CM20">
         <v>0.1480635763928493</v>
       </c>
-      <c r="CJ20">
+      <c r="CN20">
         <v>0.5642558677992351</v>
       </c>
     </row>
-    <row r="21" spans="1:88">
+    <row r="21" spans="1:92">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5975,262 +6227,274 @@
         <v>23.20235756339707</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="F21">
+        <v>0.03834722476096397</v>
       </c>
       <c r="G21" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H21">
+        <v>0.4283472247609641</v>
+      </c>
+      <c r="I21" t="s">
+        <v>93</v>
+      </c>
+      <c r="J21">
         <v>51.63</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>0.4</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>8.59</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>6.96</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>21.39</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>9.76</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>0.97</v>
       </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>0.29</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <v>19</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>1.838486401290081</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>1.135475131388094</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <v>0.2072638353874006</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>0.372375629836339</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
         <v>0.3605025789995469</v>
       </c>
-      <c r="X21">
+      <c r="Z21">
         <v>0.06696951727757079</v>
       </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
       <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
         <v>0.01071390428250045</v>
       </c>
-      <c r="AB21">
+      <c r="AD21">
         <v>0.008164110069931388</v>
       </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
         <v>0.1615135987099188</v>
       </c>
-      <c r="AE21">
+      <c r="AG21">
         <v>0.1989889802896281</v>
       </c>
-      <c r="AF21">
+      <c r="AH21">
         <v>3.999951108531464</v>
       </c>
-      <c r="AG21">
+      <c r="AI21">
         <v>0.217114139528611</v>
       </c>
-      <c r="AH21">
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0.2072638353874006</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
         <v>0.004082055034965694</v>
       </c>
-      <c r="AI21">
+      <c r="AN21">
         <v>0.4385340762954106</v>
       </c>
-      <c r="AJ21">
+      <c r="AO21">
         <v>0.8456366460408655</v>
       </c>
-      <c r="AK21">
+      <c r="AP21">
         <v>0.06696951727757079</v>
       </c>
-      <c r="AL21">
+      <c r="AQ21">
         <v>0.1320194630120573</v>
       </c>
-      <c r="AM21">
+      <c r="AR21">
         <v>0.01474706784893073</v>
       </c>
-      <c r="AN21">
+      <c r="AS21">
         <v>0.2215270439403852</v>
       </c>
-      <c r="AO21">
+      <c r="AT21">
         <v>0.5606059614175545</v>
       </c>
-      <c r="AP21">
+      <c r="AU21">
         <v>0.2215270439403852</v>
       </c>
-      <c r="AQ21">
+      <c r="AV21">
         <v>0.1873323524141697</v>
       </c>
-      <c r="AR21">
+      <c r="AW21">
         <v>-9.778293707081269E-05</v>
       </c>
-      <c r="AS21">
+      <c r="AX21">
         <v>0.2073616183244714</v>
       </c>
-      <c r="AT21">
+      <c r="AY21">
         <v>52.92</v>
       </c>
-      <c r="AU21">
+      <c r="AZ21">
         <v>0.23</v>
       </c>
-      <c r="AV21">
+      <c r="BA21">
         <v>7.39</v>
       </c>
-      <c r="AW21">
+      <c r="BB21">
         <v>8.210000000000001</v>
       </c>
-      <c r="AX21">
-        <v>0</v>
-      </c>
-      <c r="AY21">
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
         <v>28.47</v>
       </c>
-      <c r="AZ21">
+      <c r="BE21">
         <v>2.22</v>
       </c>
-      <c r="BA21">
+      <c r="BF21">
         <v>0.32</v>
       </c>
-      <c r="BB21">
-        <v>0</v>
-      </c>
-      <c r="BC21">
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
         <v>0.24</v>
       </c>
-      <c r="BD21">
+      <c r="BI21">
         <v>19</v>
       </c>
-      <c r="BE21">
+      <c r="BJ21">
         <v>1.851084217747011</v>
       </c>
-      <c r="BF21">
+      <c r="BK21">
         <v>1.484575726112232</v>
       </c>
-      <c r="BG21">
+      <c r="BL21">
         <v>0.2401626647415482</v>
       </c>
-      <c r="BH21">
+      <c r="BM21">
         <v>0.08320174852315879</v>
       </c>
-      <c r="BI21">
+      <c r="BN21">
         <v>0.3046545693381155</v>
       </c>
-      <c r="BJ21">
+      <c r="BO21">
         <v>0.02170218484908133</v>
       </c>
-      <c r="BK21">
-        <v>0</v>
-      </c>
-      <c r="BL21">
-        <v>0</v>
-      </c>
-      <c r="BM21">
+      <c r="BP21">
+        <v>0</v>
+      </c>
+      <c r="BQ21">
+        <v>0</v>
+      </c>
+      <c r="BR21">
         <v>0.006051508567605454</v>
       </c>
-      <c r="BN21">
+      <c r="BS21">
         <v>0.006636974374742892</v>
       </c>
-      <c r="BO21">
-        <v>0</v>
-      </c>
-      <c r="BP21">
+      <c r="BT21">
+        <v>0</v>
+      </c>
+      <c r="BU21">
         <v>0.148915782252989</v>
       </c>
-      <c r="BQ21">
+      <c r="BV21">
         <v>0.1557387870851266</v>
       </c>
-      <c r="BR21">
+      <c r="BW21">
         <v>1.857135726314616</v>
       </c>
-      <c r="BS21">
+      <c r="BX21">
         <v>3.998069594253495</v>
       </c>
-      <c r="BT21">
+      <c r="BY21">
         <v>0.04602018988960119</v>
       </c>
-      <c r="BU21">
+      <c r="BZ21">
         <v>0.02170218484908133</v>
       </c>
-      <c r="BV21">
+      <c r="CA21">
         <v>0.006051508567605454</v>
       </c>
-      <c r="BW21">
+      <c r="CB21">
         <v>0.006636974374742892</v>
       </c>
-      <c r="BX21">
+      <c r="CC21">
         <v>0.1273996278613024</v>
       </c>
-      <c r="BY21">
+      <c r="CD21">
         <v>0.08320174852315879</v>
       </c>
-      <c r="BZ21">
+      <c r="CE21">
         <v>0.754042752950857</v>
       </c>
-      <c r="CA21">
+      <c r="CF21">
         <v>0.6490454282330568</v>
       </c>
-      <c r="CB21">
+      <c r="CG21">
         <v>0.0716162502571948</v>
       </c>
-      <c r="CC21">
+      <c r="CH21">
         <v>0.8607501452709334</v>
       </c>
-      <c r="CD21">
+      <c r="CI21">
         <v>0.6616665037017034</v>
       </c>
-      <c r="CE21">
+      <c r="CJ21">
         <v>1.128347224760964</v>
       </c>
-      <c r="CF21">
-        <v>0</v>
-      </c>
-      <c r="CG21">
-        <v>0</v>
-      </c>
-      <c r="CH21">
+      <c r="CK21">
+        <v>0</v>
+      </c>
+      <c r="CL21">
         <v>0.3352576977113866</v>
       </c>
-      <c r="CI21">
+      <c r="CM21">
         <v>0.132566153384807</v>
       </c>
-      <c r="CJ21">
+      <c r="CN21">
         <v>0.5526150079977926</v>
       </c>
     </row>
-    <row r="22" spans="1:88">
+    <row r="22" spans="1:92">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6241,262 +6505,274 @@
         <v>25.67194656878541</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="F22">
+        <v>0.003163923543429092</v>
       </c>
       <c r="G22" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H22">
+        <v>0.3931639235434292</v>
+      </c>
+      <c r="I22" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22">
         <v>51.39</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>0.83</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>9.380000000000001</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>7.57</v>
       </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
         <v>19.55</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>9.49</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>1.64</v>
       </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>0.15</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <v>20</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>1.835115363760211</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>1.040734761863997</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <v>0.2260667167892667</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>0.363098205224805</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
         <v>0.3947703322764864</v>
       </c>
-      <c r="X22">
+      <c r="Z22">
         <v>0.1135470195195122</v>
       </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
       <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
         <v>0.022294221918162</v>
       </c>
-      <c r="AB22">
+      <c r="AD22">
         <v>0.004234757727132118</v>
       </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
         <v>0.1648846362397889</v>
       </c>
-      <c r="AE22">
+      <c r="AG22">
         <v>0.2298856960366975</v>
       </c>
-      <c r="AF22">
+      <c r="AH22">
         <v>3.999861379079573</v>
       </c>
-      <c r="AG22">
+      <c r="AI22">
         <v>0.2227733453882724</v>
       </c>
-      <c r="AH22">
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0.2260667167892667</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
         <v>0.002117378863566059</v>
       </c>
-      <c r="AI22">
+      <c r="AN22">
         <v>0.3892314782125307</v>
       </c>
-      <c r="AJ22">
+      <c r="AO22">
         <v>0.8215403717111716</v>
       </c>
-      <c r="AK22">
+      <c r="AP22">
         <v>0.1135470195195122</v>
       </c>
-      <c r="AL22">
+      <c r="AQ22">
         <v>0.1163386765171854</v>
       </c>
-      <c r="AM22">
+      <c r="AR22">
         <v>0.02427297986130177</v>
       </c>
-      <c r="AN22">
+      <c r="AS22">
         <v>0.2203691699827518</v>
       </c>
-      <c r="AO22">
+      <c r="AT22">
         <v>0.523216154335256</v>
       </c>
-      <c r="AP22">
+      <c r="AU22">
         <v>0.2203691699827518</v>
       </c>
-      <c r="AQ22">
+      <c r="AV22">
         <v>0.1810432490874445</v>
       </c>
-      <c r="AR22">
+      <c r="AW22">
         <v>-0.0002772418408525665</v>
       </c>
-      <c r="AS22">
+      <c r="AX22">
         <v>0.2263439586301192</v>
       </c>
-      <c r="AT22">
+      <c r="AY22">
         <v>52.41</v>
       </c>
-      <c r="AU22">
+      <c r="AZ22">
         <v>0.5</v>
       </c>
-      <c r="AV22">
+      <c r="BA22">
         <v>7.66</v>
       </c>
-      <c r="AW22">
+      <c r="BB22">
         <v>9.67</v>
       </c>
-      <c r="AX22">
-        <v>0</v>
-      </c>
-      <c r="AY22">
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
         <v>27.3</v>
       </c>
-      <c r="AZ22">
+      <c r="BE22">
         <v>1.83</v>
       </c>
-      <c r="BA22">
+      <c r="BF22">
         <v>0.54</v>
       </c>
-      <c r="BB22">
-        <v>0</v>
-      </c>
-      <c r="BC22">
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
         <v>0.09</v>
       </c>
-      <c r="BD22">
+      <c r="BI22">
         <v>20</v>
       </c>
-      <c r="BE22">
+      <c r="BJ22">
         <v>1.844451339363963</v>
       </c>
-      <c r="BF22">
+      <c r="BK22">
         <v>1.43226782202421</v>
       </c>
-      <c r="BG22">
+      <c r="BL22">
         <v>0.2846004028384017</v>
       </c>
-      <c r="BH22">
+      <c r="BM22">
         <v>0.06900447696693206</v>
       </c>
-      <c r="BI22">
+      <c r="BN22">
         <v>0.317715737449353</v>
       </c>
-      <c r="BJ22">
+      <c r="BO22">
         <v>0.03684630473791218</v>
       </c>
-      <c r="BK22">
-        <v>0</v>
-      </c>
-      <c r="BL22">
-        <v>0</v>
-      </c>
-      <c r="BM22">
+      <c r="BP22">
+        <v>0</v>
+      </c>
+      <c r="BQ22">
+        <v>0</v>
+      </c>
+      <c r="BR22">
         <v>0.01323587084386888</v>
       </c>
-      <c r="BN22">
+      <c r="BS22">
         <v>0.002504079474538278</v>
       </c>
-      <c r="BO22">
-        <v>0</v>
-      </c>
-      <c r="BP22">
+      <c r="BT22">
+        <v>0</v>
+      </c>
+      <c r="BU22">
         <v>0.155548660636037</v>
       </c>
-      <c r="BQ22">
+      <c r="BV22">
         <v>0.162167076813316</v>
       </c>
-      <c r="BR22">
+      <c r="BW22">
         <v>1.857687210207832</v>
       </c>
-      <c r="BS22">
+      <c r="BX22">
         <v>4.000626033699179</v>
       </c>
-      <c r="BT22">
+      <c r="BY22">
         <v>0.03863907931189058</v>
       </c>
-      <c r="BU22">
+      <c r="BZ22">
         <v>0.03684630473791218</v>
       </c>
-      <c r="BV22">
+      <c r="CA22">
         <v>0.01323587084386888</v>
       </c>
-      <c r="BW22">
+      <c r="CB22">
         <v>0.002504079474538278</v>
       </c>
-      <c r="BX22">
+      <c r="CC22">
         <v>0.1228166926008655</v>
       </c>
-      <c r="BY22">
+      <c r="CD22">
         <v>0.06900447696693206</v>
       </c>
-      <c r="BZ22">
+      <c r="CE22">
         <v>0.7559055922254725</v>
       </c>
-      <c r="CA22">
+      <c r="CF22">
         <v>0.630601254396991</v>
       </c>
-      <c r="CB22">
+      <c r="CG22">
         <v>0.05756579946213194</v>
       </c>
-      <c r="CC22">
+      <c r="CH22">
         <v>0.8342282011179973</v>
       </c>
-      <c r="CD22">
+      <c r="CI22">
         <v>0.6528593784263403</v>
       </c>
-      <c r="CE22">
+      <c r="CJ22">
         <v>1.093163923543429</v>
       </c>
-      <c r="CF22">
+      <c r="CK22">
         <v>0.001252067398357143</v>
       </c>
-      <c r="CG22">
-        <v>0</v>
-      </c>
-      <c r="CH22">
+      <c r="CL22">
         <v>0.327101955213809</v>
       </c>
-      <c r="CI22">
+      <c r="CM22">
         <v>0.1083439825935619</v>
       </c>
-      <c r="CJ22">
+      <c r="CN22">
         <v>0.5132159573216484</v>
       </c>
     </row>
-    <row r="23" spans="1:88">
+    <row r="23" spans="1:92">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6507,262 +6783,274 @@
         <v>5.3666073031756</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="F23">
+        <v>0.001964847370438561</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H23">
+        <v>0.3919648473704387</v>
+      </c>
+      <c r="I23" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23">
         <v>52.98</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>0.14</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>5.04</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>3.48</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>0.11</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>19.61</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>17.76</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>0.23</v>
       </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <v>1.36</v>
       </c>
-      <c r="R23">
+      <c r="T23">
         <v>21</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>1.890087051153337</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>1.042931997747837</v>
       </c>
-      <c r="U23">
+      <c r="W23">
         <v>0.103825753302678</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>0.6788689580329174</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
         <v>0.2119128559889479</v>
       </c>
-      <c r="X23">
+      <c r="Z23">
         <v>0.01590907122840889</v>
       </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
         <v>0.003323897822591151</v>
       </c>
-      <c r="AA23">
+      <c r="AC23">
         <v>0.003756880338554772</v>
       </c>
-      <c r="AB23">
+      <c r="AD23">
         <v>0.03835847367504488</v>
       </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
         <v>0.1099129488466632</v>
       </c>
-      <c r="AE23">
+      <c r="AG23">
         <v>0.1019999071422846</v>
       </c>
-      <c r="AF23">
+      <c r="AH23">
         <v>3.988974939290318</v>
       </c>
-      <c r="AG23">
+      <c r="AI23">
         <v>0.3718552947627217</v>
       </c>
-      <c r="AH23">
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0.103825753302678</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
         <v>0.01917923683752244</v>
       </c>
-      <c r="AI23">
+      <c r="AN23">
         <v>0.2645999174724792</v>
       </c>
-      <c r="AJ23">
+      <c r="AO23">
         <v>0.9094587260911187</v>
       </c>
-      <c r="AK23">
+      <c r="AP23">
         <v>0.01590907122840889</v>
       </c>
-      <c r="AL23">
+      <c r="AQ23">
         <v>0.08609083591387573</v>
       </c>
-      <c r="AM23">
+      <c r="AR23">
         <v>0.01191105646639376</v>
       </c>
-      <c r="AN23">
+      <c r="AS23">
         <v>0.5616878288151254</v>
       </c>
-      <c r="AO23">
+      <c r="AT23">
         <v>0.292534961117695</v>
       </c>
-      <c r="AP23">
+      <c r="AU23">
         <v>0.5616878288151254</v>
       </c>
-      <c r="AQ23">
+      <c r="AV23">
         <v>0.5093570617275696</v>
       </c>
-      <c r="AR23">
+      <c r="AW23">
         <v>-0.0220501214193669</v>
       </c>
-      <c r="AS23">
+      <c r="AX23">
         <v>0.125875874722045</v>
       </c>
-      <c r="AT23">
+      <c r="AY23">
         <v>56.89</v>
       </c>
-      <c r="AU23">
+      <c r="AZ23">
         <v>0.04</v>
       </c>
-      <c r="AV23">
+      <c r="BA23">
         <v>3.19</v>
       </c>
-      <c r="AW23">
+      <c r="BB23">
         <v>5.48</v>
       </c>
-      <c r="AX23">
+      <c r="BC23">
         <v>0.1</v>
       </c>
-      <c r="AY23">
+      <c r="BD23">
         <v>33.72</v>
       </c>
-      <c r="AZ23">
+      <c r="BE23">
         <v>1.05</v>
       </c>
-      <c r="BA23">
-        <v>0</v>
-      </c>
-      <c r="BB23">
-        <v>0</v>
-      </c>
-      <c r="BC23">
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
         <v>0.84</v>
       </c>
-      <c r="BD23">
+      <c r="BI23">
         <v>21</v>
       </c>
-      <c r="BE23">
+      <c r="BJ23">
         <v>1.933533375394973</v>
       </c>
-      <c r="BF23">
+      <c r="BK23">
         <v>1.708487677249445</v>
       </c>
-      <c r="BG23">
+      <c r="BL23">
         <v>0.1557586920773305</v>
       </c>
-      <c r="BH23">
+      <c r="BM23">
         <v>0.03823650374625578</v>
       </c>
-      <c r="BI23">
+      <c r="BN23">
         <v>0.1277801335137031</v>
       </c>
-      <c r="BJ23">
-        <v>0</v>
-      </c>
-      <c r="BK23">
-        <v>0</v>
-      </c>
-      <c r="BL23">
+      <c r="BO23">
+        <v>0</v>
+      </c>
+      <c r="BP23">
+        <v>0</v>
+      </c>
+      <c r="BQ23">
         <v>0.00287872955258104</v>
       </c>
-      <c r="BM23">
+      <c r="BR23">
         <v>0.001022598625098111</v>
       </c>
-      <c r="BN23">
+      <c r="BS23">
         <v>0.02257083270912718</v>
       </c>
-      <c r="BO23">
-        <v>0</v>
-      </c>
-      <c r="BP23">
+      <c r="BT23">
+        <v>0</v>
+      </c>
+      <c r="BU23">
         <v>0.06646662460502739</v>
       </c>
-      <c r="BQ23">
+      <c r="BV23">
         <v>0.06131350890867568</v>
       </c>
-      <c r="BR23">
+      <c r="BW23">
         <v>1.934555974020071</v>
       </c>
-      <c r="BS23">
+      <c r="BX23">
         <v>3.990268542868513</v>
       </c>
-      <c r="BT23">
+      <c r="BY23">
         <v>0.02009821180912569</v>
       </c>
-      <c r="BU23">
-        <v>0</v>
-      </c>
-      <c r="BV23">
+      <c r="BZ23">
+        <v>0</v>
+      </c>
+      <c r="CA23">
         <v>0.001022598625098111</v>
       </c>
-      <c r="BW23">
+      <c r="CB23">
         <v>0.02257083270912718</v>
       </c>
-      <c r="BX23">
+      <c r="CC23">
         <v>0.03874267619954851</v>
       </c>
-      <c r="BY23">
+      <c r="CD23">
         <v>0.03823650374625578</v>
       </c>
-      <c r="BZ23">
+      <c r="CE23">
         <v>0.8945616601542273</v>
       </c>
-      <c r="CA23">
+      <c r="CF23">
         <v>0.8185566001070916</v>
       </c>
-      <c r="CB23">
+      <c r="CG23">
         <v>0.03498779782393215</v>
       </c>
-      <c r="CC23">
+      <c r="CH23">
         <v>0.9164469551211019</v>
       </c>
-      <c r="CD23">
+      <c r="CI23">
         <v>0.8417691953279121</v>
       </c>
-      <c r="CE23">
+      <c r="CJ23">
         <v>1.091964847370439</v>
       </c>
-      <c r="CF23">
-        <v>0</v>
-      </c>
-      <c r="CG23">
-        <v>0</v>
-      </c>
-      <c r="CH23">
+      <c r="CK23">
+        <v>0</v>
+      </c>
+      <c r="CL23">
         <v>0.5339199432974739</v>
       </c>
-      <c r="CI23">
+      <c r="CM23">
         <v>0.1190682268273996</v>
       </c>
-      <c r="CJ23">
+      <c r="CN23">
         <v>0.7372429850979716</v>
       </c>
     </row>
-    <row r="24" spans="1:88">
+    <row r="24" spans="1:92">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6773,258 +7061,270 @@
         <v>10.3214344688471</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="F24">
+        <v>0.02320331545587506</v>
       </c>
       <c r="G24" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H24">
+        <v>0.3667966845441251</v>
+      </c>
+      <c r="I24" t="s">
+        <v>93</v>
+      </c>
+      <c r="J24">
         <v>53.77</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>0.11</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>4.31</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>3.6</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>0.11</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>20.51</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>16.95</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>0.23</v>
       </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>1.51</v>
       </c>
-      <c r="R24">
+      <c r="T24">
         <v>22</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>1.906973063765443</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>1.084373081417732</v>
       </c>
-      <c r="U24">
+      <c r="W24">
         <v>0.1067733864000706</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>0.6440911931826261</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
         <v>0.1801518422485006</v>
       </c>
-      <c r="X24">
+      <c r="Z24">
         <v>0.0158153750585587</v>
       </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
         <v>0.00330432179012019</v>
       </c>
-      <c r="AA24">
+      <c r="AC24">
         <v>0.00293444977874794</v>
       </c>
-      <c r="AB24">
+      <c r="AD24">
         <v>0.04233835947935783</v>
       </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
         <v>0.0930269362345566</v>
       </c>
-      <c r="AE24">
+      <c r="AG24">
         <v>0.08712490601394404</v>
       </c>
-      <c r="AF24">
+      <c r="AH24">
         <v>3.986755073121157</v>
       </c>
-      <c r="AG24">
+      <c r="AI24">
         <v>0.3509579205297682</v>
       </c>
-      <c r="AH24">
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0.1067733864000706</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
         <v>0.02116917973967892</v>
       </c>
-      <c r="AI24">
+      <c r="AN24">
         <v>0.299570351050537</v>
       </c>
-      <c r="AJ24">
+      <c r="AO24">
         <v>0.9103580992031046</v>
       </c>
-      <c r="AK24">
+      <c r="AP24">
         <v>0.0158153750585587</v>
       </c>
-      <c r="AL24">
+      <c r="AQ24">
         <v>0.07130953095538534</v>
       </c>
-      <c r="AM24">
+      <c r="AR24">
         <v>0.01085870263958563</v>
       </c>
-      <c r="AN24">
+      <c r="AS24">
         <v>0.5407537798479762</v>
       </c>
-      <c r="AO24">
+      <c r="AT24">
         <v>0.325196343984913</v>
       </c>
-      <c r="AP24">
+      <c r="AU24">
         <v>0.5407537798479762</v>
       </c>
-      <c r="AQ24">
+      <c r="AV24">
         <v>0.4909192137873793</v>
       </c>
-      <c r="AR24">
+      <c r="AW24">
         <v>-0.02648985375768245</v>
       </c>
-      <c r="AS24">
+      <c r="AX24">
         <v>0.133263240157753</v>
       </c>
-      <c r="AT24">
+      <c r="AY24">
         <v>56.66</v>
       </c>
-      <c r="AU24">
+      <c r="AZ24">
         <v>0.05</v>
       </c>
-      <c r="AV24">
+      <c r="BA24">
         <v>3.47</v>
       </c>
-      <c r="AW24">
+      <c r="BB24">
         <v>5.4</v>
       </c>
-      <c r="AX24">
+      <c r="BC24">
         <v>0.12</v>
       </c>
-      <c r="AY24">
+      <c r="BD24">
         <v>32.82</v>
       </c>
-      <c r="AZ24">
+      <c r="BE24">
         <v>1.56</v>
       </c>
-      <c r="BA24">
+      <c r="BF24">
         <v>0.04</v>
       </c>
-      <c r="BB24">
-        <v>0</v>
-      </c>
-      <c r="BC24">
+      <c r="BG24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
         <v>0.9399999999999999</v>
       </c>
-      <c r="BD24">
+      <c r="BI24">
         <v>22</v>
       </c>
-      <c r="BE24">
+      <c r="BJ24">
         <v>1.932698820082898</v>
       </c>
-      <c r="BF24">
+      <c r="BK24">
         <v>1.668916981141206</v>
       </c>
-      <c r="BG24">
+      <c r="BL24">
         <v>0.1540413674126703</v>
       </c>
-      <c r="BH24">
+      <c r="BM24">
         <v>0.05701450340494062</v>
       </c>
-      <c r="BI24">
+      <c r="BN24">
         <v>0.1394999337723593</v>
       </c>
-      <c r="BJ24">
+      <c r="BO24">
         <v>0.00264542065473003</v>
       </c>
-      <c r="BK24">
-        <v>0</v>
-      </c>
-      <c r="BL24">
+      <c r="BP24">
+        <v>0</v>
+      </c>
+      <c r="BQ24">
         <v>0.003467001139399761</v>
       </c>
-      <c r="BM24">
+      <c r="BR24">
         <v>0.001282883116495295</v>
       </c>
-      <c r="BN24">
+      <c r="BS24">
         <v>0.02534941967806201</v>
       </c>
-      <c r="BO24">
-        <v>0</v>
-      </c>
-      <c r="BP24">
+      <c r="BT24">
+        <v>0</v>
+      </c>
+      <c r="BU24">
         <v>0.06730117991710238</v>
       </c>
-      <c r="BQ24">
+      <c r="BV24">
         <v>0.07219875385525693</v>
       </c>
-      <c r="BR24">
+      <c r="BW24">
         <v>1.933981703199393</v>
       </c>
-      <c r="BS24">
+      <c r="BX24">
         <v>3.984916330402761</v>
       </c>
-      <c r="BT24">
+      <c r="BY24">
         <v>0.03032730145306885</v>
       </c>
-      <c r="BU24">
+      <c r="BZ24">
         <v>0.00264542065473003</v>
       </c>
-      <c r="BV24">
+      <c r="CA24">
         <v>0.001282883116495295</v>
       </c>
-      <c r="BW24">
+      <c r="CB24">
         <v>0.02534941967806201</v>
       </c>
-      <c r="BX24">
+      <c r="CC24">
         <v>0.04420391352246489</v>
       </c>
-      <c r="BY24">
+      <c r="CD24">
         <v>0.05701450340494062</v>
       </c>
-      <c r="BZ24">
+      <c r="CE24">
         <v>0.861962024824688</v>
       </c>
-      <c r="CA24">
+      <c r="CF24">
         <v>0.7876276249507617</v>
       </c>
-      <c r="CB24">
+      <c r="CG24">
         <v>0.05209765234577921</v>
       </c>
-      <c r="CC24">
+      <c r="CH24">
         <v>0.9154966548994569</v>
       </c>
-      <c r="CD24">
+      <c r="CI24">
         <v>0.8086269559744611</v>
       </c>
-      <c r="CE24">
+      <c r="CJ24">
         <v>1.066796684544125</v>
       </c>
-      <c r="CF24">
-        <v>0</v>
-      </c>
-      <c r="CG24">
-        <v>0</v>
-      </c>
-      <c r="CH24">
+      <c r="CK24">
+        <v>0</v>
+      </c>
+      <c r="CL24">
         <v>0.5116772454728077</v>
       </c>
-      <c r="CI24">
+      <c r="CM24">
         <v>0.1601941348818498</v>
       </c>
-      <c r="CJ24">
+      <c r="CN24">
         <v>0.7071728844910773</v>
       </c>
     </row>

--- a/docs/Examples/Two_Pyroxene_Thermobarometry/Cpx-Opx_outputs.xlsx
+++ b/docs/Examples/Two_Pyroxene_Thermobarometry/Cpx-Opx_outputs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="101">
   <si>
     <t>T_K_calc</t>
   </si>
@@ -112,6 +112,15 @@
     <t>Al_VI_cat_6ox</t>
   </si>
   <si>
+    <t>En_Simple_MgFeCa_Cpx</t>
+  </si>
+  <si>
+    <t>Fs_Simple_MgFeCa_Cpx</t>
+  </si>
+  <si>
+    <t>Wo_Simple_MgFeCa_Cpx</t>
+  </si>
+  <si>
     <t>Cation_Sum_Cpx</t>
   </si>
   <si>
@@ -139,6 +148,9 @@
     <t>Jd</t>
   </si>
   <si>
+    <t>Jd_from 0=Na, 1=Al</t>
+  </si>
+  <si>
     <t>CaTs</t>
   </si>
   <si>
@@ -236,6 +248,15 @@
   </si>
   <si>
     <t>Si_Ti_Opx_cat_6ox</t>
+  </si>
+  <si>
+    <t>En_Simple_MgFeCa_Opx</t>
+  </si>
+  <si>
+    <t>Fs_Simple_MgFeCa_Opx</t>
+  </si>
+  <si>
+    <t>Wo_Simple_MgFeCa_Opx</t>
   </si>
   <si>
     <t>Cation_Sum_Opx</t>
@@ -653,13 +674,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CN24"/>
+  <dimension ref="A1:CU24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:92">
+    <row r="1" spans="1:99">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -886,28 +907,28 @@
         <v>74</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="CG1" s="1" t="s">
         <v>82</v>
@@ -933,8 +954,29 @@
       <c r="CN1" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="CO1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="2" spans="1:92">
+    <row r="2" spans="1:99">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -945,22 +987,22 @@
         <v>3.380885233220681</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F2">
         <v>0.2553161317837727</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H2">
         <v>0.1346838682162275</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J2">
         <v>52.3</v>
@@ -1035,184 +1077,205 @@
         <v>0.04145676971435933</v>
       </c>
       <c r="AH2">
+        <v>0.4754587198003181</v>
+      </c>
+      <c r="AI2">
+        <v>0.08194497992490378</v>
+      </c>
+      <c r="AJ2">
+        <v>0.4425963002747781</v>
+      </c>
+      <c r="AK2">
         <v>4.007242379194101</v>
       </c>
-      <c r="AI2">
+      <c r="AL2">
         <v>0.4425963002747781</v>
       </c>
-      <c r="AJ2">
+      <c r="AM2">
         <v>0.01448475838819824</v>
       </c>
-      <c r="AK2">
+      <c r="AN2">
         <v>0.1414540523367305</v>
       </c>
-      <c r="AL2">
+      <c r="AO2">
         <v>0.09288744938390552</v>
       </c>
-      <c r="AM2">
+      <c r="AP2">
         <v>0.008382597279858349</v>
       </c>
-      <c r="AN2">
+      <c r="AQ2">
         <v>0.1229771712892724</v>
       </c>
-      <c r="AO2">
+      <c r="AR2">
         <v>0.8529839056515048</v>
       </c>
-      <c r="AP2">
+      <c r="AS2">
         <v>0.02339317258720643</v>
       </c>
-      <c r="AQ2">
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
         <v>0.0180635971271529</v>
       </c>
-      <c r="AR2">
+      <c r="AV2">
         <v>0.03487607698831335</v>
       </c>
-      <c r="AS2">
+      <c r="AW2">
         <v>0.7809250604040356</v>
       </c>
-      <c r="AT2">
+      <c r="AX2">
         <v>0.1398986347435507</v>
       </c>
-      <c r="AU2">
+      <c r="AY2">
         <v>0.7809250604040356</v>
       </c>
-      <c r="AV2">
+      <c r="AZ2">
         <v>0.6639874023754356</v>
       </c>
-      <c r="AW2">
+      <c r="BA2">
         <v>0.01448475838819824</v>
       </c>
-      <c r="AX2">
+      <c r="BB2">
         <v>0.1414540523367305</v>
       </c>
-      <c r="AY2">
+      <c r="BC2">
         <v>55</v>
       </c>
-      <c r="AZ2">
+      <c r="BD2">
         <v>0.34</v>
       </c>
-      <c r="BA2">
+      <c r="BE2">
         <v>1.5</v>
       </c>
-      <c r="BB2">
+      <c r="BF2">
         <v>11.3</v>
       </c>
-      <c r="BC2">
+      <c r="BG2">
         <v>0.24</v>
       </c>
-      <c r="BD2">
+      <c r="BH2">
         <v>30.7</v>
       </c>
-      <c r="BE2">
+      <c r="BI2">
         <v>0.9</v>
       </c>
-      <c r="BF2">
+      <c r="BJ2">
         <v>0.01</v>
       </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
         <v>0.19</v>
       </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
         <v>1.943664819189635</v>
       </c>
-      <c r="BK2">
+      <c r="BO2">
         <v>1.617355930882357</v>
       </c>
-      <c r="BL2">
+      <c r="BP2">
         <v>0.3339589768983641</v>
       </c>
-      <c r="BM2">
+      <c r="BQ2">
         <v>0.0340780181697155</v>
       </c>
-      <c r="BN2">
+      <c r="BR2">
         <v>0.06247508544477477</v>
       </c>
-      <c r="BO2">
+      <c r="BS2">
         <v>0.0006851818051019169</v>
       </c>
-      <c r="BP2">
-        <v>0</v>
-      </c>
-      <c r="BQ2">
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
         <v>0.007183813567757172</v>
       </c>
-      <c r="BR2">
+      <c r="BV2">
         <v>0.00903789050241028</v>
       </c>
-      <c r="BS2">
+      <c r="BW2">
         <v>0.005308414685334384</v>
       </c>
-      <c r="BT2">
-        <v>0</v>
-      </c>
-      <c r="BU2">
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
         <v>0.05633518081036493</v>
       </c>
-      <c r="BV2">
+      <c r="BZ2">
         <v>0.006139904634409839</v>
       </c>
-      <c r="BW2">
+      <c r="CA2">
         <v>1.952702709692045</v>
       </c>
-      <c r="BX2">
+      <c r="CB2">
+        <v>0.8146276284872451</v>
+      </c>
+      <c r="CC2">
+        <v>0.1682080018183267</v>
+      </c>
+      <c r="CD2">
+        <v>0.01716436969442804</v>
+      </c>
+      <c r="CE2">
         <v>4.013748131145451</v>
       </c>
-      <c r="BY2">
+      <c r="CF2">
         <v>0.01716436969442805</v>
       </c>
-      <c r="BZ2">
+      <c r="CG2">
         <v>0.0006851818051019169</v>
       </c>
-      <c r="CA2">
+      <c r="CH2">
         <v>0.00903789050241028</v>
       </c>
-      <c r="CB2">
+      <c r="CI2">
         <v>0.005308414685334384</v>
       </c>
-      <c r="CC2">
+      <c r="CJ2">
         <v>0.0001463081439735383</v>
       </c>
-      <c r="CD2">
+      <c r="CK2">
         <v>0.0340780181697155</v>
       </c>
-      <c r="CE2">
+      <c r="CL2">
         <v>0.9576182522661897</v>
       </c>
-      <c r="CF2">
+      <c r="CM2">
         <v>0.7908146903243943</v>
       </c>
-      <c r="CG2">
+      <c r="CN2">
         <v>0.02814210915673055</v>
       </c>
-      <c r="CH2">
+      <c r="CO2">
         <v>0.8288496529558559</v>
       </c>
-      <c r="CI2">
+      <c r="CP2">
         <v>0.871733266616006</v>
       </c>
-      <c r="CJ2">
+      <c r="CQ2">
         <v>0.8346838682162274</v>
       </c>
-      <c r="CK2">
+      <c r="CR2">
         <v>0.02749626229090206</v>
       </c>
-      <c r="CL2">
+      <c r="CS2">
         <v>0.6049906913301222</v>
       </c>
-      <c r="CM2">
+      <c r="CT2">
         <v>0.2160218179408092</v>
       </c>
-      <c r="CN2">
+      <c r="CU2">
         <v>0.6450669795758558</v>
       </c>
     </row>
-    <row r="3" spans="1:92">
+    <row r="3" spans="1:99">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1223,22 +1286,22 @@
         <v>15.87875435350102</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F3">
         <v>0.006163375066125854</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H3">
         <v>0.3838366249338743</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J3">
         <v>51.7</v>
@@ -1313,184 +1376,205 @@
         <v>0.1800089109296265</v>
       </c>
       <c r="AH3">
+        <v>0.6376244630660942</v>
+      </c>
+      <c r="AI3">
+        <v>0.1118213583887809</v>
+      </c>
+      <c r="AJ3">
+        <v>0.2505541785451249</v>
+      </c>
+      <c r="AK3">
         <v>4.008629831538403</v>
       </c>
-      <c r="AI3">
+      <c r="AL3">
         <v>0.2505541785451249</v>
       </c>
-      <c r="AJ3">
+      <c r="AM3">
         <v>0.01725966307680662</v>
       </c>
-      <c r="AK3">
+      <c r="AN3">
         <v>0.1808135391682504</v>
       </c>
-      <c r="AL3">
+      <c r="AO3">
         <v>0.08713779997080517</v>
       </c>
-      <c r="AM3">
+      <c r="AP3">
         <v>0.0006997391552079601</v>
       </c>
-      <c r="AN3">
+      <c r="AQ3">
         <v>0.4110860844996327</v>
       </c>
-      <c r="AO3">
+      <c r="AR3">
         <v>0.8507903663063912</v>
       </c>
-      <c r="AP3">
+      <c r="AS3">
         <v>0.04393096290455207</v>
       </c>
-      <c r="AQ3">
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
         <v>0.1360779480250744</v>
       </c>
-      <c r="AR3">
+      <c r="AV3">
         <v>0.01678600363379479</v>
       </c>
-      <c r="AS3">
+      <c r="AW3">
         <v>0.2902519558154839</v>
       </c>
-      <c r="AT3">
+      <c r="AX3">
         <v>0.5186342191765658</v>
       </c>
-      <c r="AU3">
+      <c r="AY3">
         <v>0.2902519558154839</v>
       </c>
-      <c r="AV3">
+      <c r="AZ3">
         <v>0.2461109069434917</v>
       </c>
-      <c r="AW3">
+      <c r="BA3">
         <v>0.01725966307680662</v>
       </c>
-      <c r="AX3">
+      <c r="BB3">
         <v>0.1808135391682504</v>
       </c>
-      <c r="AY3">
+      <c r="BC3">
         <v>52.7</v>
       </c>
-      <c r="AZ3">
+      <c r="BD3">
         <v>0.15</v>
       </c>
-      <c r="BA3">
+      <c r="BE3">
         <v>8.1</v>
       </c>
-      <c r="BB3">
+      <c r="BF3">
         <v>8.48</v>
       </c>
-      <c r="BC3">
+      <c r="BG3">
         <v>0.14</v>
       </c>
-      <c r="BD3">
+      <c r="BH3">
         <v>29.4</v>
       </c>
-      <c r="BE3">
+      <c r="BI3">
         <v>2.14</v>
       </c>
-      <c r="BF3">
+      <c r="BJ3">
         <v>0.14</v>
       </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
         <v>1</v>
       </c>
-      <c r="BJ3">
+      <c r="BN3">
         <v>1.82339591759014</v>
       </c>
-      <c r="BK3">
+      <c r="BO3">
         <v>1.516443517365618</v>
       </c>
-      <c r="BL3">
+      <c r="BP3">
         <v>0.245370421628838</v>
       </c>
-      <c r="BM3">
+      <c r="BQ3">
         <v>0.07933362016769702</v>
       </c>
-      <c r="BN3">
+      <c r="BR3">
         <v>0.3303028318221297</v>
       </c>
-      <c r="BO3">
+      <c r="BS3">
         <v>0.009391728644565724</v>
       </c>
-      <c r="BP3">
-        <v>0</v>
-      </c>
-      <c r="BQ3">
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
         <v>0.004102830029876121</v>
       </c>
-      <c r="BR3">
+      <c r="BV3">
         <v>0.003903831786106898</v>
       </c>
-      <c r="BS3">
-        <v>0</v>
-      </c>
-      <c r="BT3">
-        <v>0</v>
-      </c>
-      <c r="BU3">
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
         <v>0.17660408240986</v>
       </c>
-      <c r="BV3">
+      <c r="BZ3">
         <v>0.1536987494122697</v>
       </c>
-      <c r="BW3">
+      <c r="CA3">
         <v>1.827299749376247</v>
       </c>
-      <c r="BX3">
+      <c r="CB3">
+        <v>0.8236404028668417</v>
+      </c>
+      <c r="CC3">
+        <v>0.1332703728214474</v>
+      </c>
+      <c r="CD3">
+        <v>0.04308922431171089</v>
+      </c>
+      <c r="CE3">
         <v>4.012244699034971</v>
       </c>
-      <c r="BY3">
+      <c r="CF3">
         <v>0.04308922431171089</v>
       </c>
-      <c r="BZ3">
+      <c r="CG3">
         <v>0.009391728644565724</v>
       </c>
-      <c r="CA3">
+      <c r="CH3">
         <v>0.003903831786106898</v>
       </c>
-      <c r="CB3">
-        <v>0</v>
-      </c>
-      <c r="CC3">
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
         <v>0.144307020767704</v>
       </c>
-      <c r="CD3">
+      <c r="CK3">
         <v>0.07933362016769702</v>
       </c>
-      <c r="CE3">
+      <c r="CL3">
         <v>0.7691861481514123</v>
       </c>
-      <c r="CF3">
+      <c r="CM3">
         <v>0.6605222672278543</v>
       </c>
-      <c r="CG3">
+      <c r="CN3">
         <v>0.06812606127463119</v>
       </c>
-      <c r="CH3">
+      <c r="CO3">
         <v>0.8607245229691821</v>
       </c>
-      <c r="CI3">
+      <c r="CP3">
         <v>0.6785441281377402</v>
       </c>
-      <c r="CJ3">
+      <c r="CQ3">
         <v>1.083836624933874</v>
       </c>
-      <c r="CK3">
+      <c r="CR3">
         <v>0.02448939806994227</v>
       </c>
-      <c r="CL3">
+      <c r="CS3">
         <v>0.3868095906580389</v>
       </c>
-      <c r="CM3">
+      <c r="CT3">
         <v>0.1426390722553426</v>
       </c>
-      <c r="CN3">
+      <c r="CU3">
         <v>0.5690446657585179</v>
       </c>
     </row>
-    <row r="4" spans="1:92">
+    <row r="4" spans="1:99">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1501,22 +1585,22 @@
         <v>14.70263849337047</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F4">
         <v>0.04766233766233774</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H4">
         <v>0.4376623376623379</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J4">
         <v>51.5</v>
@@ -1591,184 +1675,205 @@
         <v>0.1753925768978469</v>
       </c>
       <c r="AH4">
+        <v>0.6103355096093458</v>
+      </c>
+      <c r="AI4">
+        <v>0.1173895095895001</v>
+      </c>
+      <c r="AJ4">
+        <v>0.2722749808011541</v>
+      </c>
+      <c r="AK4">
         <v>4.000717325005981</v>
       </c>
-      <c r="AI4">
+      <c r="AL4">
         <v>0.2722749808011541</v>
       </c>
-      <c r="AJ4">
+      <c r="AM4">
         <v>0.001434650011964377</v>
       </c>
-      <c r="AK4">
+      <c r="AN4">
         <v>0.2059814466894552</v>
       </c>
-      <c r="AL4">
+      <c r="AO4">
         <v>0.006916772780801047</v>
       </c>
-      <c r="AM4">
+      <c r="AP4">
         <v>0.001267775322513648</v>
       </c>
-      <c r="AN4">
+      <c r="AQ4">
         <v>0.3886423471327197</v>
       </c>
-      <c r="AO4">
+      <c r="AR4">
         <v>0.8386852239789249</v>
       </c>
-      <c r="AP4">
+      <c r="AS4">
         <v>0.03869121679038678</v>
       </c>
-      <c r="AQ4">
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
         <v>0.1367013601074601</v>
       </c>
-      <c r="AR4">
+      <c r="AV4">
         <v>0.01404709719290129</v>
       </c>
-      <c r="AS4">
+      <c r="AW4">
         <v>0.3290677581418388</v>
       </c>
-      <c r="AT4">
+      <c r="AX4">
         <v>0.4783765627650658</v>
       </c>
-      <c r="AU4">
+      <c r="AY4">
         <v>0.3290677581418388</v>
       </c>
-      <c r="AV4">
+      <c r="AZ4">
         <v>0.2748888010786323</v>
       </c>
-      <c r="AW4">
+      <c r="BA4">
         <v>0.001434650011964377</v>
       </c>
-      <c r="AX4">
+      <c r="BB4">
         <v>0.2059814466894552</v>
       </c>
-      <c r="AY4">
+      <c r="BC4">
         <v>53.2</v>
       </c>
-      <c r="AZ4">
+      <c r="BD4">
         <v>0.2</v>
       </c>
-      <c r="BA4">
+      <c r="BE4">
         <v>7.4</v>
       </c>
-      <c r="BB4">
+      <c r="BF4">
         <v>8.800000000000001</v>
       </c>
-      <c r="BC4">
+      <c r="BG4">
         <v>0.13</v>
       </c>
-      <c r="BD4">
+      <c r="BH4">
         <v>29.2</v>
       </c>
-      <c r="BE4">
+      <c r="BI4">
         <v>2.37</v>
       </c>
-      <c r="BF4">
+      <c r="BJ4">
         <v>0.14</v>
       </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
         <v>0.02</v>
       </c>
-      <c r="BI4">
+      <c r="BM4">
         <v>2</v>
       </c>
-      <c r="BJ4">
+      <c r="BN4">
         <v>1.839965082542975</v>
       </c>
-      <c r="BK4">
+      <c r="BO4">
         <v>1.505529764854064</v>
       </c>
-      <c r="BL4">
+      <c r="BP4">
         <v>0.2545286155367468</v>
       </c>
-      <c r="BM4">
+      <c r="BQ4">
         <v>0.08782525741657435</v>
       </c>
-      <c r="BN4">
+      <c r="BR4">
         <v>0.3016383691991302</v>
       </c>
-      <c r="BO4">
+      <c r="BS4">
         <v>0.009388000891732752</v>
       </c>
-      <c r="BP4">
-        <v>0</v>
-      </c>
-      <c r="BQ4">
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
         <v>0.003808258572733541</v>
       </c>
-      <c r="BR4">
+      <c r="BV4">
         <v>0.005203043042965585</v>
       </c>
-      <c r="BS4">
+      <c r="BW4">
         <v>0.0005468654689600789</v>
       </c>
-      <c r="BT4">
-        <v>0</v>
-      </c>
-      <c r="BU4">
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
         <v>0.1600349174570252</v>
       </c>
-      <c r="BV4">
+      <c r="BZ4">
         <v>0.1416034517421049</v>
       </c>
-      <c r="BW4">
+      <c r="CA4">
         <v>1.84516812558594</v>
       </c>
-      <c r="BX4">
+      <c r="CB4">
+        <v>0.814731909548405</v>
+      </c>
+      <c r="CC4">
+        <v>0.1377406078657414</v>
+      </c>
+      <c r="CD4">
+        <v>0.04752748258585363</v>
+      </c>
+      <c r="CE4">
         <v>4.008433257525883</v>
       </c>
-      <c r="BY4">
+      <c r="CF4">
         <v>0.04752748258585363</v>
       </c>
-      <c r="BZ4">
+      <c r="CG4">
         <v>0.009388000891732752</v>
       </c>
-      <c r="CA4">
+      <c r="CH4">
         <v>0.005203043042965585</v>
       </c>
-      <c r="CB4">
+      <c r="CI4">
         <v>0.0005468654689600789</v>
       </c>
-      <c r="CC4">
+      <c r="CJ4">
         <v>0.1316685853814121</v>
       </c>
-      <c r="CD4">
+      <c r="CK4">
         <v>0.08782525741657435</v>
       </c>
-      <c r="CE4">
+      <c r="CL4">
         <v>0.7695848765612961</v>
       </c>
-      <c r="CF4">
+      <c r="CM4">
         <v>0.6568710539961172</v>
       </c>
-      <c r="CG4">
+      <c r="CN4">
         <v>0.07496232210861357</v>
       </c>
-      <c r="CH4">
+      <c r="CO4">
         <v>0.8553821330936716</v>
       </c>
-      <c r="CI4">
+      <c r="CP4">
         <v>0.6743777827482007</v>
       </c>
-      <c r="CJ4">
+      <c r="CQ4">
         <v>1.137662337662338</v>
       </c>
-      <c r="CK4">
+      <c r="CR4">
         <v>0.01686651505176183</v>
       </c>
-      <c r="CL4">
+      <c r="CS4">
         <v>0.4122048017932542</v>
       </c>
-      <c r="CM4">
+      <c r="CT4">
         <v>0.1692475388184694</v>
       </c>
-      <c r="CN4">
+      <c r="CU4">
         <v>0.5624631947442575</v>
       </c>
     </row>
-    <row r="5" spans="1:92">
+    <row r="5" spans="1:99">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1779,22 +1884,22 @@
         <v>3.489870998035558</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F5">
         <v>0.06035583544053935</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H5">
         <v>0.4503558354405395</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J5">
         <v>51.06</v>
@@ -1869,184 +1974,205 @@
         <v>0.0542241376213535</v>
       </c>
       <c r="AH5">
+        <v>0.4612581877320973</v>
+      </c>
+      <c r="AI5">
+        <v>0.1013381596448767</v>
+      </c>
+      <c r="AJ5">
+        <v>0.437403652623026</v>
+      </c>
+      <c r="AK5">
         <v>4.007779503554468</v>
       </c>
-      <c r="AI5">
+      <c r="AL5">
         <v>0.437403652623026</v>
       </c>
-      <c r="AJ5">
+      <c r="AM5">
         <v>0.01555900710893294</v>
       </c>
-      <c r="AK5">
+      <c r="AN5">
         <v>0.1782331625436142</v>
       </c>
-      <c r="AL5">
+      <c r="AO5">
         <v>0.08028707835217959</v>
       </c>
-      <c r="AM5">
+      <c r="AP5">
         <v>0.0001482225623882555</v>
       </c>
-      <c r="AN5">
+      <c r="AQ5">
         <v>0.1324278085709997</v>
       </c>
-      <c r="AO5">
+      <c r="AR5">
         <v>0.8198691911194588</v>
       </c>
-      <c r="AP5">
+      <c r="AS5">
         <v>0.01962920259716995</v>
       </c>
-      <c r="AQ5">
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
         <v>0.03459493502418355</v>
       </c>
-      <c r="AR5">
+      <c r="AV5">
         <v>0.02541462985487979</v>
       </c>
-      <c r="AS5">
+      <c r="AW5">
         <v>0.7763030596156888</v>
       </c>
-      <c r="AT5">
+      <c r="AX5">
         <v>0.1497838697437593</v>
       </c>
-      <c r="AU5">
+      <c r="AY5">
         <v>0.7763030596156888</v>
       </c>
-      <c r="AV5">
+      <c r="AZ5">
         <v>0.6342241137017368</v>
       </c>
-      <c r="AW5">
+      <c r="BA5">
         <v>0.01555900710893294</v>
       </c>
-      <c r="AX5">
+      <c r="BB5">
         <v>0.1782331625436142</v>
       </c>
-      <c r="AY5">
+      <c r="BC5">
         <v>55.15</v>
       </c>
-      <c r="AZ5">
+      <c r="BD5">
         <v>0.17</v>
       </c>
-      <c r="BA5">
+      <c r="BE5">
         <v>1.19</v>
       </c>
-      <c r="BB5">
+      <c r="BF5">
         <v>10.21</v>
       </c>
-      <c r="BC5">
+      <c r="BG5">
         <v>0.22</v>
       </c>
-      <c r="BD5">
+      <c r="BH5">
         <v>29.99</v>
       </c>
-      <c r="BE5">
+      <c r="BI5">
         <v>1.66</v>
       </c>
-      <c r="BF5">
+      <c r="BJ5">
         <v>0.03</v>
       </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
-      <c r="BH5">
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
         <v>0.15</v>
       </c>
-      <c r="BI5">
+      <c r="BM5">
         <v>3</v>
       </c>
-      <c r="BJ5">
+      <c r="BN5">
         <v>1.968729989703936</v>
       </c>
-      <c r="BK5">
+      <c r="BO5">
         <v>1.595973410243713</v>
       </c>
-      <c r="BL5">
+      <c r="BP5">
         <v>0.3048052031250226</v>
       </c>
-      <c r="BM5">
+      <c r="BQ5">
         <v>0.06349241767348983</v>
       </c>
-      <c r="BN5">
+      <c r="BR5">
         <v>0.05006618696971186</v>
       </c>
-      <c r="BO5">
+      <c r="BS5">
         <v>0.002076390495764731</v>
       </c>
-      <c r="BP5">
-        <v>0</v>
-      </c>
-      <c r="BQ5">
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
         <v>0.006651941910731183</v>
       </c>
-      <c r="BR5">
+      <c r="BV5">
         <v>0.00456477142300835</v>
       </c>
-      <c r="BS5">
+      <c r="BW5">
         <v>0.004233352727136003</v>
       </c>
-      <c r="BT5">
-        <v>0</v>
-      </c>
-      <c r="BU5">
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
         <v>0.03127001029606391</v>
       </c>
-      <c r="BV5">
+      <c r="BZ5">
         <v>0.01879617667364795</v>
       </c>
-      <c r="BW5">
+      <c r="CA5">
         <v>1.973294761126944</v>
       </c>
-      <c r="BX5">
+      <c r="CB5">
+        <v>0.8125016278415016</v>
+      </c>
+      <c r="CC5">
+        <v>0.1551747179019871</v>
+      </c>
+      <c r="CD5">
+        <v>0.03232365425651128</v>
+      </c>
+      <c r="CE5">
         <v>4.000593664272514</v>
       </c>
-      <c r="BY5">
+      <c r="CF5">
         <v>0.03232365425651128</v>
       </c>
-      <c r="BZ5">
+      <c r="CG5">
         <v>0.002076390495764731</v>
       </c>
-      <c r="CA5">
+      <c r="CH5">
         <v>0.00456477142300835</v>
       </c>
-      <c r="CB5">
+      <c r="CI5">
         <v>0.004233352727136003</v>
       </c>
-      <c r="CC5">
+      <c r="CJ5">
         <v>0.01248643345074722</v>
       </c>
-      <c r="CD5">
+      <c r="CK5">
         <v>0.06349241767348983</v>
       </c>
-      <c r="CE5">
+      <c r="CL5">
         <v>0.9134434663661105</v>
       </c>
-      <c r="CF5">
+      <c r="CM5">
         <v>0.7642907261006763</v>
       </c>
-      <c r="CG5">
+      <c r="CN5">
         <v>0.05312498013545301</v>
       </c>
-      <c r="CH5">
+      <c r="CO5">
         <v>0.8396374252284241</v>
       </c>
-      <c r="CI5">
+      <c r="CP5">
         <v>0.8128068595541578</v>
       </c>
-      <c r="CJ5">
+      <c r="CQ5">
         <v>1.150355835440539</v>
       </c>
-      <c r="CK5">
+      <c r="CR5">
         <v>0.001187328545027985</v>
       </c>
-      <c r="CL5">
+      <c r="CS5">
         <v>0.6017456683284581</v>
       </c>
-      <c r="CM5">
+      <c r="CT5">
         <v>0.3882398589631559</v>
       </c>
-      <c r="CN5">
+      <c r="CU5">
         <v>0.6367050952016527</v>
       </c>
     </row>
-    <row r="6" spans="1:92">
+    <row r="6" spans="1:99">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2057,22 +2183,22 @@
         <v>5.074810251425615</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F6">
         <v>0.02699712806593113</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H6">
         <v>0.363002871934069</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J6">
         <v>53.32</v>
@@ -2147,184 +2273,205 @@
         <v>0.04461376726447958</v>
       </c>
       <c r="AH6">
+        <v>0.4813517543529525</v>
+      </c>
+      <c r="AI6">
+        <v>0.09453401568807017</v>
+      </c>
+      <c r="AJ6">
+        <v>0.4241142299589773</v>
+      </c>
+      <c r="AK6">
         <v>3.998814105690726</v>
       </c>
-      <c r="AI6">
+      <c r="AL6">
         <v>0.4241142299589773</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
         <v>0.1808505238239727</v>
       </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
         <v>0.001732789777729232</v>
       </c>
-      <c r="AN6">
+      <c r="AQ6">
         <v>0.1586648164186252</v>
       </c>
-      <c r="AO6">
+      <c r="AR6">
         <v>0.8358413071254758</v>
       </c>
-      <c r="AP6">
+      <c r="AS6">
         <v>0.01983111984188925</v>
       </c>
-      <c r="AQ6">
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
         <v>0.02478264742259033</v>
       </c>
-      <c r="AR6">
+      <c r="AV6">
         <v>0.0137359232051387</v>
       </c>
-      <c r="AS6">
+      <c r="AW6">
         <v>0.7711103498848334</v>
       </c>
-      <c r="AT6">
+      <c r="AX6">
         <v>0.1653007387550805</v>
       </c>
-      <c r="AU6">
+      <c r="AY6">
         <v>0.7711103498848334</v>
       </c>
-      <c r="AV6">
+      <c r="AZ6">
         <v>0.6418256610065323</v>
       </c>
-      <c r="AW6">
+      <c r="BA6">
         <v>-0.002371788618547551</v>
       </c>
-      <c r="AX6">
+      <c r="BB6">
         <v>0.1832223124425203</v>
       </c>
-      <c r="AY6">
+      <c r="BC6">
         <v>56.32</v>
       </c>
-      <c r="AZ6">
+      <c r="BD6">
         <v>0.13</v>
       </c>
-      <c r="BA6">
+      <c r="BE6">
         <v>1.41</v>
       </c>
-      <c r="BB6">
+      <c r="BF6">
         <v>10.17</v>
       </c>
-      <c r="BC6">
+      <c r="BG6">
         <v>0.26</v>
       </c>
-      <c r="BD6">
+      <c r="BH6">
         <v>30.88</v>
       </c>
-      <c r="BE6">
+      <c r="BI6">
         <v>1.05</v>
       </c>
-      <c r="BF6">
+      <c r="BJ6">
         <v>0.02</v>
       </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
-      <c r="BH6">
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
         <v>0.16</v>
       </c>
-      <c r="BI6">
+      <c r="BM6">
         <v>4</v>
       </c>
-      <c r="BJ6">
+      <c r="BN6">
         <v>1.971270522634756</v>
       </c>
-      <c r="BK6">
+      <c r="BO6">
         <v>1.611274072658397</v>
       </c>
-      <c r="BL6">
+      <c r="BP6">
         <v>0.2976874518029979</v>
       </c>
-      <c r="BM6">
+      <c r="BQ6">
         <v>0.03937730748958942</v>
       </c>
-      <c r="BN6">
+      <c r="BR6">
         <v>0.0581647156864095</v>
       </c>
-      <c r="BO6">
+      <c r="BS6">
         <v>0.001357252701294397</v>
       </c>
-      <c r="BP6">
-        <v>0</v>
-      </c>
-      <c r="BQ6">
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
         <v>0.007708006222571412</v>
       </c>
-      <c r="BR6">
+      <c r="BV6">
         <v>0.003422602063461516</v>
       </c>
-      <c r="BS6">
+      <c r="BW6">
         <v>0.004427475033165146</v>
       </c>
-      <c r="BT6">
-        <v>0</v>
-      </c>
-      <c r="BU6">
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
         <v>0.02872947736524378</v>
       </c>
-      <c r="BV6">
+      <c r="BZ6">
         <v>0.02943523832116571</v>
       </c>
-      <c r="BW6">
+      <c r="CA6">
         <v>1.974693124698218</v>
       </c>
-      <c r="BX6">
+      <c r="CB6">
+        <v>0.8269989009277894</v>
+      </c>
+      <c r="CC6">
+        <v>0.1527903909326215</v>
+      </c>
+      <c r="CD6">
+        <v>0.02021070813958918</v>
+      </c>
+      <c r="CE6">
         <v>3.994689406292642</v>
       </c>
-      <c r="BY6">
+      <c r="CF6">
         <v>0.02021070813958917</v>
       </c>
-      <c r="BZ6">
+      <c r="CG6">
         <v>0.001357252701294397</v>
       </c>
-      <c r="CA6">
+      <c r="CH6">
         <v>0.003422602063461516</v>
       </c>
-      <c r="CB6">
+      <c r="CI6">
         <v>0.004427475033165146</v>
       </c>
-      <c r="CC6">
+      <c r="CJ6">
         <v>0.02365051058670617</v>
       </c>
-      <c r="CD6">
+      <c r="CK6">
         <v>0.03937730748958942</v>
       </c>
-      <c r="CE6">
+      <c r="CL6">
         <v>0.9251095552721045</v>
       </c>
-      <c r="CF6">
+      <c r="CM6">
         <v>0.777705815695081</v>
       </c>
-      <c r="CG6">
+      <c r="CN6">
         <v>0.03310306424416908</v>
       </c>
-      <c r="CH6">
+      <c r="CO6">
         <v>0.8440535120033101</v>
       </c>
-      <c r="CI6">
+      <c r="CP6">
         <v>0.8296045865037032</v>
       </c>
-      <c r="CJ6">
+      <c r="CQ6">
         <v>1.063002871934069</v>
       </c>
-      <c r="CK6">
-        <v>0</v>
-      </c>
-      <c r="CL6">
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
         <v>0.5851068494828572</v>
       </c>
-      <c r="CM6">
+      <c r="CT6">
         <v>0.2087450408407878</v>
       </c>
-      <c r="CN6">
+      <c r="CU6">
         <v>0.6525320737780236</v>
       </c>
     </row>
-    <row r="7" spans="1:92">
+    <row r="7" spans="1:99">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2335,22 +2482,22 @@
         <v>18.82914054240627</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F7">
         <v>0.07565174043088119</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H7">
         <v>0.3143482595691189</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J7">
         <v>51.58</v>
@@ -2425,184 +2572,205 @@
         <v>0.1550996174951838</v>
       </c>
       <c r="AH7">
+        <v>0.5904524825780649</v>
+      </c>
+      <c r="AI7">
+        <v>0.06353556662252918</v>
+      </c>
+      <c r="AJ7">
+        <v>0.3460119507994059</v>
+      </c>
+      <c r="AK7">
         <v>4.005897184599632</v>
       </c>
-      <c r="AI7">
+      <c r="AL7">
         <v>0.3460119507994059</v>
       </c>
-      <c r="AJ7">
+      <c r="AM7">
         <v>0.01179436919926188</v>
       </c>
-      <c r="AK7">
+      <c r="AN7">
         <v>0.1005487920424493</v>
       </c>
-      <c r="AL7">
+      <c r="AO7">
         <v>0.1049851995341825</v>
       </c>
-      <c r="AM7">
+      <c r="AP7">
         <v>0.01699273112410326</v>
       </c>
-      <c r="AN7">
+      <c r="AQ7">
         <v>0.2733559775978762</v>
       </c>
-      <c r="AO7">
+      <c r="AR7">
         <v>0.9028461101900846</v>
       </c>
-      <c r="AP7">
+      <c r="AS7">
         <v>0.04861883589316607</v>
       </c>
-      <c r="AQ7">
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
         <v>0.1064807816020177</v>
       </c>
-      <c r="AR7">
+      <c r="AV7">
         <v>0.02288991572373419</v>
       </c>
-      <c r="AS7">
+      <c r="AW7">
         <v>0.4654525739344371</v>
       </c>
-      <c r="AT7">
+      <c r="AX7">
         <v>0.3454623463221731</v>
       </c>
-      <c r="AU7">
+      <c r="AY7">
         <v>0.4654525739344371</v>
       </c>
-      <c r="AV7">
+      <c r="AZ7">
         <v>0.4202334096744975</v>
       </c>
-      <c r="AW7">
+      <c r="BA7">
         <v>0.01179436919926188</v>
       </c>
-      <c r="AX7">
+      <c r="BB7">
         <v>0.1005487920424493</v>
       </c>
-      <c r="AY7">
+      <c r="BC7">
         <v>54.4</v>
       </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
-      <c r="BA7">
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
         <v>5.4</v>
       </c>
-      <c r="BB7">
+      <c r="BF7">
         <v>5.9</v>
       </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BD7">
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
         <v>31.2</v>
       </c>
-      <c r="BE7">
+      <c r="BI7">
         <v>2.3</v>
       </c>
-      <c r="BF7">
+      <c r="BJ7">
         <v>0.2</v>
       </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
-      <c r="BH7">
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
         <v>0.6</v>
       </c>
-      <c r="BI7">
+      <c r="BM7">
         <v>5</v>
       </c>
-      <c r="BJ7">
+      <c r="BN7">
         <v>1.884938896072823</v>
       </c>
-      <c r="BK7">
+      <c r="BO7">
         <v>1.611615798778292</v>
       </c>
-      <c r="BL7">
+      <c r="BP7">
         <v>0.1709646738994268</v>
       </c>
-      <c r="BM7">
+      <c r="BQ7">
         <v>0.08538849300403954</v>
       </c>
-      <c r="BN7">
+      <c r="BR7">
         <v>0.2205205422444773</v>
       </c>
-      <c r="BO7">
+      <c r="BS7">
         <v>0.01343617060584427</v>
       </c>
-      <c r="BP7">
-        <v>0</v>
-      </c>
-      <c r="BQ7">
-        <v>0</v>
-      </c>
-      <c r="BR7">
-        <v>0</v>
-      </c>
-      <c r="BS7">
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
         <v>0.01643622900197294</v>
       </c>
-      <c r="BT7">
-        <v>0</v>
-      </c>
-      <c r="BU7">
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
         <v>0.1150611039271772</v>
       </c>
-      <c r="BV7">
+      <c r="BZ7">
         <v>0.1054594383173002</v>
       </c>
-      <c r="BW7">
+      <c r="CA7">
         <v>1.884938896072823</v>
       </c>
-      <c r="BX7">
+      <c r="CB7">
+        <v>0.8627636906109387</v>
+      </c>
+      <c r="CC7">
+        <v>0.09152436525466007</v>
+      </c>
+      <c r="CD7">
+        <v>0.04571194413440111</v>
+      </c>
+      <c r="CE7">
         <v>4.003300803606875</v>
       </c>
-      <c r="BY7">
+      <c r="CF7">
         <v>0.04571194413440111</v>
       </c>
-      <c r="BZ7">
+      <c r="CG7">
         <v>0.01343617060584427</v>
       </c>
-      <c r="CA7">
-        <v>0</v>
-      </c>
-      <c r="CB7">
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
         <v>0.01643622900197294</v>
       </c>
-      <c r="CC7">
+      <c r="CJ7">
         <v>0.07558703870948297</v>
       </c>
-      <c r="CD7">
+      <c r="CK7">
         <v>0.08538849300403954</v>
       </c>
-      <c r="CE7">
+      <c r="CL7">
         <v>0.8108024704820979</v>
       </c>
-      <c r="CF7">
+      <c r="CM7">
         <v>0.7330395968909862</v>
       </c>
-      <c r="CG7">
+      <c r="CN7">
         <v>0.07719900810562709</v>
       </c>
-      <c r="CH7">
+      <c r="CO7">
         <v>0.9040885727474076</v>
       </c>
-      <c r="CI7">
+      <c r="CP7">
         <v>0.7579658805231981</v>
       </c>
-      <c r="CJ7">
+      <c r="CQ7">
         <v>1.014348259569119</v>
       </c>
-      <c r="CK7">
+      <c r="CR7">
         <v>0.006601607213748313</v>
       </c>
-      <c r="CL7">
+      <c r="CS7">
         <v>0.4963113132676807</v>
       </c>
-      <c r="CM7">
+      <c r="CT7">
         <v>0.219969121675572</v>
       </c>
-      <c r="CN7">
+      <c r="CU7">
         <v>0.647330384782533</v>
       </c>
     </row>
-    <row r="8" spans="1:92">
+    <row r="8" spans="1:99">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2613,22 +2781,22 @@
         <v>17.02961098278467</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F8">
         <v>0.09557103064066852</v>
       </c>
       <c r="G8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H8">
         <v>0.2944289693593316</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8">
         <v>51.12</v>
@@ -2703,184 +2871,205 @@
         <v>0.178138406941053</v>
       </c>
       <c r="AH8">
+        <v>0.5547323855877877</v>
+      </c>
+      <c r="AI8">
+        <v>0.06189203074824359</v>
+      </c>
+      <c r="AJ8">
+        <v>0.3833755836639688</v>
+      </c>
+      <c r="AK8">
         <v>4.000343081561176</v>
       </c>
-      <c r="AI8">
+      <c r="AL8">
         <v>0.3833755836639688</v>
       </c>
-      <c r="AJ8">
+      <c r="AM8">
         <v>0.0006861631223512785</v>
       </c>
-      <c r="AK8">
+      <c r="AN8">
         <v>0.1065680305699539</v>
       </c>
-      <c r="AL8">
+      <c r="AO8">
         <v>0.006397541193771583</v>
       </c>
-      <c r="AM8">
+      <c r="AP8">
         <v>0.01647292125342397</v>
       </c>
-      <c r="AN8">
+      <c r="AQ8">
         <v>0.2216207437492193</v>
       </c>
-      <c r="AO8">
+      <c r="AR8">
         <v>0.8996246513678383</v>
       </c>
-      <c r="AP8">
+      <c r="AS8">
         <v>0.05363248682996966</v>
       </c>
-      <c r="AQ8">
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
         <v>0.1245059201110834</v>
       </c>
-      <c r="AR8">
+      <c r="AV8">
         <v>0.01951821561015533</v>
       </c>
-      <c r="AS8">
+      <c r="AW8">
         <v>0.5038637437632053</v>
       </c>
-      <c r="AT8">
+      <c r="AX8">
         <v>0.2823497939933383</v>
       </c>
-      <c r="AU8">
+      <c r="AY8">
         <v>0.5038637437632053</v>
       </c>
-      <c r="AV8">
+      <c r="AZ8">
         <v>0.4532897646995495</v>
       </c>
-      <c r="AW8">
+      <c r="BA8">
         <v>0.0006861631223512785</v>
       </c>
-      <c r="AX8">
+      <c r="BB8">
         <v>0.1065680305699539</v>
       </c>
-      <c r="AY8">
+      <c r="BC8">
         <v>54.1</v>
       </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
         <v>5.7</v>
       </c>
-      <c r="BB8">
+      <c r="BF8">
         <v>6.3</v>
       </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BD8">
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
         <v>31.5</v>
       </c>
-      <c r="BE8">
+      <c r="BI8">
         <v>1.65</v>
       </c>
-      <c r="BF8">
+      <c r="BJ8">
         <v>0.25</v>
       </c>
-      <c r="BG8">
-        <v>0</v>
-      </c>
-      <c r="BH8">
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
         <v>0.5</v>
       </c>
-      <c r="BI8">
+      <c r="BM8">
         <v>6</v>
       </c>
-      <c r="BJ8">
+      <c r="BN8">
         <v>1.875133739150574</v>
       </c>
-      <c r="BK8">
+      <c r="BO8">
         <v>1.627623989793591</v>
       </c>
-      <c r="BL8">
+      <c r="BP8">
         <v>0.1826129307362284</v>
       </c>
-      <c r="BM8">
+      <c r="BQ8">
         <v>0.06127623365431869</v>
       </c>
-      <c r="BN8">
+      <c r="BR8">
         <v>0.2328449128495909</v>
       </c>
-      <c r="BO8">
+      <c r="BS8">
         <v>0.01680049698793725</v>
       </c>
-      <c r="BP8">
-        <v>0</v>
-      </c>
-      <c r="BQ8">
-        <v>0</v>
-      </c>
-      <c r="BR8">
-        <v>0</v>
-      </c>
-      <c r="BS8">
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8">
         <v>0.01370116649757252</v>
       </c>
-      <c r="BT8">
-        <v>0</v>
-      </c>
-      <c r="BU8">
+      <c r="BX8">
+        <v>0</v>
+      </c>
+      <c r="BY8">
         <v>0.124866260849426</v>
       </c>
-      <c r="BV8">
+      <c r="BZ8">
         <v>0.1079786520001649</v>
       </c>
-      <c r="BW8">
+      <c r="CA8">
         <v>1.875133739150574</v>
       </c>
-      <c r="BX8">
+      <c r="CB8">
+        <v>0.8696834356492315</v>
+      </c>
+      <c r="CC8">
+        <v>0.09757501855007594</v>
+      </c>
+      <c r="CD8">
+        <v>0.03274154580069263</v>
+      </c>
+      <c r="CE8">
         <v>4.009993469669814</v>
       </c>
-      <c r="BY8">
+      <c r="CF8">
         <v>0.03274154580069263</v>
       </c>
-      <c r="BZ8">
+      <c r="CG8">
         <v>0.01680049698793725</v>
       </c>
-      <c r="CA8">
-        <v>0</v>
-      </c>
-      <c r="CB8">
+      <c r="CH8">
+        <v>0</v>
+      </c>
+      <c r="CI8">
         <v>0.01370116649757252</v>
       </c>
-      <c r="CC8">
+      <c r="CJ8">
         <v>0.07747698851465513</v>
       </c>
-      <c r="CD8">
+      <c r="CK8">
         <v>0.06127623365431869</v>
       </c>
-      <c r="CE8">
+      <c r="CL8">
         <v>0.835741849180423</v>
       </c>
-      <c r="CF8">
+      <c r="CM8">
         <v>0.7514339518621626</v>
       </c>
-      <c r="CG8">
+      <c r="CN8">
         <v>0.05509481481063605</v>
       </c>
-      <c r="CH8">
+      <c r="CO8">
         <v>0.899119052553486</v>
       </c>
-      <c r="CI8">
+      <c r="CP8">
         <v>0.7840743493974384</v>
       </c>
-      <c r="CJ8">
+      <c r="CQ8">
         <v>0.9944289693593316</v>
       </c>
-      <c r="CK8">
+      <c r="CR8">
         <v>0.01998693933962581</v>
       </c>
-      <c r="CL8">
+      <c r="CS8">
         <v>0.5306684937570609</v>
       </c>
-      <c r="CM8">
+      <c r="CT8">
         <v>0.1825657842976271</v>
       </c>
-      <c r="CN8">
+      <c r="CU8">
         <v>0.656377632234921</v>
       </c>
     </row>
-    <row r="9" spans="1:92">
+    <row r="9" spans="1:99">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2891,22 +3080,22 @@
         <v>8.915744173967228</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F9">
         <v>0.04053839957035454</v>
       </c>
       <c r="G9" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H9">
         <v>0.4305383995703547</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J9">
         <v>52.5</v>
@@ -2981,184 +3170,205 @@
         <v>0.09823277761246768</v>
       </c>
       <c r="AH9">
+        <v>0.613334498705167</v>
+      </c>
+      <c r="AI9">
+        <v>0.06661475490523504</v>
+      </c>
+      <c r="AJ9">
+        <v>0.320050746389598</v>
+      </c>
+      <c r="AK9">
         <v>3.990727575895197</v>
       </c>
-      <c r="AI9">
+      <c r="AL9">
         <v>0.320050746389598</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
         <v>0.1233345552622844</v>
       </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
         <v>0.02051739054388533</v>
       </c>
-      <c r="AN9">
+      <c r="AQ9">
         <v>0.3544737727948332</v>
       </c>
-      <c r="AO9">
+      <c r="AR9">
         <v>0.9020268617931068</v>
       </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
         <v>0.09823277761246768</v>
       </c>
-      <c r="AR9">
+      <c r="AV9">
         <v>0.0112449664390801</v>
       </c>
-      <c r="AS9">
+      <c r="AW9">
         <v>0.4625660258183113</v>
       </c>
-      <c r="AT9">
+      <c r="AX9">
         <v>0.3981664154814514</v>
       </c>
-      <c r="AU9">
+      <c r="AY9">
         <v>0.4625660258183113</v>
       </c>
-      <c r="AV9">
+      <c r="AZ9">
         <v>0.4172483461918386</v>
       </c>
-      <c r="AW9">
+      <c r="BA9">
         <v>-0.01854484820961046</v>
       </c>
-      <c r="AX9">
+      <c r="BB9">
         <v>0.1418794034718949</v>
       </c>
-      <c r="AY9">
+      <c r="BC9">
         <v>55.2</v>
       </c>
-      <c r="AZ9">
-        <v>0</v>
-      </c>
-      <c r="BA9">
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
         <v>3.3</v>
       </c>
-      <c r="BB9">
+      <c r="BF9">
         <v>5.6</v>
       </c>
-      <c r="BC9">
-        <v>0</v>
-      </c>
-      <c r="BD9">
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
         <v>32.7</v>
       </c>
-      <c r="BE9">
+      <c r="BI9">
         <v>2</v>
       </c>
-      <c r="BF9">
-        <v>0</v>
-      </c>
-      <c r="BG9">
-        <v>0</v>
-      </c>
-      <c r="BH9">
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
         <v>1.3</v>
       </c>
-      <c r="BI9">
+      <c r="BM9">
         <v>7</v>
       </c>
-      <c r="BJ9">
+      <c r="BN9">
         <v>1.910589260875411</v>
       </c>
-      <c r="BK9">
+      <c r="BO9">
         <v>1.687269875927155</v>
       </c>
-      <c r="BL9">
+      <c r="BP9">
         <v>0.1620959916361255</v>
       </c>
-      <c r="BM9">
+      <c r="BQ9">
         <v>0.07417053071472725</v>
       </c>
-      <c r="BN9">
+      <c r="BR9">
         <v>0.134616752611653</v>
       </c>
-      <c r="BO9">
-        <v>0</v>
-      </c>
-      <c r="BP9">
-        <v>0</v>
-      </c>
-      <c r="BQ9">
-        <v>0</v>
-      </c>
-      <c r="BR9">
-        <v>0</v>
-      </c>
       <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9">
         <v>0.03557330070246002</v>
       </c>
-      <c r="BT9">
-        <v>0</v>
-      </c>
-      <c r="BU9">
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9">
         <v>0.08941073912458886</v>
       </c>
-      <c r="BV9">
+      <c r="BZ9">
         <v>0.0452060134870641</v>
       </c>
-      <c r="BW9">
+      <c r="CA9">
         <v>1.910589260875411</v>
       </c>
-      <c r="BX9">
+      <c r="CB9">
+        <v>0.8771707556132736</v>
+      </c>
+      <c r="CC9">
+        <v>0.08426978131593317</v>
+      </c>
+      <c r="CD9">
+        <v>0.03855946307079311</v>
+      </c>
+      <c r="CE9">
         <v>4.004315712467532</v>
       </c>
-      <c r="BY9">
+      <c r="CF9">
         <v>0.03855946307079312</v>
       </c>
-      <c r="BZ9">
-        <v>0</v>
-      </c>
-      <c r="CA9">
-        <v>0</v>
-      </c>
-      <c r="CB9">
+      <c r="CG9">
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <v>0</v>
+      </c>
+      <c r="CI9">
         <v>0.03557330070246002</v>
       </c>
-      <c r="CC9">
+      <c r="CJ9">
         <v>0.009632712784604078</v>
       </c>
-      <c r="CD9">
+      <c r="CK9">
         <v>0.07417053071472725</v>
       </c>
-      <c r="CE9">
+      <c r="CL9">
         <v>0.8827813120319747</v>
       </c>
-      <c r="CF9">
+      <c r="CM9">
         <v>0.8054059723647596</v>
       </c>
-      <c r="CG9">
+      <c r="CN9">
         <v>0.06766952086197023</v>
       </c>
-      <c r="CH9">
+      <c r="CO9">
         <v>0.9123478297178509</v>
       </c>
-      <c r="CI9">
+      <c r="CP9">
         <v>0.8226481108546227</v>
       </c>
-      <c r="CJ9">
+      <c r="CQ9">
         <v>1.130538399570355</v>
       </c>
-      <c r="CK9">
+      <c r="CR9">
         <v>0.008631424935064733</v>
       </c>
-      <c r="CL9">
+      <c r="CS9">
         <v>0.484906731449457</v>
       </c>
-      <c r="CM9">
+      <c r="CT9">
         <v>0.1820408942604629</v>
       </c>
-      <c r="CN9">
+      <c r="CU9">
         <v>0.7086992178758251</v>
       </c>
     </row>
-    <row r="10" spans="1:92">
+    <row r="10" spans="1:99">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3169,22 +3379,22 @@
         <v>8.625977316843088</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F10">
         <v>0.04504138746551001</v>
       </c>
       <c r="G10" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H10">
         <v>0.4350413874655101</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J10">
         <v>51.8</v>
@@ -3259,184 +3469,205 @@
         <v>0.07736765130349105</v>
       </c>
       <c r="AH10">
+        <v>0.6180015586671719</v>
+      </c>
+      <c r="AI10">
+        <v>0.07417480113730203</v>
+      </c>
+      <c r="AJ10">
+        <v>0.3078236401955262</v>
+      </c>
+      <c r="AK10">
         <v>4.010904232966573</v>
       </c>
-      <c r="AI10">
+      <c r="AL10">
         <v>0.3078236401955262</v>
       </c>
-      <c r="AJ10">
+      <c r="AM10">
         <v>0.02180846593314778</v>
       </c>
-      <c r="AK10">
+      <c r="AN10">
         <v>0.1164267674742691</v>
       </c>
-      <c r="AL10">
+      <c r="AO10">
         <v>0.1577634398668269</v>
       </c>
-      <c r="AM10">
+      <c r="AP10">
         <v>0.02244318928734248</v>
       </c>
-      <c r="AN10">
+      <c r="AQ10">
         <v>0.3549837116732603</v>
       </c>
-      <c r="AO10">
+      <c r="AR10">
         <v>0.892835095552128</v>
       </c>
-      <c r="AP10">
+      <c r="AS10">
         <v>0.01463091059973884</v>
       </c>
-      <c r="AQ10">
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
         <v>0.06273674070375221</v>
       </c>
-      <c r="AR10">
+      <c r="AV10">
         <v>0.03794239902005415</v>
       </c>
-      <c r="AS10">
+      <c r="AW10">
         <v>0.4505505639162324</v>
       </c>
-      <c r="AT10">
+      <c r="AX10">
         <v>0.4197089929545478</v>
       </c>
-      <c r="AU10">
+      <c r="AY10">
         <v>0.4505505639162324</v>
       </c>
-      <c r="AV10">
+      <c r="AZ10">
         <v>0.4004734905664414</v>
       </c>
-      <c r="AW10">
+      <c r="BA10">
         <v>0.02180846593314778</v>
       </c>
-      <c r="AX10">
+      <c r="BB10">
         <v>0.1164267674742691</v>
       </c>
-      <c r="AY10">
+      <c r="BC10">
         <v>54.1</v>
       </c>
-      <c r="AZ10">
+      <c r="BD10">
         <v>0.09</v>
       </c>
-      <c r="BA10">
+      <c r="BE10">
         <v>4.2</v>
       </c>
-      <c r="BB10">
+      <c r="BF10">
         <v>5.9</v>
       </c>
-      <c r="BC10">
+      <c r="BG10">
         <v>0.21</v>
       </c>
-      <c r="BD10">
+      <c r="BH10">
         <v>31.3</v>
       </c>
-      <c r="BE10">
+      <c r="BI10">
         <v>2.9</v>
       </c>
-      <c r="BF10">
+      <c r="BJ10">
         <v>0.04</v>
       </c>
-      <c r="BG10">
-        <v>0</v>
-      </c>
-      <c r="BH10">
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
         <v>1.32</v>
       </c>
-      <c r="BI10">
+      <c r="BM10">
         <v>8</v>
       </c>
-      <c r="BJ10">
+      <c r="BN10">
         <v>1.884529079318038</v>
       </c>
-      <c r="BK10">
+      <c r="BO10">
         <v>1.625393285077764</v>
       </c>
-      <c r="BL10">
+      <c r="BP10">
         <v>0.1718753453420814</v>
       </c>
-      <c r="BM10">
+      <c r="BQ10">
         <v>0.1082372407241173</v>
       </c>
-      <c r="BN10">
+      <c r="BR10">
         <v>0.1724295853521207</v>
       </c>
-      <c r="BO10">
+      <c r="BS10">
         <v>0.002701548115504989</v>
       </c>
-      <c r="BP10">
-        <v>0</v>
-      </c>
-      <c r="BQ10">
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
         <v>0.006195979895008837</v>
       </c>
-      <c r="BR10">
+      <c r="BV10">
         <v>0.002358183310942092</v>
       </c>
-      <c r="BS10">
+      <c r="BW10">
         <v>0.03635231441142317</v>
       </c>
-      <c r="BT10">
-        <v>0</v>
-      </c>
-      <c r="BU10">
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BY10">
         <v>0.115470920681962</v>
       </c>
-      <c r="BV10">
+      <c r="BZ10">
         <v>0.0569586646701587</v>
       </c>
-      <c r="BW10">
+      <c r="CA10">
         <v>1.88688726262898</v>
       </c>
-      <c r="BX10">
+      <c r="CB10">
+        <v>0.8529983085814192</v>
+      </c>
+      <c r="CC10">
+        <v>0.09019932603980738</v>
+      </c>
+      <c r="CD10">
+        <v>0.05680236537877342</v>
+      </c>
+      <c r="CE10">
         <v>4.010072561547001</v>
       </c>
-      <c r="BY10">
+      <c r="CF10">
         <v>0.05680236537877342</v>
       </c>
-      <c r="BZ10">
+      <c r="CG10">
         <v>0.002701548115504989</v>
       </c>
-      <c r="CA10">
+      <c r="CH10">
         <v>0.002358183310942092</v>
       </c>
-      <c r="CB10">
+      <c r="CI10">
         <v>0.03635231441142317</v>
       </c>
-      <c r="CC10">
+      <c r="CJ10">
         <v>0.01790480214323054</v>
       </c>
-      <c r="CD10">
+      <c r="CK10">
         <v>0.1082372407241173</v>
       </c>
-      <c r="CE10">
+      <c r="CL10">
         <v>0.837482192068282</v>
       </c>
-      <c r="CF10">
+      <c r="CM10">
         <v>0.7547904869185887</v>
       </c>
-      <c r="CG10">
+      <c r="CN10">
         <v>0.09755006184324942</v>
       </c>
-      <c r="CH10">
+      <c r="CO10">
         <v>0.9043656941674904</v>
       </c>
-      <c r="CI10">
+      <c r="CP10">
         <v>0.7693168123217753</v>
       </c>
-      <c r="CJ10">
+      <c r="CQ10">
         <v>1.13504138746551</v>
       </c>
-      <c r="CK10">
+      <c r="CR10">
         <v>0.02014512309400091</v>
       </c>
-      <c r="CL10">
+      <c r="CS10">
         <v>0.4670969212181884</v>
       </c>
-      <c r="CM10">
+      <c r="CT10">
         <v>0.253883083971202</v>
       </c>
-      <c r="CN10">
+      <c r="CU10">
         <v>0.6538733533098016</v>
       </c>
     </row>
-    <row r="11" spans="1:92">
+    <row r="11" spans="1:99">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3447,22 +3678,22 @@
         <v>9.720729521746621</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F11">
         <v>0.04861241834087449</v>
       </c>
       <c r="G11" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H11">
         <v>0.4386124183408746</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J11">
         <v>51.67</v>
@@ -3537,184 +3768,205 @@
         <v>0.09025709103811011</v>
       </c>
       <c r="AH11">
+        <v>0.6302183357782076</v>
+      </c>
+      <c r="AI11">
+        <v>0.07210140832893309</v>
+      </c>
+      <c r="AJ11">
+        <v>0.2976802558928594</v>
+      </c>
+      <c r="AK11">
         <v>4.009715358215752</v>
       </c>
-      <c r="AI11">
+      <c r="AL11">
         <v>0.2976802558928594</v>
       </c>
-      <c r="AJ11">
+      <c r="AM11">
         <v>0.01943071643150573</v>
       </c>
-      <c r="AK11">
+      <c r="AN11">
         <v>0.1140120178739739</v>
       </c>
-      <c r="AL11">
+      <c r="AO11">
         <v>0.1456108984324659</v>
       </c>
-      <c r="AM11">
+      <c r="AP11">
         <v>0.02211190127039814</v>
       </c>
-      <c r="AN11">
+      <c r="AQ11">
         <v>0.3693491713494998</v>
       </c>
-      <c r="AO11">
+      <c r="AR11">
         <v>0.8973351237035234</v>
       </c>
-      <c r="AP11">
+      <c r="AS11">
         <v>0.015294974087112</v>
       </c>
-      <c r="AQ11">
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
         <v>0.07496211695099811</v>
       </c>
-      <c r="AR11">
+      <c r="AV11">
         <v>0.03614273228857261</v>
       </c>
-      <c r="AS11">
+      <c r="AW11">
         <v>0.4177193298766569</v>
       </c>
-      <c r="AT11">
+      <c r="AX11">
         <v>0.4410545959789131</v>
       </c>
-      <c r="AU11">
+      <c r="AY11">
         <v>0.4177193298766569</v>
       </c>
-      <c r="AV11">
+      <c r="AZ11">
         <v>0.3734394069204746</v>
       </c>
-      <c r="AW11">
+      <c r="BA11">
         <v>0.01943071643150573</v>
       </c>
-      <c r="AX11">
+      <c r="BB11">
         <v>0.1140120178739739</v>
       </c>
-      <c r="AY11">
+      <c r="BC11">
         <v>54.2</v>
       </c>
-      <c r="AZ11">
+      <c r="BD11">
         <v>0.06</v>
       </c>
-      <c r="BA11">
+      <c r="BE11">
         <v>4.3</v>
       </c>
-      <c r="BB11">
+      <c r="BF11">
         <v>5.66</v>
       </c>
-      <c r="BC11">
+      <c r="BG11">
         <v>0.19</v>
       </c>
-      <c r="BD11">
+      <c r="BH11">
         <v>31.6</v>
       </c>
-      <c r="BE11">
+      <c r="BI11">
         <v>2.68</v>
       </c>
-      <c r="BF11">
+      <c r="BJ11">
         <v>0.04</v>
       </c>
-      <c r="BG11">
-        <v>0</v>
-      </c>
-      <c r="BH11">
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
         <v>1.3</v>
       </c>
-      <c r="BI11">
+      <c r="BM11">
         <v>9</v>
       </c>
-      <c r="BJ11">
+      <c r="BN11">
         <v>1.88471022115226</v>
       </c>
-      <c r="BK11">
+      <c r="BO11">
         <v>1.638101950599026</v>
       </c>
-      <c r="BL11">
+      <c r="BP11">
         <v>0.164595411675496</v>
       </c>
-      <c r="BM11">
+      <c r="BQ11">
         <v>0.0998511864516432</v>
       </c>
-      <c r="BN11">
+      <c r="BR11">
         <v>0.1762262785685434</v>
       </c>
-      <c r="BO11">
+      <c r="BS11">
         <v>0.002696822904378111</v>
       </c>
-      <c r="BP11">
-        <v>0</v>
-      </c>
-      <c r="BQ11">
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
         <v>0.005596081453841497</v>
       </c>
-      <c r="BR11">
+      <c r="BV11">
         <v>0.001569372447146431</v>
       </c>
-      <c r="BS11">
+      <c r="BW11">
         <v>0.03573890221078418</v>
       </c>
-      <c r="BT11">
-        <v>0</v>
-      </c>
-      <c r="BU11">
+      <c r="BX11">
+        <v>0</v>
+      </c>
+      <c r="BY11">
         <v>0.1152897788477401</v>
       </c>
-      <c r="BV11">
+      <c r="BZ11">
         <v>0.06093649972080331</v>
       </c>
-      <c r="BW11">
+      <c r="CA11">
         <v>1.886279593599406</v>
       </c>
-      <c r="BX11">
+      <c r="CB11">
+        <v>0.8610040209989926</v>
+      </c>
+      <c r="CC11">
+        <v>0.08651312040667733</v>
+      </c>
+      <c r="CD11">
+        <v>0.05248285859433006</v>
+      </c>
+      <c r="CE11">
         <v>4.009086227463119</v>
       </c>
-      <c r="BY11">
+      <c r="CF11">
         <v>0.05248285859433006</v>
       </c>
-      <c r="BZ11">
+      <c r="CG11">
         <v>0.002696822904378111</v>
       </c>
-      <c r="CA11">
+      <c r="CH11">
         <v>0.001569372447146431</v>
       </c>
-      <c r="CB11">
+      <c r="CI11">
         <v>0.03573890221078418</v>
       </c>
-      <c r="CC11">
+      <c r="CJ11">
         <v>0.02250077460564102</v>
       </c>
-      <c r="CD11">
+      <c r="CK11">
         <v>0.0998511864516432</v>
       </c>
-      <c r="CE11">
+      <c r="CL11">
         <v>0.8421860551119666</v>
       </c>
-      <c r="CF11">
+      <c r="CM11">
         <v>0.7629218722387011</v>
       </c>
-      <c r="CG11">
+      <c r="CN11">
         <v>0.09045347361256829</v>
       </c>
-      <c r="CH11">
+      <c r="CO11">
         <v>0.9086921568214386</v>
       </c>
-      <c r="CI11">
+      <c r="CP11">
         <v>0.776617560898286</v>
       </c>
-      <c r="CJ11">
+      <c r="CQ11">
         <v>1.138612418340875</v>
       </c>
-      <c r="CK11">
+      <c r="CR11">
         <v>0.01817245492623782</v>
       </c>
-      <c r="CL11">
+      <c r="CS11">
         <v>0.4548344043982839</v>
       </c>
-      <c r="CM11">
+      <c r="CT11">
         <v>0.2223540616169097</v>
       </c>
-      <c r="CN11">
+      <c r="CU11">
         <v>0.6648016155718204</v>
       </c>
     </row>
-    <row r="12" spans="1:92">
+    <row r="12" spans="1:99">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3725,22 +3977,22 @@
         <v>12.12628031744168</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F12">
         <v>0.03494764763367342</v>
       </c>
       <c r="G12" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H12">
         <v>0.4249476476336735</v>
       </c>
       <c r="I12" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J12">
         <v>53</v>
@@ -3815,184 +4067,205 @@
         <v>0.07007282590464459</v>
       </c>
       <c r="AH12">
+        <v>0.6978360331168276</v>
+      </c>
+      <c r="AI12">
+        <v>0.08083027605038114</v>
+      </c>
+      <c r="AJ12">
+        <v>0.2213336908327913</v>
+      </c>
+      <c r="AK12">
         <v>4.005596127945894</v>
       </c>
-      <c r="AI12">
+      <c r="AL12">
         <v>0.2213336908327913</v>
       </c>
-      <c r="AJ12">
+      <c r="AM12">
         <v>0.01119225589178845</v>
       </c>
-      <c r="AK12">
+      <c r="AN12">
         <v>0.1402393556951778</v>
       </c>
-      <c r="AL12">
+      <c r="AO12">
         <v>0.07390963996550222</v>
       </c>
-      <c r="AM12">
+      <c r="AP12">
         <v>0.02105252511643872</v>
       </c>
-      <c r="AN12">
+      <c r="AQ12">
         <v>0.5049996254130223</v>
       </c>
-      <c r="AO12">
+      <c r="AR12">
         <v>0.8961908394045947</v>
       </c>
-      <c r="AP12">
+      <c r="AS12">
         <v>0.01101431503741985</v>
       </c>
-      <c r="AQ12">
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
         <v>0.05905851086722473</v>
       </c>
-      <c r="AR12">
+      <c r="AV12">
         <v>0.02958638749288593</v>
       </c>
-      <c r="AS12">
+      <c r="AW12">
         <v>0.3049605381071769</v>
       </c>
-      <c r="AT12">
+      <c r="AX12">
         <v>0.5769165600019606</v>
       </c>
-      <c r="AU12">
+      <c r="AY12">
         <v>0.3049605381071769</v>
       </c>
-      <c r="AV12">
+      <c r="AZ12">
         <v>0.2721815880848314</v>
       </c>
-      <c r="AW12">
+      <c r="BA12">
         <v>0.01119225589178845</v>
       </c>
-      <c r="AX12">
+      <c r="BB12">
         <v>0.1402393556951778</v>
       </c>
-      <c r="AY12">
+      <c r="BC12">
         <v>54.5</v>
       </c>
-      <c r="AZ12">
+      <c r="BD12">
         <v>0.09</v>
       </c>
-      <c r="BA12">
+      <c r="BE12">
         <v>3.9</v>
       </c>
-      <c r="BB12">
+      <c r="BF12">
         <v>5.8</v>
       </c>
-      <c r="BC12">
+      <c r="BG12">
         <v>0.19</v>
       </c>
-      <c r="BD12">
+      <c r="BH12">
         <v>31.6</v>
       </c>
-      <c r="BE12">
+      <c r="BI12">
         <v>2.7</v>
       </c>
-      <c r="BF12">
+      <c r="BJ12">
         <v>0.08</v>
       </c>
-      <c r="BG12">
-        <v>0</v>
-      </c>
-      <c r="BH12">
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
         <v>1.3</v>
       </c>
-      <c r="BI12">
+      <c r="BM12">
         <v>10</v>
       </c>
-      <c r="BJ12">
+      <c r="BN12">
         <v>1.893876946565446</v>
       </c>
-      <c r="BK12">
+      <c r="BO12">
         <v>1.637008307881837</v>
       </c>
-      <c r="BL12">
+      <c r="BP12">
         <v>0.1685540696807186</v>
       </c>
-      <c r="BM12">
+      <c r="BQ12">
         <v>0.1005291836238956</v>
       </c>
-      <c r="BN12">
+      <c r="BR12">
         <v>0.1597264273001079</v>
       </c>
-      <c r="BO12">
+      <c r="BS12">
         <v>0.005390044859831346</v>
       </c>
-      <c r="BP12">
-        <v>0</v>
-      </c>
-      <c r="BQ12">
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BU12">
         <v>0.005592345353213232</v>
       </c>
-      <c r="BR12">
+      <c r="BV12">
         <v>0.002352487035254511</v>
       </c>
-      <c r="BS12">
+      <c r="BW12">
         <v>0.03571504191923829</v>
       </c>
-      <c r="BT12">
-        <v>0</v>
-      </c>
-      <c r="BU12">
+      <c r="BX12">
+        <v>0</v>
+      </c>
+      <c r="BY12">
         <v>0.1061230534345543</v>
       </c>
-      <c r="BV12">
+      <c r="BZ12">
         <v>0.05360337386555356</v>
       </c>
-      <c r="BW12">
+      <c r="CA12">
         <v>1.8962294336007</v>
       </c>
-      <c r="BX12">
+      <c r="CB12">
+        <v>0.8588298386163975</v>
+      </c>
+      <c r="CC12">
+        <v>0.08842915687418594</v>
+      </c>
+      <c r="CD12">
+        <v>0.05274100450941663</v>
+      </c>
+      <c r="CE12">
         <v>4.008744854219541</v>
       </c>
-      <c r="BY12">
+      <c r="CF12">
         <v>0.05274100450941662</v>
       </c>
-      <c r="BZ12">
+      <c r="CG12">
         <v>0.005390044859831346</v>
       </c>
-      <c r="CA12">
+      <c r="CH12">
         <v>0.002352487035254511</v>
       </c>
-      <c r="CB12">
+      <c r="CI12">
         <v>0.03571504191923829</v>
       </c>
-      <c r="CC12">
+      <c r="CJ12">
         <v>0.01249828708648391</v>
       </c>
-      <c r="CD12">
+      <c r="CK12">
         <v>0.1005291836238956</v>
       </c>
-      <c r="CE12">
+      <c r="CL12">
         <v>0.8478873825850674</v>
       </c>
-      <c r="CF12">
+      <c r="CM12">
         <v>0.7663611903931702</v>
       </c>
-      <c r="CG12">
+      <c r="CN12">
         <v>0.0908630867891618</v>
       </c>
-      <c r="CH12">
+      <c r="CO12">
         <v>0.906644502128388</v>
       </c>
-      <c r="CI12">
+      <c r="CP12">
         <v>0.7734933863212933</v>
       </c>
-      <c r="CJ12">
+      <c r="CQ12">
         <v>1.124947647633673</v>
       </c>
-      <c r="CK12">
+      <c r="CR12">
         <v>0.01748970843908478</v>
       </c>
-      <c r="CL12">
+      <c r="CS12">
         <v>0.358859736619458</v>
       </c>
-      <c r="CM12">
+      <c r="CT12">
         <v>0.1717443426682485</v>
       </c>
-      <c r="CN12">
+      <c r="CU12">
         <v>0.6641295546377679</v>
       </c>
     </row>
-    <row r="13" spans="1:92">
+    <row r="13" spans="1:99">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4003,22 +4276,22 @@
         <v>15.30764930900497</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F13">
         <v>0.05428619871142759</v>
       </c>
       <c r="G13" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H13">
         <v>0.4442861987114277</v>
       </c>
       <c r="I13" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J13">
         <v>51.64</v>
@@ -4093,184 +4366,205 @@
         <v>0.183256906137418</v>
       </c>
       <c r="AH13">
+        <v>0.6038046002383555</v>
+      </c>
+      <c r="AI13">
+        <v>0.06839917432501001</v>
+      </c>
+      <c r="AJ13">
+        <v>0.3277962254366346</v>
+      </c>
+      <c r="AK13">
         <v>3.990175057219212</v>
       </c>
-      <c r="AI13">
+      <c r="AL13">
         <v>0.3277962254366346</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
         <v>0.118329886690765</v>
       </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
         <v>0.01056651495868757</v>
       </c>
-      <c r="AN13">
+      <c r="AQ13">
         <v>0.3080057996607209</v>
       </c>
-      <c r="AO13">
+      <c r="AR13">
         <v>0.8982433164907716</v>
       </c>
-      <c r="AP13">
+      <c r="AS13">
         <v>0.04560778921582524</v>
       </c>
-      <c r="AQ13">
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
         <v>0.1376491169215927</v>
       </c>
-      <c r="AR13">
+      <c r="AV13">
         <v>0.01092891728102231</v>
       </c>
-      <c r="AS13">
+      <c r="AW13">
         <v>0.4079396385698152</v>
       </c>
-      <c r="AT13">
+      <c r="AX13">
         <v>0.377483080272268</v>
       </c>
-      <c r="AU13">
+      <c r="AY13">
         <v>0.4079396385698152</v>
       </c>
-      <c r="AV13">
+      <c r="AZ13">
         <v>0.366430299425234</v>
       </c>
-      <c r="AW13">
+      <c r="BA13">
         <v>-0.0196498855615784</v>
       </c>
-      <c r="AX13">
+      <c r="BB13">
         <v>0.1379797722523434</v>
       </c>
-      <c r="AY13">
+      <c r="BC13">
         <v>53.3</v>
       </c>
-      <c r="AZ13">
+      <c r="BD13">
         <v>0.16</v>
       </c>
-      <c r="BA13">
+      <c r="BE13">
         <v>7.5</v>
       </c>
-      <c r="BB13">
+      <c r="BF13">
         <v>5.4</v>
       </c>
-      <c r="BC13">
-        <v>0</v>
-      </c>
-      <c r="BD13">
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
         <v>30.6</v>
       </c>
-      <c r="BE13">
+      <c r="BI13">
         <v>2.3</v>
       </c>
-      <c r="BF13">
-        <v>0</v>
-      </c>
-      <c r="BG13">
-        <v>0</v>
-      </c>
-      <c r="BH13">
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
         <v>0.76</v>
       </c>
-      <c r="BI13">
+      <c r="BM13">
         <v>11</v>
       </c>
-      <c r="BJ13">
+      <c r="BN13">
         <v>1.842181005574265</v>
       </c>
-      <c r="BK13">
+      <c r="BO13">
         <v>1.576649157469215</v>
       </c>
-      <c r="BL13">
+      <c r="BP13">
         <v>0.156082727225685</v>
       </c>
-      <c r="BM13">
+      <c r="BQ13">
         <v>0.08517380779759282</v>
       </c>
-      <c r="BN13">
+      <c r="BR13">
         <v>0.3055084801854373</v>
       </c>
-      <c r="BO13">
-        <v>0</v>
-      </c>
-      <c r="BP13">
-        <v>0</v>
-      </c>
-      <c r="BQ13">
-        <v>0</v>
-      </c>
-      <c r="BR13">
+      <c r="BS13">
+        <v>0</v>
+      </c>
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BU13">
+        <v>0</v>
+      </c>
+      <c r="BV13">
         <v>0.004159628523638295</v>
       </c>
-      <c r="BS13">
+      <c r="BW13">
         <v>0.02076687935569623</v>
       </c>
-      <c r="BT13">
-        <v>0</v>
-      </c>
-      <c r="BU13">
+      <c r="BX13">
+        <v>0</v>
+      </c>
+      <c r="BY13">
         <v>0.1578189944257351</v>
       </c>
-      <c r="BV13">
+      <c r="BZ13">
         <v>0.1476894857597022</v>
       </c>
-      <c r="BW13">
+      <c r="CA13">
         <v>1.846340634097903</v>
       </c>
-      <c r="BX13">
+      <c r="CB13">
+        <v>0.8672887509953853</v>
+      </c>
+      <c r="CC13">
+        <v>0.08585853923570874</v>
+      </c>
+      <c r="CD13">
+        <v>0.04685270976890597</v>
+      </c>
+      <c r="CE13">
         <v>3.99052168613153</v>
       </c>
-      <c r="BY13">
+      <c r="CF13">
         <v>0.04685270976890597</v>
       </c>
-      <c r="BZ13">
-        <v>0</v>
-      </c>
-      <c r="CA13">
+      <c r="CG13">
+        <v>0</v>
+      </c>
+      <c r="CH13">
         <v>0.004159628523638295</v>
       </c>
-      <c r="CB13">
+      <c r="CI13">
         <v>0.02076687935569623</v>
       </c>
-      <c r="CC13">
+      <c r="CJ13">
         <v>0.126922606404006</v>
       </c>
-      <c r="CD13">
+      <c r="CK13">
         <v>0.08517380779759282</v>
       </c>
-      <c r="CE13">
+      <c r="CL13">
         <v>0.7582379209848318</v>
       </c>
-      <c r="CF13">
+      <c r="CM13">
         <v>0.6899366196475595</v>
       </c>
-      <c r="CG13">
+      <c r="CN13">
         <v>0.07750143775196083</v>
       </c>
-      <c r="CH13">
+      <c r="CO13">
         <v>0.909918278200994</v>
       </c>
-      <c r="CI13">
+      <c r="CP13">
         <v>0.705303810923759</v>
       </c>
-      <c r="CJ13">
+      <c r="CQ13">
         <v>1.144286198711428</v>
       </c>
-      <c r="CK13">
-        <v>0</v>
-      </c>
-      <c r="CL13">
+      <c r="CR13">
+        <v>0</v>
+      </c>
+      <c r="CS13">
         <v>0.4748872594012775</v>
       </c>
-      <c r="CM13">
+      <c r="CT13">
         <v>0.196744506399992</v>
       </c>
-      <c r="CN13">
+      <c r="CU13">
         <v>0.6286011952631089</v>
       </c>
     </row>
-    <row r="14" spans="1:92">
+    <row r="14" spans="1:99">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4281,22 +4575,22 @@
         <v>11.22226775838634</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F14">
         <v>0.08096996753246755</v>
       </c>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H14">
         <v>0.3090300324675326</v>
       </c>
       <c r="I14" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J14">
         <v>51.3</v>
@@ -4371,184 +4665,205 @@
         <v>0.1514427103819179</v>
       </c>
       <c r="AH14">
+        <v>0.5251297251043203</v>
+      </c>
+      <c r="AI14">
+        <v>0.06527787224545635</v>
+      </c>
+      <c r="AJ14">
+        <v>0.4095924026502233</v>
+      </c>
+      <c r="AK14">
         <v>4.006428025030046</v>
       </c>
-      <c r="AI14">
+      <c r="AL14">
         <v>0.4095924026502233</v>
       </c>
-      <c r="AJ14">
+      <c r="AM14">
         <v>0.01285605006009203</v>
       </c>
-      <c r="AK14">
+      <c r="AN14">
         <v>0.104512792505231</v>
       </c>
-      <c r="AL14">
+      <c r="AO14">
         <v>0.109535459148256</v>
       </c>
-      <c r="AM14">
+      <c r="AP14">
         <v>0.007112541051418342</v>
       </c>
-      <c r="AN14">
+      <c r="AQ14">
         <v>0.188142323431956</v>
       </c>
-      <c r="AO14">
+      <c r="AR14">
         <v>0.8894326358888945</v>
       </c>
-      <c r="AP14">
+      <c r="AS14">
         <v>0.03488585429046644</v>
       </c>
-      <c r="AQ14">
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
         <v>0.1165568560914514</v>
       </c>
-      <c r="AR14">
+      <c r="AV14">
         <v>0.01868355153131894</v>
       </c>
-      <c r="AS14">
+      <c r="AW14">
         <v>0.594089348982849</v>
       </c>
-      <c r="AT14">
+      <c r="AX14">
         <v>0.2337282655498301</v>
       </c>
-      <c r="AU14">
+      <c r="AY14">
         <v>0.594089348982849</v>
       </c>
-      <c r="AV14">
+      <c r="AZ14">
         <v>0.5270424399727343</v>
       </c>
-      <c r="AW14">
+      <c r="BA14">
         <v>0.01285605006009203</v>
       </c>
-      <c r="AX14">
+      <c r="BB14">
         <v>0.104512792505231</v>
       </c>
-      <c r="AY14">
+      <c r="BC14">
         <v>52.9</v>
       </c>
-      <c r="AZ14">
+      <c r="BD14">
         <v>0.09</v>
       </c>
-      <c r="BA14">
+      <c r="BE14">
         <v>6.9</v>
       </c>
-      <c r="BB14">
+      <c r="BF14">
         <v>6.72</v>
       </c>
-      <c r="BC14">
+      <c r="BG14">
         <v>0.12</v>
       </c>
-      <c r="BD14">
+      <c r="BH14">
         <v>30.6</v>
       </c>
-      <c r="BE14">
+      <c r="BI14">
         <v>1.63</v>
       </c>
-      <c r="BF14">
+      <c r="BJ14">
         <v>0.07000000000000001</v>
       </c>
-      <c r="BG14">
-        <v>0</v>
-      </c>
-      <c r="BH14">
+      <c r="BK14">
+        <v>0</v>
+      </c>
+      <c r="BL14">
         <v>0.5</v>
       </c>
-      <c r="BI14">
+      <c r="BM14">
         <v>12</v>
       </c>
-      <c r="BJ14">
+      <c r="BN14">
         <v>1.846639883734539</v>
       </c>
-      <c r="BK14">
+      <c r="BO14">
         <v>1.59241592175787</v>
       </c>
-      <c r="BL14">
+      <c r="BP14">
         <v>0.1961786791946065</v>
       </c>
-      <c r="BM14">
+      <c r="BQ14">
         <v>0.060965940778808</v>
       </c>
-      <c r="BN14">
+      <c r="BR14">
         <v>0.2838785284047767</v>
       </c>
-      <c r="BO14">
+      <c r="BS14">
         <v>0.004737745378160746</v>
       </c>
-      <c r="BP14">
-        <v>0</v>
-      </c>
-      <c r="BQ14">
+      <c r="BT14">
+        <v>0</v>
+      </c>
+      <c r="BU14">
         <v>0.003548075986629926</v>
       </c>
-      <c r="BR14">
+      <c r="BV14">
         <v>0.002363189359707084</v>
       </c>
-      <c r="BS14">
+      <c r="BW14">
         <v>0.01379904719823219</v>
       </c>
-      <c r="BT14">
-        <v>0</v>
-      </c>
-      <c r="BU14">
+      <c r="BX14">
+        <v>0</v>
+      </c>
+      <c r="BY14">
         <v>0.1533601162654608</v>
       </c>
-      <c r="BV14">
+      <c r="BZ14">
         <v>0.130518412139316</v>
       </c>
-      <c r="BW14">
+      <c r="CA14">
         <v>1.849003073094246</v>
       </c>
-      <c r="BX14">
+      <c r="CB14">
+        <v>0.8609698822117422</v>
+      </c>
+      <c r="CC14">
+        <v>0.1060677251532265</v>
+      </c>
+      <c r="CD14">
+        <v>0.03296239263503142</v>
+      </c>
+      <c r="CE14">
         <v>4.004527011793331</v>
       </c>
-      <c r="BY14">
+      <c r="CF14">
         <v>0.03296239263503141</v>
       </c>
-      <c r="BZ14">
+      <c r="CG14">
         <v>0.004737745378160746</v>
       </c>
-      <c r="CA14">
+      <c r="CH14">
         <v>0.002363189359707084</v>
       </c>
-      <c r="CB14">
+      <c r="CI14">
         <v>0.01379904719823219</v>
       </c>
-      <c r="CC14">
+      <c r="CJ14">
         <v>0.111981619562923</v>
       </c>
-      <c r="CD14">
+      <c r="CK14">
         <v>0.060965940778808</v>
       </c>
-      <c r="CE14">
+      <c r="CL14">
         <v>0.8084159636188342</v>
       </c>
-      <c r="CF14">
+      <c r="CM14">
         <v>0.7183214084654063</v>
       </c>
-      <c r="CG14">
+      <c r="CN14">
         <v>0.05417154338790402</v>
       </c>
-      <c r="CH14">
+      <c r="CO14">
         <v>0.8903135938406279</v>
       </c>
-      <c r="CI14">
+      <c r="CP14">
         <v>0.7517158652960805</v>
       </c>
-      <c r="CJ14">
+      <c r="CQ14">
         <v>1.009030032467533</v>
       </c>
-      <c r="CK14">
+      <c r="CR14">
         <v>0.009054023586659158</v>
       </c>
-      <c r="CL14">
+      <c r="CS14">
         <v>0.5671850452375549</v>
       </c>
-      <c r="CM14">
+      <c r="CT14">
         <v>0.2313191389848826</v>
       </c>
-      <c r="CN14">
+      <c r="CU14">
         <v>0.6322638334924512</v>
       </c>
     </row>
-    <row r="15" spans="1:92">
+    <row r="15" spans="1:99">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4559,22 +4874,22 @@
         <v>11.46322728215987</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F15">
         <v>0.05971649484536101</v>
       </c>
       <c r="G15" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H15">
         <v>0.3302835051546391</v>
       </c>
       <c r="I15" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J15">
         <v>52.4</v>
@@ -4649,184 +4964,205 @@
         <v>0.1184945856425239</v>
       </c>
       <c r="AH15">
+        <v>0.5647804329479554</v>
+      </c>
+      <c r="AI15">
+        <v>0.06695903980539429</v>
+      </c>
+      <c r="AJ15">
+        <v>0.3682605272466503</v>
+      </c>
+      <c r="AK15">
         <v>4.007951937159976</v>
       </c>
-      <c r="AI15">
+      <c r="AL15">
         <v>0.3682605272466503</v>
       </c>
-      <c r="AJ15">
+      <c r="AM15">
         <v>0.01590387431995156</v>
       </c>
-      <c r="AK15">
+      <c r="AN15">
         <v>0.1062363514790139</v>
       </c>
-      <c r="AL15">
+      <c r="AO15">
         <v>0.1302099633099439</v>
       </c>
-      <c r="AM15">
+      <c r="AP15">
         <v>0.01267313140992991</v>
       </c>
-      <c r="AN15">
+      <c r="AQ15">
         <v>0.2486181142510644</v>
       </c>
-      <c r="AO15">
+      <c r="AR15">
         <v>0.894005294243382</v>
       </c>
-      <c r="AP15">
+      <c r="AS15">
         <v>0.03384247254431844</v>
       </c>
-      <c r="AQ15">
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
         <v>0.08465211309820547</v>
       </c>
-      <c r="AR15">
+      <c r="AV15">
         <v>0.02437632175701462</v>
       </c>
-      <c r="AS15">
+      <c r="AW15">
         <v>0.5500437885290259</v>
       </c>
-      <c r="AT15">
+      <c r="AX15">
         <v>0.3011572301111428</v>
       </c>
-      <c r="AU15">
+      <c r="AY15">
         <v>0.5500437885290259</v>
       </c>
-      <c r="AV15">
+      <c r="AZ15">
         <v>0.490715933834096</v>
       </c>
-      <c r="AW15">
+      <c r="BA15">
         <v>0.01590387431995156</v>
       </c>
-      <c r="AX15">
+      <c r="BB15">
         <v>0.1062363514790139</v>
       </c>
-      <c r="AY15">
+      <c r="BC15">
         <v>55</v>
       </c>
-      <c r="AZ15">
+      <c r="BD15">
         <v>0.09</v>
       </c>
-      <c r="BA15">
+      <c r="BE15">
         <v>6</v>
       </c>
-      <c r="BB15">
+      <c r="BF15">
         <v>6.4</v>
       </c>
-      <c r="BC15">
+      <c r="BG15">
         <v>0.13</v>
       </c>
-      <c r="BD15">
+      <c r="BH15">
         <v>31.2</v>
       </c>
-      <c r="BE15">
+      <c r="BI15">
         <v>1.7</v>
       </c>
-      <c r="BF15">
+      <c r="BJ15">
         <v>0.05</v>
       </c>
-      <c r="BG15">
-        <v>0</v>
-      </c>
-      <c r="BH15">
+      <c r="BK15">
+        <v>0</v>
+      </c>
+      <c r="BL15">
         <v>0.8</v>
       </c>
-      <c r="BI15">
+      <c r="BM15">
         <v>13</v>
       </c>
-      <c r="BJ15">
+      <c r="BN15">
         <v>1.87996300504202</v>
       </c>
-      <c r="BK15">
+      <c r="BO15">
         <v>1.58982657834606</v>
       </c>
-      <c r="BL15">
+      <c r="BP15">
         <v>0.1829458581277978</v>
       </c>
-      <c r="BM15">
+      <c r="BQ15">
         <v>0.06225993618966856</v>
       </c>
-      <c r="BN15">
+      <c r="BR15">
         <v>0.2417100895451389</v>
       </c>
-      <c r="BO15">
+      <c r="BS15">
         <v>0.003313628030414639</v>
       </c>
-      <c r="BP15">
-        <v>0</v>
-      </c>
-      <c r="BQ15">
+      <c r="BT15">
+        <v>0</v>
+      </c>
+      <c r="BU15">
         <v>0.003763700813174212</v>
       </c>
-      <c r="BR15">
+      <c r="BV15">
         <v>0.00231397465035578</v>
       </c>
-      <c r="BS15">
+      <c r="BW15">
         <v>0.0216186792037554</v>
       </c>
-      <c r="BT15">
-        <v>0</v>
-      </c>
-      <c r="BU15">
+      <c r="BX15">
+        <v>0</v>
+      </c>
+      <c r="BY15">
         <v>0.1200369949579803</v>
       </c>
-      <c r="BV15">
+      <c r="BZ15">
         <v>0.1216730945871586</v>
       </c>
-      <c r="BW15">
+      <c r="CA15">
         <v>1.882276979692376</v>
       </c>
-      <c r="BX15">
+      <c r="CB15">
+        <v>0.8663752215109136</v>
+      </c>
+      <c r="CC15">
+        <v>0.0996962565092267</v>
+      </c>
+      <c r="CD15">
+        <v>0.0339285219798597</v>
+      </c>
+      <c r="CE15">
         <v>3.987715449948386</v>
       </c>
-      <c r="BY15">
+      <c r="CF15">
         <v>0.0339285219798597</v>
       </c>
-      <c r="BZ15">
+      <c r="CG15">
         <v>0.003313628030414639</v>
       </c>
-      <c r="CA15">
+      <c r="CH15">
         <v>0.00231397465035578</v>
       </c>
-      <c r="CB15">
+      <c r="CI15">
         <v>0.0216186792037554</v>
       </c>
-      <c r="CC15">
+      <c r="CJ15">
         <v>0.09674078735298856</v>
       </c>
-      <c r="CD15">
+      <c r="CK15">
         <v>0.06225993618966856</v>
       </c>
-      <c r="CE15">
+      <c r="CL15">
         <v>0.8076107195470097</v>
       </c>
-      <c r="CF15">
+      <c r="CM15">
         <v>0.7227328281955316</v>
       </c>
-      <c r="CG15">
+      <c r="CN15">
         <v>0.05571657071475173</v>
       </c>
-      <c r="CH15">
+      <c r="CO15">
         <v>0.8967993098855213</v>
       </c>
-      <c r="CI15">
+      <c r="CP15">
         <v>0.7489358046748616</v>
       </c>
-      <c r="CJ15">
+      <c r="CQ15">
         <v>1.030283505154639</v>
       </c>
-      <c r="CK15">
-        <v>0</v>
-      </c>
-      <c r="CL15">
+      <c r="CR15">
+        <v>0</v>
+      </c>
+      <c r="CS15">
         <v>0.5263518332234477</v>
       </c>
-      <c r="CM15">
+      <c r="CT15">
         <v>0.1896696272207511</v>
       </c>
-      <c r="CN15">
+      <c r="CU15">
         <v>0.640664914785542</v>
       </c>
     </row>
-    <row r="16" spans="1:92">
+    <row r="16" spans="1:99">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4837,22 +5173,22 @@
         <v>19.19890573884669</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F16">
         <v>0.07972800853306561</v>
       </c>
       <c r="G16" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H16">
         <v>0.4697280085330657</v>
       </c>
       <c r="I16" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J16">
         <v>52</v>
@@ -4927,184 +5263,205 @@
         <v>0.2130656084043068</v>
       </c>
       <c r="AH16">
+        <v>0.628355592074015</v>
+      </c>
+      <c r="AI16">
+        <v>0.08287021337438204</v>
+      </c>
+      <c r="AJ16">
+        <v>0.2887741945516029</v>
+      </c>
+      <c r="AK16">
         <v>3.999634881300557</v>
       </c>
-      <c r="AI16">
+      <c r="AL16">
         <v>0.2887741945516029</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
         <v>0.1435021039521653</v>
       </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
         <v>0.001248413584465299</v>
       </c>
-      <c r="AN16">
+      <c r="AQ16">
         <v>0.3538412380737858</v>
       </c>
-      <c r="AO16">
+      <c r="AR16">
         <v>0.883479116605734</v>
       </c>
-      <c r="AP16">
+      <c r="AS16">
         <v>0.04694503244349596</v>
       </c>
-      <c r="AQ16">
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
         <v>0.1661205759608108</v>
       </c>
-      <c r="AR16">
+      <c r="AV16">
         <v>0.004578605291009757</v>
       </c>
-      <c r="AS16">
+      <c r="AW16">
         <v>0.3281078870777662</v>
       </c>
-      <c r="AT16">
+      <c r="AX16">
         <v>0.4517427058907014</v>
       </c>
-      <c r="AU16">
+      <c r="AY16">
         <v>0.3281078870777662</v>
       </c>
-      <c r="AV16">
+      <c r="AZ16">
         <v>0.2894584645441741</v>
       </c>
-      <c r="AW16">
+      <c r="BA16">
         <v>-0.0007302373988851891</v>
       </c>
-      <c r="AX16">
+      <c r="BB16">
         <v>0.1442323413510505</v>
       </c>
-      <c r="AY16">
+      <c r="BC16">
         <v>54</v>
       </c>
-      <c r="AZ16">
+      <c r="BD16">
         <v>0.06</v>
       </c>
-      <c r="BA16">
+      <c r="BE16">
         <v>8.26</v>
       </c>
-      <c r="BB16">
+      <c r="BF16">
         <v>6.13</v>
       </c>
-      <c r="BC16">
+      <c r="BG16">
         <v>0.04</v>
       </c>
-      <c r="BD16">
+      <c r="BH16">
         <v>30.5</v>
       </c>
-      <c r="BE16">
+      <c r="BI16">
         <v>2.18</v>
       </c>
-      <c r="BF16">
+      <c r="BJ16">
         <v>0.15</v>
       </c>
-      <c r="BG16">
-        <v>0</v>
-      </c>
-      <c r="BH16">
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
         <v>0.06</v>
       </c>
-      <c r="BI16">
+      <c r="BM16">
         <v>14</v>
       </c>
-      <c r="BJ16">
+      <c r="BN16">
         <v>1.842230838886937</v>
       </c>
-      <c r="BK16">
+      <c r="BO16">
         <v>1.551167415497921</v>
       </c>
-      <c r="BL16">
+      <c r="BP16">
         <v>0.174890716426702</v>
       </c>
-      <c r="BM16">
+      <c r="BQ16">
         <v>0.07968561305168195</v>
       </c>
-      <c r="BN16">
+      <c r="BR16">
         <v>0.3321140516855712</v>
       </c>
-      <c r="BO16">
+      <c r="BS16">
         <v>0.00992175925040927</v>
       </c>
-      <c r="BP16">
-        <v>0</v>
-      </c>
-      <c r="BQ16">
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BU16">
         <v>0.001155833843228553</v>
       </c>
-      <c r="BR16">
+      <c r="BV16">
         <v>0.001539681929135618</v>
       </c>
-      <c r="BS16">
+      <c r="BW16">
         <v>0.001618281596506251</v>
       </c>
-      <c r="BT16">
-        <v>0</v>
-      </c>
-      <c r="BU16">
+      <c r="BX16">
+        <v>0</v>
+      </c>
+      <c r="BY16">
         <v>0.1577691611130627</v>
       </c>
-      <c r="BV16">
+      <c r="BZ16">
         <v>0.1743448905725085</v>
       </c>
-      <c r="BW16">
+      <c r="CA16">
         <v>1.843770520816073</v>
       </c>
-      <c r="BX16">
+      <c r="CB16">
+        <v>0.8590185732684211</v>
+      </c>
+      <c r="CC16">
+        <v>0.09685245589982476</v>
+      </c>
+      <c r="CD16">
+        <v>0.04412897083175419</v>
+      </c>
+      <c r="CE16">
         <v>3.994324192168093</v>
       </c>
-      <c r="BY16">
+      <c r="CF16">
         <v>0.04412897083175419</v>
       </c>
-      <c r="BZ16">
+      <c r="CG16">
         <v>0.00992175925040927</v>
       </c>
-      <c r="CA16">
+      <c r="CH16">
         <v>0.001539681929135618</v>
       </c>
-      <c r="CB16">
+      <c r="CI16">
         <v>0.001618281596506251</v>
       </c>
-      <c r="CC16">
+      <c r="CJ16">
         <v>0.1628048497255929</v>
       </c>
-      <c r="CD16">
+      <c r="CK16">
         <v>0.07968561305168195</v>
       </c>
-      <c r="CE16">
+      <c r="CL16">
         <v>0.7415919105307207</v>
       </c>
-      <c r="CF16">
+      <c r="CM16">
         <v>0.6660050404934692</v>
       </c>
-      <c r="CG16">
+      <c r="CN16">
         <v>0.07156364463206193</v>
       </c>
-      <c r="CH16">
+      <c r="CO16">
         <v>0.8986731886057254</v>
       </c>
-      <c r="CI16">
+      <c r="CP16">
         <v>0.6780814526844665</v>
       </c>
-      <c r="CJ16">
+      <c r="CQ16">
         <v>1.169728008533066</v>
       </c>
-      <c r="CK16">
-        <v>0</v>
-      </c>
-      <c r="CL16">
+      <c r="CR16">
+        <v>0</v>
+      </c>
+      <c r="CS16">
         <v>0.4293867946199933</v>
       </c>
-      <c r="CM16">
+      <c r="CT16">
         <v>0.1593889125072531</v>
       </c>
-      <c r="CN16">
+      <c r="CU16">
         <v>0.6061053929384528</v>
       </c>
     </row>
-    <row r="17" spans="1:92">
+    <row r="17" spans="1:99">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5115,22 +5472,22 @@
         <v>15.66897266135065</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F17">
         <v>0.09340476549431753</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H17">
         <v>0.4834047654943177</v>
       </c>
       <c r="I17" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J17">
         <v>52.9</v>
@@ -5205,184 +5562,205 @@
         <v>0.1565771512678663</v>
       </c>
       <c r="AH17">
+        <v>0.6724040922695452</v>
+      </c>
+      <c r="AI17">
+        <v>0.08491201756004259</v>
+      </c>
+      <c r="AJ17">
+        <v>0.2426838901704121</v>
+      </c>
+      <c r="AK17">
         <v>4.003822239023432</v>
       </c>
-      <c r="AI17">
+      <c r="AL17">
         <v>0.2426838901704121</v>
       </c>
-      <c r="AJ17">
+      <c r="AM17">
         <v>0.007644478046862843</v>
       </c>
-      <c r="AK17">
+      <c r="AN17">
         <v>0.1445477350586709</v>
       </c>
-      <c r="AL17">
+      <c r="AO17">
         <v>0.05022910102215267</v>
       </c>
-      <c r="AM17">
+      <c r="AP17">
         <v>0.001660110137893144</v>
       </c>
-      <c r="AN17">
+      <c r="AQ17">
         <v>0.4364472379716725</v>
       </c>
-      <c r="AO17">
+      <c r="AR17">
         <v>0.887874383028684</v>
       </c>
-      <c r="AP17">
+      <c r="AS17">
         <v>0.03732011055881662</v>
       </c>
-      <c r="AQ17">
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
         <v>0.1192570407090497</v>
       </c>
-      <c r="AR17">
+      <c r="AV17">
         <v>0.01469597587522617</v>
       </c>
-      <c r="AS17">
+      <c r="AW17">
         <v>0.2993617966328</v>
       </c>
-      <c r="AT17">
+      <c r="AX17">
         <v>0.5290075729234809</v>
       </c>
-      <c r="AU17">
+      <c r="AY17">
         <v>0.2993617966328</v>
       </c>
-      <c r="AV17">
+      <c r="AZ17">
         <v>0.2648135452627158</v>
       </c>
-      <c r="AW17">
+      <c r="BA17">
         <v>0.007644478046862843</v>
       </c>
-      <c r="AX17">
+      <c r="BB17">
         <v>0.1445477350586709</v>
       </c>
-      <c r="AY17">
+      <c r="BC17">
         <v>54.9</v>
       </c>
-      <c r="AZ17">
+      <c r="BD17">
         <v>0.17</v>
       </c>
-      <c r="BA17">
+      <c r="BE17">
         <v>6.22</v>
       </c>
-      <c r="BB17">
+      <c r="BF17">
         <v>6.03</v>
       </c>
-      <c r="BC17">
+      <c r="BG17">
         <v>0.15</v>
       </c>
-      <c r="BD17">
+      <c r="BH17">
         <v>31.7</v>
       </c>
-      <c r="BE17">
+      <c r="BI17">
         <v>2.46</v>
       </c>
-      <c r="BF17">
+      <c r="BJ17">
         <v>0.14</v>
       </c>
-      <c r="BG17">
-        <v>0</v>
-      </c>
-      <c r="BH17">
+      <c r="BK17">
+        <v>0</v>
+      </c>
+      <c r="BL17">
         <v>0.1</v>
       </c>
-      <c r="BI17">
+      <c r="BM17">
         <v>15</v>
       </c>
-      <c r="BJ17">
+      <c r="BN17">
         <v>1.867675416776513</v>
       </c>
-      <c r="BK17">
+      <c r="BO17">
         <v>1.607669844867595</v>
       </c>
-      <c r="BL17">
+      <c r="BP17">
         <v>0.1715545986484071</v>
       </c>
-      <c r="BM17">
+      <c r="BQ17">
         <v>0.08966796247156576</v>
       </c>
-      <c r="BN17">
+      <c r="BR17">
         <v>0.2493884626214291</v>
       </c>
-      <c r="BO17">
+      <c r="BS17">
         <v>0.009234305346775273</v>
       </c>
-      <c r="BP17">
-        <v>0</v>
-      </c>
-      <c r="BQ17">
+      <c r="BT17">
+        <v>0</v>
+      </c>
+      <c r="BU17">
         <v>0.004322205822458778</v>
       </c>
-      <c r="BR17">
+      <c r="BV17">
         <v>0.004350182262812648</v>
       </c>
-      <c r="BS17">
+      <c r="BW17">
         <v>0.002689562337191446</v>
       </c>
-      <c r="BT17">
-        <v>0</v>
-      </c>
-      <c r="BU17">
+      <c r="BX17">
+        <v>0</v>
+      </c>
+      <c r="BY17">
         <v>0.1323245832234865</v>
       </c>
-      <c r="BV17">
+      <c r="BZ17">
         <v>0.1170638793979426</v>
       </c>
-      <c r="BW17">
+      <c r="CA17">
         <v>1.872025599039326</v>
       </c>
-      <c r="BX17">
+      <c r="CB17">
+        <v>0.8602260032289358</v>
+      </c>
+      <c r="CC17">
+        <v>0.09179479679984762</v>
+      </c>
+      <c r="CD17">
+        <v>0.04797919997121666</v>
+      </c>
+      <c r="CE17">
         <v>4.00655254115475</v>
       </c>
-      <c r="BY17">
+      <c r="CF17">
         <v>0.04797919997121666</v>
       </c>
-      <c r="BZ17">
+      <c r="CG17">
         <v>0.009234305346775273</v>
       </c>
-      <c r="CA17">
+      <c r="CH17">
         <v>0.004350182262812648</v>
       </c>
-      <c r="CB17">
+      <c r="CI17">
         <v>0.002689562337191446</v>
       </c>
-      <c r="CC17">
+      <c r="CJ17">
         <v>0.1051400117139759</v>
       </c>
-      <c r="CD17">
+      <c r="CK17">
         <v>0.08966796247156576</v>
       </c>
-      <c r="CE17">
+      <c r="CL17">
         <v>0.7921942464450535</v>
       </c>
-      <c r="CF17">
+      <c r="CM17">
         <v>0.7140754079853809</v>
       </c>
-      <c r="CG17">
+      <c r="CN17">
         <v>0.08082574087407518</v>
       </c>
-      <c r="CH17">
+      <c r="CO17">
         <v>0.9035760903684356</v>
       </c>
-      <c r="CI17">
+      <c r="CP17">
         <v>0.7216192685462962</v>
       </c>
-      <c r="CJ17">
+      <c r="CQ17">
         <v>1.183404765494318</v>
       </c>
-      <c r="CK17">
+      <c r="CR17">
         <v>0.01310508230950243</v>
       </c>
-      <c r="CL17">
+      <c r="CS17">
         <v>0.3775166838061101</v>
       </c>
-      <c r="CM17">
+      <c r="CT17">
         <v>0.158697314823601</v>
       </c>
-      <c r="CN17">
+      <c r="CU17">
         <v>0.6421215631098643</v>
       </c>
     </row>
-    <row r="18" spans="1:92">
+    <row r="18" spans="1:99">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5393,22 +5771,22 @@
         <v>20.1254201128161</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F18">
         <v>0.3153521126760562</v>
       </c>
       <c r="G18" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H18">
         <v>0.0746478873239439</v>
       </c>
       <c r="I18" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J18">
         <v>51.3</v>
@@ -5483,184 +5861,205 @@
         <v>0.2042749558872718</v>
       </c>
       <c r="AH18">
+        <v>0.6363274290120161</v>
+      </c>
+      <c r="AI18">
+        <v>0.1238987468665516</v>
+      </c>
+      <c r="AJ18">
+        <v>0.2397738241214324</v>
+      </c>
+      <c r="AK18">
         <v>4.003898666321953</v>
       </c>
-      <c r="AI18">
+      <c r="AL18">
         <v>0.2397738241214324</v>
       </c>
-      <c r="AJ18">
+      <c r="AM18">
         <v>0.007797332643908373</v>
       </c>
-      <c r="AK18">
+      <c r="AN18">
         <v>0.2045019060331365</v>
       </c>
-      <c r="AL18">
+      <c r="AO18">
         <v>0.03672802923127708</v>
       </c>
-      <c r="AM18">
+      <c r="AP18">
         <v>0.001122791067405183</v>
       </c>
-      <c r="AN18">
+      <c r="AQ18">
         <v>0.407199563922419</v>
       </c>
-      <c r="AO18">
+      <c r="AR18">
         <v>0.8370192777377984</v>
       </c>
-      <c r="AP18">
+      <c r="AS18">
         <v>0.06402012045072991</v>
       </c>
-      <c r="AQ18">
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
         <v>0.1402548354365419</v>
       </c>
-      <c r="AR18">
+      <c r="AV18">
         <v>0.01917586651410261</v>
       </c>
-      <c r="AS18">
+      <c r="AW18">
         <v>0.2502965083180495</v>
       </c>
-      <c r="AT18">
+      <c r="AX18">
         <v>0.526171643915555</v>
       </c>
-      <c r="AU18">
+      <c r="AY18">
         <v>0.2502965083180495</v>
       </c>
-      <c r="AV18">
+      <c r="AZ18">
         <v>0.2085892032227362</v>
       </c>
-      <c r="AW18">
+      <c r="BA18">
         <v>0.007797332643908373</v>
       </c>
-      <c r="AX18">
+      <c r="BB18">
         <v>0.2045019060331365</v>
       </c>
-      <c r="AY18">
+      <c r="BC18">
         <v>52.3</v>
       </c>
-      <c r="AZ18">
+      <c r="BD18">
         <v>0.38</v>
       </c>
-      <c r="BA18">
+      <c r="BE18">
         <v>8.16</v>
       </c>
-      <c r="BB18">
+      <c r="BF18">
         <v>9.23</v>
       </c>
-      <c r="BC18">
+      <c r="BG18">
         <v>0.15</v>
       </c>
-      <c r="BD18">
+      <c r="BH18">
         <v>20.6</v>
       </c>
-      <c r="BE18">
+      <c r="BI18">
         <v>2.16</v>
       </c>
-      <c r="BF18">
+      <c r="BJ18">
         <v>0.23</v>
       </c>
-      <c r="BG18">
-        <v>0</v>
-      </c>
-      <c r="BH18">
+      <c r="BK18">
+        <v>0</v>
+      </c>
+      <c r="BL18">
         <v>0.06</v>
       </c>
-      <c r="BI18">
+      <c r="BM18">
         <v>16</v>
       </c>
-      <c r="BJ18">
+      <c r="BN18">
         <v>1.951958915159523</v>
       </c>
-      <c r="BK18">
+      <c r="BO18">
         <v>1.146158684585286</v>
       </c>
-      <c r="BL18">
+      <c r="BP18">
         <v>0.2880890016440429</v>
       </c>
-      <c r="BM18">
+      <c r="BQ18">
         <v>0.08637655342932422</v>
       </c>
-      <c r="BN18">
+      <c r="BR18">
         <v>0.3589352056558399</v>
       </c>
-      <c r="BO18">
+      <c r="BS18">
         <v>0.01664347304416928</v>
       </c>
-      <c r="BP18">
-        <v>0</v>
-      </c>
-      <c r="BQ18">
+      <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BU18">
         <v>0.004741823335562981</v>
       </c>
-      <c r="BR18">
+      <c r="BV18">
         <v>0.01066797659197598</v>
       </c>
-      <c r="BS18">
+      <c r="BW18">
         <v>0.001770405664627602</v>
       </c>
-      <c r="BT18">
-        <v>0</v>
-      </c>
-      <c r="BU18">
+      <c r="BX18">
+        <v>0</v>
+      </c>
+      <c r="BY18">
         <v>0.04804108484047731</v>
       </c>
-      <c r="BV18">
+      <c r="BZ18">
         <v>0.3108941208153626</v>
       </c>
-      <c r="BW18">
+      <c r="CA18">
         <v>1.962626891751499</v>
       </c>
-      <c r="BX18">
+      <c r="CB18">
+        <v>0.75374221631675</v>
+      </c>
+      <c r="CC18">
+        <v>0.1894544320224125</v>
+      </c>
+      <c r="CD18">
+        <v>0.05680335166083758</v>
+      </c>
+      <c r="CE18">
         <v>3.865342039110351</v>
       </c>
-      <c r="BY18">
+      <c r="CF18">
         <v>0.05680335166083758</v>
       </c>
-      <c r="BZ18">
+      <c r="CG18">
         <v>0.01664347304416928</v>
       </c>
-      <c r="CA18">
+      <c r="CH18">
         <v>0.01066797659197598</v>
       </c>
-      <c r="CB18">
+      <c r="CI18">
         <v>0.001770405664627602</v>
       </c>
-      <c r="CC18">
+      <c r="CJ18">
         <v>0.2924802421065656</v>
       </c>
-      <c r="CD18">
+      <c r="CK18">
         <v>0.08637655342932422</v>
       </c>
-      <c r="CE18">
+      <c r="CL18">
         <v>0.524732368718513</v>
       </c>
-      <c r="CF18">
+      <c r="CM18">
         <v>0.4179506226362872</v>
       </c>
-      <c r="CG18">
+      <c r="CN18">
         <v>0.06879913731094536</v>
       </c>
-      <c r="CH18">
+      <c r="CO18">
         <v>0.7991304465076785</v>
       </c>
-      <c r="CI18">
+      <c r="CP18">
         <v>0.4408730592253848</v>
       </c>
-      <c r="CJ18">
+      <c r="CQ18">
         <v>0.7746478873239439</v>
       </c>
-      <c r="CK18">
-        <v>0</v>
-      </c>
-      <c r="CL18">
+      <c r="CR18">
+        <v>0</v>
+      </c>
+      <c r="CS18">
         <v>0.3642270601296509</v>
       </c>
-      <c r="CM18">
+      <c r="CT18">
         <v>0.1466121592552196</v>
       </c>
-      <c r="CN18">
+      <c r="CU18">
         <v>0.3826589477726368</v>
       </c>
     </row>
-    <row r="19" spans="1:92">
+    <row r="19" spans="1:99">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5671,22 +6070,22 @@
         <v>17.40991618087587</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F19">
         <v>0.0752320664896351</v>
       </c>
       <c r="G19" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H19">
         <v>0.4652320664896352</v>
       </c>
       <c r="I19" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J19">
         <v>51.5</v>
@@ -5761,184 +6160,205 @@
         <v>0.202812560716974</v>
       </c>
       <c r="AH19">
+        <v>0.6422650747502361</v>
+      </c>
+      <c r="AI19">
+        <v>0.1125715510781887</v>
+      </c>
+      <c r="AJ19">
+        <v>0.2451633741715752</v>
+      </c>
+      <c r="AK19">
         <v>3.996030492728336</v>
       </c>
-      <c r="AI19">
+      <c r="AL19">
         <v>0.2451633741715752</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
         <v>0.1937993465881055</v>
       </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19">
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
         <v>0.001122265677729698</v>
       </c>
-      <c r="AN19">
+      <c r="AQ19">
         <v>0.414147957794247</v>
       </c>
-      <c r="AO19">
+      <c r="AR19">
         <v>0.8508620979413719</v>
       </c>
-      <c r="AP19">
+      <c r="AS19">
         <v>0.05091690420980111</v>
       </c>
-      <c r="AQ19">
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
         <v>0.1518956565071729</v>
       </c>
-      <c r="AR19">
+      <c r="AV19">
         <v>0.01023278681143983</v>
       </c>
-      <c r="AS19">
+      <c r="AW19">
         <v>0.2588142023131392</v>
       </c>
-      <c r="AT19">
+      <c r="AX19">
         <v>0.5203434062549909</v>
       </c>
-      <c r="AU19">
+      <c r="AY19">
         <v>0.2588142023131392</v>
       </c>
-      <c r="AV19">
+      <c r="AZ19">
         <v>0.2193032116118284</v>
       </c>
-      <c r="AW19">
+      <c r="BA19">
         <v>-0.007939014543329331</v>
       </c>
-      <c r="AX19">
+      <c r="BB19">
         <v>0.2017383611314348</v>
       </c>
-      <c r="AY19">
+      <c r="BC19">
         <v>52.6</v>
       </c>
-      <c r="AZ19">
+      <c r="BD19">
         <v>0.28</v>
       </c>
-      <c r="BA19">
+      <c r="BE19">
         <v>8.6</v>
       </c>
-      <c r="BB19">
+      <c r="BF19">
         <v>7.91</v>
       </c>
-      <c r="BC19">
+      <c r="BG19">
         <v>0.12</v>
       </c>
-      <c r="BD19">
+      <c r="BH19">
         <v>29.5</v>
       </c>
-      <c r="BE19">
+      <c r="BI19">
         <v>2.11</v>
       </c>
-      <c r="BF19">
+      <c r="BJ19">
         <v>0.15</v>
       </c>
-      <c r="BG19">
-        <v>0</v>
-      </c>
-      <c r="BH19">
-        <v>0</v>
-      </c>
-      <c r="BI19">
+      <c r="BK19">
+        <v>0</v>
+      </c>
+      <c r="BL19">
+        <v>0</v>
+      </c>
+      <c r="BM19">
         <v>17</v>
       </c>
-      <c r="BJ19">
+      <c r="BN19">
         <v>1.814573177470779</v>
       </c>
-      <c r="BK19">
+      <c r="BO19">
         <v>1.517117801699066</v>
       </c>
-      <c r="BL19">
+      <c r="BP19">
         <v>0.2282029321540315</v>
       </c>
-      <c r="BM19">
+      <c r="BQ19">
         <v>0.07799097225580869</v>
       </c>
-      <c r="BN19">
+      <c r="BR19">
         <v>0.3496585154612812</v>
       </c>
-      <c r="BO19">
+      <c r="BS19">
         <v>0.01003291514820883</v>
       </c>
-      <c r="BP19">
-        <v>0</v>
-      </c>
-      <c r="BQ19">
+      <c r="BT19">
+        <v>0</v>
+      </c>
+      <c r="BU19">
         <v>0.003506348798191762</v>
       </c>
-      <c r="BR19">
+      <c r="BV19">
         <v>0.007265679692659784</v>
       </c>
-      <c r="BS19">
-        <v>0</v>
-      </c>
-      <c r="BT19">
-        <v>0</v>
-      </c>
-      <c r="BU19">
+      <c r="BW19">
+        <v>0</v>
+      </c>
+      <c r="BX19">
+        <v>0</v>
+      </c>
+      <c r="BY19">
         <v>0.1854268225292215</v>
       </c>
-      <c r="BV19">
+      <c r="BZ19">
         <v>0.1642316929320597</v>
       </c>
-      <c r="BW19">
+      <c r="CA19">
         <v>1.821838857163438</v>
       </c>
-      <c r="BX19">
+      <c r="CB19">
+        <v>0.8320671647179391</v>
+      </c>
+      <c r="CC19">
+        <v>0.1251584857320063</v>
+      </c>
+      <c r="CD19">
+        <v>0.04277434955005455</v>
+      </c>
+      <c r="CE19">
         <v>4.008348342680025</v>
       </c>
-      <c r="BY19">
+      <c r="CF19">
         <v>0.04277434955005455</v>
       </c>
-      <c r="BZ19">
+      <c r="CG19">
         <v>0.01003291514820883</v>
       </c>
-      <c r="CA19">
+      <c r="CH19">
         <v>0.007265679692659784</v>
       </c>
-      <c r="CB19">
-        <v>0</v>
-      </c>
-      <c r="CC19">
+      <c r="CI19">
+        <v>0</v>
+      </c>
+      <c r="CJ19">
         <v>0.1541987777838509</v>
       </c>
-      <c r="CD19">
+      <c r="CK19">
         <v>0.07799097225580869</v>
       </c>
-      <c r="CE19">
+      <c r="CL19">
         <v>0.7546858264594847</v>
       </c>
-      <c r="CF19">
+      <c r="CM19">
         <v>0.6546944025339955</v>
       </c>
-      <c r="CG19">
+      <c r="CN19">
         <v>0.06765762810679109</v>
       </c>
-      <c r="CH19">
+      <c r="CO19">
         <v>0.8692449162917339</v>
       </c>
-      <c r="CI19">
+      <c r="CP19">
         <v>0.667091318605584</v>
       </c>
-      <c r="CJ19">
+      <c r="CQ19">
         <v>1.165232066489635</v>
       </c>
-      <c r="CK19">
+      <c r="CR19">
         <v>0.01669668536005101</v>
       </c>
-      <c r="CL19">
+      <c r="CS19">
         <v>0.3741236366989101</v>
       </c>
-      <c r="CM19">
+      <c r="CT19">
         <v>0.134947633016227</v>
       </c>
-      <c r="CN19">
+      <c r="CU19">
         <v>0.57196278896501</v>
       </c>
     </row>
-    <row r="20" spans="1:92">
+    <row r="20" spans="1:99">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5949,22 +6369,22 @@
         <v>17.6125149573878</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F20">
         <v>0.03737522181551789</v>
       </c>
       <c r="G20" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H20">
         <v>0.427375221815518</v>
       </c>
       <c r="I20" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J20">
         <v>50.93</v>
@@ -6039,184 +6459,205 @@
         <v>0.2068120891963691</v>
       </c>
       <c r="AH20">
+        <v>0.5901908514264318</v>
+      </c>
+      <c r="AI20">
+        <v>0.1041013802056693</v>
+      </c>
+      <c r="AJ20">
+        <v>0.3057077683678989</v>
+      </c>
+      <c r="AK20">
         <v>3.999817497781076</v>
       </c>
-      <c r="AI20">
+      <c r="AL20">
         <v>0.3057077683678989</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
         <v>0.1744779335294316</v>
       </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
         <v>0.004817957983052625</v>
       </c>
-      <c r="AN20">
+      <c r="AQ20">
         <v>0.3063818957743829</v>
       </c>
-      <c r="AO20">
+      <c r="AR20">
         <v>0.8500568901621762</v>
       </c>
-      <c r="AP20">
+      <c r="AS20">
         <v>0.08548969725774266</v>
       </c>
-      <c r="AQ20">
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
         <v>0.1213223919386264</v>
       </c>
-      <c r="AR20">
+      <c r="AV20">
         <v>0.02647663199504079</v>
       </c>
-      <c r="AS20">
+      <c r="AW20">
         <v>0.3597610440359109</v>
       </c>
-      <c r="AT20">
+      <c r="AX20">
         <v>0.4019497745707024</v>
       </c>
-      <c r="AU20">
+      <c r="AY20">
         <v>0.3597610440359109</v>
       </c>
-      <c r="AV20">
+      <c r="AZ20">
         <v>0.3058188860769606</v>
       </c>
-      <c r="AW20">
+      <c r="BA20">
         <v>-0.0003650044378488947</v>
       </c>
-      <c r="AX20">
+      <c r="BB20">
         <v>0.1748429379672805</v>
       </c>
-      <c r="AY20">
+      <c r="BC20">
         <v>52.95</v>
       </c>
-      <c r="AZ20">
+      <c r="BD20">
         <v>0.52</v>
       </c>
-      <c r="BA20">
+      <c r="BE20">
         <v>7.43</v>
       </c>
-      <c r="BB20">
+      <c r="BF20">
         <v>8.01</v>
       </c>
-      <c r="BC20">
-        <v>0</v>
-      </c>
-      <c r="BD20">
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
         <v>28.72</v>
       </c>
-      <c r="BE20">
+      <c r="BI20">
         <v>1.93</v>
       </c>
-      <c r="BF20">
+      <c r="BJ20">
         <v>0.27</v>
       </c>
-      <c r="BG20">
-        <v>0</v>
-      </c>
-      <c r="BH20">
+      <c r="BK20">
+        <v>0</v>
+      </c>
+      <c r="BL20">
         <v>0.16</v>
       </c>
-      <c r="BI20">
+      <c r="BM20">
         <v>18</v>
       </c>
-      <c r="BJ20">
+      <c r="BN20">
         <v>1.848702475471231</v>
       </c>
-      <c r="BK20">
+      <c r="BO20">
         <v>1.494837690229562</v>
       </c>
-      <c r="BL20">
+      <c r="BP20">
         <v>0.2338781061325325</v>
       </c>
-      <c r="BM20">
+      <c r="BQ20">
         <v>0.07219905340519464</v>
       </c>
-      <c r="BN20">
+      <c r="BR20">
         <v>0.3057361464668906</v>
       </c>
-      <c r="BO20">
+      <c r="BS20">
         <v>0.01827729661506991</v>
       </c>
-      <c r="BP20">
-        <v>0</v>
-      </c>
-      <c r="BQ20">
-        <v>0</v>
-      </c>
-      <c r="BR20">
+      <c r="BT20">
+        <v>0</v>
+      </c>
+      <c r="BU20">
+        <v>0</v>
+      </c>
+      <c r="BV20">
         <v>0.01365632600916762</v>
       </c>
-      <c r="BS20">
+      <c r="BW20">
         <v>0.004416452842694994</v>
       </c>
-      <c r="BT20">
-        <v>0</v>
-      </c>
-      <c r="BU20">
+      <c r="BX20">
+        <v>0</v>
+      </c>
+      <c r="BY20">
         <v>0.1512975245287687</v>
       </c>
-      <c r="BV20">
+      <c r="BZ20">
         <v>0.1544386219381219</v>
       </c>
-      <c r="BW20">
+      <c r="CA20">
         <v>1.862358801480399</v>
       </c>
-      <c r="BX20">
+      <c r="CB20">
+        <v>0.8300435139522128</v>
+      </c>
+      <c r="CC20">
+        <v>0.1298662766664142</v>
+      </c>
+      <c r="CD20">
+        <v>0.04009020938137306</v>
+      </c>
+      <c r="CE20">
         <v>3.991703547172344</v>
       </c>
-      <c r="BY20">
+      <c r="CF20">
         <v>0.04009020938137306</v>
       </c>
-      <c r="BZ20">
+      <c r="CG20">
         <v>0.01827729661506991</v>
       </c>
-      <c r="CA20">
+      <c r="CH20">
         <v>0.01365632600916762</v>
       </c>
-      <c r="CB20">
+      <c r="CI20">
         <v>0.004416452842694994</v>
       </c>
-      <c r="CC20">
+      <c r="CJ20">
         <v>0.131744872480357</v>
       </c>
-      <c r="CD20">
+      <c r="CK20">
         <v>0.07219905340519464</v>
       </c>
-      <c r="CE20">
+      <c r="CL20">
         <v>0.7555577722336878</v>
       </c>
-      <c r="CF20">
+      <c r="CM20">
         <v>0.6533382973983245</v>
       </c>
-      <c r="CG20">
+      <c r="CN20">
         <v>0.06243123737059666</v>
       </c>
-      <c r="CH20">
+      <c r="CO20">
         <v>0.8647060075139015</v>
       </c>
-      <c r="CI20">
+      <c r="CP20">
         <v>0.6765863920553955</v>
       </c>
-      <c r="CJ20">
+      <c r="CQ20">
         <v>1.127375221815518</v>
       </c>
-      <c r="CK20">
-        <v>0</v>
-      </c>
-      <c r="CL20">
+      <c r="CR20">
+        <v>0</v>
+      </c>
+      <c r="CS20">
         <v>0.4343298177612585</v>
       </c>
-      <c r="CM20">
+      <c r="CT20">
         <v>0.1480635763928493</v>
       </c>
-      <c r="CN20">
+      <c r="CU20">
         <v>0.5642558677992351</v>
       </c>
     </row>
-    <row r="21" spans="1:92">
+    <row r="21" spans="1:99">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6227,22 +6668,22 @@
         <v>23.20235756339707</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F21">
         <v>0.03834722476096397</v>
       </c>
       <c r="G21" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H21">
         <v>0.4283472247609641</v>
       </c>
       <c r="I21" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J21">
         <v>51.63</v>
@@ -6317,184 +6758,205 @@
         <v>0.1989889802896281</v>
       </c>
       <c r="AH21">
+        <v>0.6620403870570497</v>
+      </c>
+      <c r="AI21">
+        <v>0.1208454734143393</v>
+      </c>
+      <c r="AJ21">
+        <v>0.217114139528611</v>
+      </c>
+      <c r="AK21">
         <v>3.999951108531464</v>
       </c>
-      <c r="AI21">
+      <c r="AL21">
         <v>0.217114139528611</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
         <v>0.2072638353874006</v>
       </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21">
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
         <v>0.004082055034965694</v>
       </c>
-      <c r="AN21">
+      <c r="AQ21">
         <v>0.4385340762954106</v>
       </c>
-      <c r="AO21">
+      <c r="AR21">
         <v>0.8456366460408655</v>
       </c>
-      <c r="AP21">
+      <c r="AS21">
         <v>0.06696951727757079</v>
       </c>
-      <c r="AQ21">
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
         <v>0.1320194630120573</v>
       </c>
-      <c r="AR21">
+      <c r="AV21">
         <v>0.01474706784893073</v>
       </c>
-      <c r="AS21">
+      <c r="AW21">
         <v>0.2215270439403852</v>
       </c>
-      <c r="AT21">
+      <c r="AX21">
         <v>0.5606059614175545</v>
       </c>
-      <c r="AU21">
+      <c r="AY21">
         <v>0.2215270439403852</v>
       </c>
-      <c r="AV21">
+      <c r="AZ21">
         <v>0.1873323524141697</v>
       </c>
-      <c r="AW21">
+      <c r="BA21">
         <v>-9.778293707081269E-05</v>
       </c>
-      <c r="AX21">
+      <c r="BB21">
         <v>0.2073616183244714</v>
       </c>
-      <c r="AY21">
+      <c r="BC21">
         <v>52.92</v>
       </c>
-      <c r="AZ21">
+      <c r="BD21">
         <v>0.23</v>
       </c>
-      <c r="BA21">
+      <c r="BE21">
         <v>7.39</v>
       </c>
-      <c r="BB21">
+      <c r="BF21">
         <v>8.210000000000001</v>
       </c>
-      <c r="BC21">
-        <v>0</v>
-      </c>
-      <c r="BD21">
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
         <v>28.47</v>
       </c>
-      <c r="BE21">
+      <c r="BI21">
         <v>2.22</v>
       </c>
-      <c r="BF21">
+      <c r="BJ21">
         <v>0.32</v>
       </c>
-      <c r="BG21">
-        <v>0</v>
-      </c>
-      <c r="BH21">
+      <c r="BK21">
+        <v>0</v>
+      </c>
+      <c r="BL21">
         <v>0.24</v>
       </c>
-      <c r="BI21">
+      <c r="BM21">
         <v>19</v>
       </c>
-      <c r="BJ21">
+      <c r="BN21">
         <v>1.851084217747011</v>
       </c>
-      <c r="BK21">
+      <c r="BO21">
         <v>1.484575726112232</v>
       </c>
-      <c r="BL21">
+      <c r="BP21">
         <v>0.2401626647415482</v>
       </c>
-      <c r="BM21">
+      <c r="BQ21">
         <v>0.08320174852315879</v>
       </c>
-      <c r="BN21">
+      <c r="BR21">
         <v>0.3046545693381155</v>
       </c>
-      <c r="BO21">
+      <c r="BS21">
         <v>0.02170218484908133</v>
       </c>
-      <c r="BP21">
-        <v>0</v>
-      </c>
-      <c r="BQ21">
-        <v>0</v>
-      </c>
-      <c r="BR21">
+      <c r="BT21">
+        <v>0</v>
+      </c>
+      <c r="BU21">
+        <v>0</v>
+      </c>
+      <c r="BV21">
         <v>0.006051508567605454</v>
       </c>
-      <c r="BS21">
+      <c r="BW21">
         <v>0.006636974374742892</v>
       </c>
-      <c r="BT21">
-        <v>0</v>
-      </c>
-      <c r="BU21">
+      <c r="BX21">
+        <v>0</v>
+      </c>
+      <c r="BY21">
         <v>0.148915782252989</v>
       </c>
-      <c r="BV21">
+      <c r="BZ21">
         <v>0.1557387870851266</v>
       </c>
-      <c r="BW21">
+      <c r="CA21">
         <v>1.857135726314616</v>
       </c>
-      <c r="BX21">
+      <c r="CB21">
+        <v>0.8211420797504134</v>
+      </c>
+      <c r="CC21">
+        <v>0.1328377303599854</v>
+      </c>
+      <c r="CD21">
+        <v>0.04602018988960119</v>
+      </c>
+      <c r="CE21">
         <v>3.998069594253495</v>
       </c>
-      <c r="BY21">
+      <c r="CF21">
         <v>0.04602018988960119</v>
       </c>
-      <c r="BZ21">
+      <c r="CG21">
         <v>0.02170218484908133</v>
       </c>
-      <c r="CA21">
+      <c r="CH21">
         <v>0.006051508567605454</v>
       </c>
-      <c r="CB21">
+      <c r="CI21">
         <v>0.006636974374742892</v>
       </c>
-      <c r="CC21">
+      <c r="CJ21">
         <v>0.1273996278613024</v>
       </c>
-      <c r="CD21">
+      <c r="CK21">
         <v>0.08320174852315879</v>
       </c>
-      <c r="CE21">
+      <c r="CL21">
         <v>0.754042752950857</v>
       </c>
-      <c r="CF21">
+      <c r="CM21">
         <v>0.6490454282330568</v>
       </c>
-      <c r="CG21">
+      <c r="CN21">
         <v>0.0716162502571948</v>
       </c>
-      <c r="CH21">
+      <c r="CO21">
         <v>0.8607501452709334</v>
       </c>
-      <c r="CI21">
+      <c r="CP21">
         <v>0.6616665037017034</v>
       </c>
-      <c r="CJ21">
+      <c r="CQ21">
         <v>1.128347224760964</v>
       </c>
-      <c r="CK21">
-        <v>0</v>
-      </c>
-      <c r="CL21">
+      <c r="CR21">
+        <v>0</v>
+      </c>
+      <c r="CS21">
         <v>0.3352576977113866</v>
       </c>
-      <c r="CM21">
+      <c r="CT21">
         <v>0.132566153384807</v>
       </c>
-      <c r="CN21">
+      <c r="CU21">
         <v>0.5526150079977926</v>
       </c>
     </row>
-    <row r="22" spans="1:92">
+    <row r="22" spans="1:99">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6505,22 +6967,22 @@
         <v>25.67194656878541</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F22">
         <v>0.003163923543429092</v>
       </c>
       <c r="G22" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H22">
         <v>0.3931639235434292</v>
       </c>
       <c r="I22" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J22">
         <v>51.39</v>
@@ -6595,184 +7057,205 @@
         <v>0.2298856960366975</v>
       </c>
       <c r="AH22">
+        <v>0.6385268812297367</v>
+      </c>
+      <c r="AI22">
+        <v>0.1386997733819909</v>
+      </c>
+      <c r="AJ22">
+        <v>0.2227733453882724</v>
+      </c>
+      <c r="AK22">
         <v>3.999861379079573</v>
       </c>
-      <c r="AI22">
+      <c r="AL22">
         <v>0.2227733453882724</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
         <v>0.2260667167892667</v>
       </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
         <v>0.002117378863566059</v>
       </c>
-      <c r="AN22">
+      <c r="AQ22">
         <v>0.3892314782125307</v>
       </c>
-      <c r="AO22">
+      <c r="AR22">
         <v>0.8215403717111716</v>
       </c>
-      <c r="AP22">
+      <c r="AS22">
         <v>0.1135470195195122</v>
       </c>
-      <c r="AQ22">
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
         <v>0.1163386765171854</v>
       </c>
-      <c r="AR22">
+      <c r="AV22">
         <v>0.02427297986130177</v>
       </c>
-      <c r="AS22">
+      <c r="AW22">
         <v>0.2203691699827518</v>
       </c>
-      <c r="AT22">
+      <c r="AX22">
         <v>0.523216154335256</v>
       </c>
-      <c r="AU22">
+      <c r="AY22">
         <v>0.2203691699827518</v>
       </c>
-      <c r="AV22">
+      <c r="AZ22">
         <v>0.1810432490874445</v>
       </c>
-      <c r="AW22">
+      <c r="BA22">
         <v>-0.0002772418408525665</v>
       </c>
-      <c r="AX22">
+      <c r="BB22">
         <v>0.2263439586301192</v>
       </c>
-      <c r="AY22">
+      <c r="BC22">
         <v>52.41</v>
       </c>
-      <c r="AZ22">
+      <c r="BD22">
         <v>0.5</v>
       </c>
-      <c r="BA22">
+      <c r="BE22">
         <v>7.66</v>
       </c>
-      <c r="BB22">
+      <c r="BF22">
         <v>9.67</v>
       </c>
-      <c r="BC22">
-        <v>0</v>
-      </c>
-      <c r="BD22">
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
         <v>27.3</v>
       </c>
-      <c r="BE22">
+      <c r="BI22">
         <v>1.83</v>
       </c>
-      <c r="BF22">
+      <c r="BJ22">
         <v>0.54</v>
       </c>
-      <c r="BG22">
-        <v>0</v>
-      </c>
-      <c r="BH22">
+      <c r="BK22">
+        <v>0</v>
+      </c>
+      <c r="BL22">
         <v>0.09</v>
       </c>
-      <c r="BI22">
+      <c r="BM22">
         <v>20</v>
       </c>
-      <c r="BJ22">
+      <c r="BN22">
         <v>1.844451339363963</v>
       </c>
-      <c r="BK22">
+      <c r="BO22">
         <v>1.43226782202421</v>
       </c>
-      <c r="BL22">
+      <c r="BP22">
         <v>0.2846004028384017</v>
       </c>
-      <c r="BM22">
+      <c r="BQ22">
         <v>0.06900447696693206</v>
       </c>
-      <c r="BN22">
+      <c r="BR22">
         <v>0.317715737449353</v>
       </c>
-      <c r="BO22">
+      <c r="BS22">
         <v>0.03684630473791218</v>
       </c>
-      <c r="BP22">
-        <v>0</v>
-      </c>
-      <c r="BQ22">
-        <v>0</v>
-      </c>
-      <c r="BR22">
+      <c r="BT22">
+        <v>0</v>
+      </c>
+      <c r="BU22">
+        <v>0</v>
+      </c>
+      <c r="BV22">
         <v>0.01323587084386888</v>
       </c>
-      <c r="BS22">
+      <c r="BW22">
         <v>0.002504079474538278</v>
       </c>
-      <c r="BT22">
-        <v>0</v>
-      </c>
-      <c r="BU22">
+      <c r="BX22">
+        <v>0</v>
+      </c>
+      <c r="BY22">
         <v>0.155548660636037</v>
       </c>
-      <c r="BV22">
+      <c r="BZ22">
         <v>0.162167076813316</v>
       </c>
-      <c r="BW22">
+      <c r="CA22">
         <v>1.857687210207832</v>
       </c>
-      <c r="BX22">
+      <c r="CB22">
+        <v>0.8019988325914372</v>
+      </c>
+      <c r="CC22">
+        <v>0.1593620880966722</v>
+      </c>
+      <c r="CD22">
+        <v>0.03863907931189058</v>
+      </c>
+      <c r="CE22">
         <v>4.000626033699179</v>
       </c>
-      <c r="BY22">
+      <c r="CF22">
         <v>0.03863907931189058</v>
       </c>
-      <c r="BZ22">
+      <c r="CG22">
         <v>0.03684630473791218</v>
       </c>
-      <c r="CA22">
+      <c r="CH22">
         <v>0.01323587084386888</v>
       </c>
-      <c r="CB22">
+      <c r="CI22">
         <v>0.002504079474538278</v>
       </c>
-      <c r="CC22">
+      <c r="CJ22">
         <v>0.1228166926008655</v>
       </c>
-      <c r="CD22">
+      <c r="CK22">
         <v>0.06900447696693206</v>
       </c>
-      <c r="CE22">
+      <c r="CL22">
         <v>0.7559055922254725</v>
       </c>
-      <c r="CF22">
+      <c r="CM22">
         <v>0.630601254396991</v>
       </c>
-      <c r="CG22">
+      <c r="CN22">
         <v>0.05756579946213194</v>
       </c>
-      <c r="CH22">
+      <c r="CO22">
         <v>0.8342282011179973</v>
       </c>
-      <c r="CI22">
+      <c r="CP22">
         <v>0.6528593784263403</v>
       </c>
-      <c r="CJ22">
+      <c r="CQ22">
         <v>1.093163923543429</v>
       </c>
-      <c r="CK22">
+      <c r="CR22">
         <v>0.001252067398357143</v>
       </c>
-      <c r="CL22">
+      <c r="CS22">
         <v>0.327101955213809</v>
       </c>
-      <c r="CM22">
+      <c r="CT22">
         <v>0.1083439825935619</v>
       </c>
-      <c r="CN22">
+      <c r="CU22">
         <v>0.5132159573216484</v>
       </c>
     </row>
-    <row r="23" spans="1:92">
+    <row r="23" spans="1:99">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6783,22 +7266,22 @@
         <v>5.3666073031756</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F23">
         <v>0.001964847370438561</v>
       </c>
       <c r="G23" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H23">
         <v>0.3919648473704387</v>
       </c>
       <c r="I23" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J23">
         <v>52.98</v>
@@ -6873,184 +7356,205 @@
         <v>0.1019999071422846</v>
       </c>
       <c r="AH23">
+        <v>0.5712734112393918</v>
+      </c>
+      <c r="AI23">
+        <v>0.05687129399788658</v>
+      </c>
+      <c r="AJ23">
+        <v>0.3718552947627217</v>
+      </c>
+      <c r="AK23">
         <v>3.988974939290318</v>
       </c>
-      <c r="AI23">
+      <c r="AL23">
         <v>0.3718552947627217</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
         <v>0.103825753302678</v>
       </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
         <v>0.01917923683752244</v>
       </c>
-      <c r="AN23">
+      <c r="AQ23">
         <v>0.2645999174724792</v>
       </c>
-      <c r="AO23">
+      <c r="AR23">
         <v>0.9094587260911187</v>
       </c>
-      <c r="AP23">
+      <c r="AS23">
         <v>0.01590907122840889</v>
       </c>
-      <c r="AQ23">
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
         <v>0.08609083591387573</v>
       </c>
-      <c r="AR23">
+      <c r="AV23">
         <v>0.01191105646639376</v>
       </c>
-      <c r="AS23">
+      <c r="AW23">
         <v>0.5616878288151254</v>
       </c>
-      <c r="AT23">
+      <c r="AX23">
         <v>0.292534961117695</v>
       </c>
-      <c r="AU23">
+      <c r="AY23">
         <v>0.5616878288151254</v>
       </c>
-      <c r="AV23">
+      <c r="AZ23">
         <v>0.5093570617275696</v>
       </c>
-      <c r="AW23">
+      <c r="BA23">
         <v>-0.0220501214193669</v>
       </c>
-      <c r="AX23">
+      <c r="BB23">
         <v>0.125875874722045</v>
       </c>
-      <c r="AY23">
+      <c r="BC23">
         <v>56.89</v>
       </c>
-      <c r="AZ23">
+      <c r="BD23">
         <v>0.04</v>
       </c>
-      <c r="BA23">
+      <c r="BE23">
         <v>3.19</v>
       </c>
-      <c r="BB23">
+      <c r="BF23">
         <v>5.48</v>
       </c>
-      <c r="BC23">
+      <c r="BG23">
         <v>0.1</v>
       </c>
-      <c r="BD23">
+      <c r="BH23">
         <v>33.72</v>
       </c>
-      <c r="BE23">
+      <c r="BI23">
         <v>1.05</v>
       </c>
-      <c r="BF23">
-        <v>0</v>
-      </c>
-      <c r="BG23">
-        <v>0</v>
-      </c>
-      <c r="BH23">
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <v>0</v>
+      </c>
+      <c r="BL23">
         <v>0.84</v>
       </c>
-      <c r="BI23">
+      <c r="BM23">
         <v>21</v>
       </c>
-      <c r="BJ23">
+      <c r="BN23">
         <v>1.933533375394973</v>
       </c>
-      <c r="BK23">
+      <c r="BO23">
         <v>1.708487677249445</v>
       </c>
-      <c r="BL23">
+      <c r="BP23">
         <v>0.1557586920773305</v>
       </c>
-      <c r="BM23">
+      <c r="BQ23">
         <v>0.03823650374625578</v>
       </c>
-      <c r="BN23">
+      <c r="BR23">
         <v>0.1277801335137031</v>
       </c>
-      <c r="BO23">
-        <v>0</v>
-      </c>
-      <c r="BP23">
-        <v>0</v>
-      </c>
-      <c r="BQ23">
+      <c r="BS23">
+        <v>0</v>
+      </c>
+      <c r="BT23">
+        <v>0</v>
+      </c>
+      <c r="BU23">
         <v>0.00287872955258104</v>
       </c>
-      <c r="BR23">
+      <c r="BV23">
         <v>0.001022598625098111</v>
       </c>
-      <c r="BS23">
+      <c r="BW23">
         <v>0.02257083270912718</v>
       </c>
-      <c r="BT23">
-        <v>0</v>
-      </c>
-      <c r="BU23">
+      <c r="BX23">
+        <v>0</v>
+      </c>
+      <c r="BY23">
         <v>0.06646662460502739</v>
       </c>
-      <c r="BV23">
+      <c r="BZ23">
         <v>0.06131350890867568</v>
       </c>
-      <c r="BW23">
+      <c r="CA23">
         <v>1.934555974020071</v>
       </c>
-      <c r="BX23">
+      <c r="CB23">
+        <v>0.898030516558485</v>
+      </c>
+      <c r="CC23">
+        <v>0.08187127163238928</v>
+      </c>
+      <c r="CD23">
+        <v>0.02009821180912569</v>
+      </c>
+      <c r="CE23">
         <v>3.990268542868513</v>
       </c>
-      <c r="BY23">
+      <c r="CF23">
         <v>0.02009821180912569</v>
       </c>
-      <c r="BZ23">
-        <v>0</v>
-      </c>
-      <c r="CA23">
+      <c r="CG23">
+        <v>0</v>
+      </c>
+      <c r="CH23">
         <v>0.001022598625098111</v>
       </c>
-      <c r="CB23">
+      <c r="CI23">
         <v>0.02257083270912718</v>
       </c>
-      <c r="CC23">
+      <c r="CJ23">
         <v>0.03874267619954851</v>
       </c>
-      <c r="CD23">
+      <c r="CK23">
         <v>0.03823650374625578</v>
       </c>
-      <c r="CE23">
+      <c r="CL23">
         <v>0.8945616601542273</v>
       </c>
-      <c r="CF23">
+      <c r="CM23">
         <v>0.8185566001070916</v>
       </c>
-      <c r="CG23">
+      <c r="CN23">
         <v>0.03498779782393215</v>
       </c>
-      <c r="CH23">
+      <c r="CO23">
         <v>0.9164469551211019</v>
       </c>
-      <c r="CI23">
+      <c r="CP23">
         <v>0.8417691953279121</v>
       </c>
-      <c r="CJ23">
+      <c r="CQ23">
         <v>1.091964847370439</v>
       </c>
-      <c r="CK23">
-        <v>0</v>
-      </c>
-      <c r="CL23">
+      <c r="CR23">
+        <v>0</v>
+      </c>
+      <c r="CS23">
         <v>0.5339199432974739</v>
       </c>
-      <c r="CM23">
+      <c r="CT23">
         <v>0.1190682268273996</v>
       </c>
-      <c r="CN23">
+      <c r="CU23">
         <v>0.7372429850979716</v>
       </c>
     </row>
-    <row r="24" spans="1:92">
+    <row r="24" spans="1:99">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -7061,22 +7565,22 @@
         <v>10.3214344688471</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F24">
         <v>0.02320331545587506</v>
       </c>
       <c r="G24" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H24">
         <v>0.3667966845441251</v>
       </c>
       <c r="I24" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J24">
         <v>53.77</v>
@@ -7151,180 +7655,201 @@
         <v>0.08712490601394404</v>
       </c>
       <c r="AH24">
+        <v>0.5908624830784129</v>
+      </c>
+      <c r="AI24">
+        <v>0.05817959639181886</v>
+      </c>
+      <c r="AJ24">
+        <v>0.3509579205297682</v>
+      </c>
+      <c r="AK24">
         <v>3.986755073121157</v>
       </c>
-      <c r="AI24">
+      <c r="AL24">
         <v>0.3509579205297682</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
         <v>0.1067733864000706</v>
       </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
         <v>0.02116917973967892</v>
       </c>
-      <c r="AN24">
+      <c r="AQ24">
         <v>0.299570351050537</v>
       </c>
-      <c r="AO24">
+      <c r="AR24">
         <v>0.9103580992031046</v>
       </c>
-      <c r="AP24">
+      <c r="AS24">
         <v>0.0158153750585587</v>
       </c>
-      <c r="AQ24">
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
         <v>0.07130953095538534</v>
       </c>
-      <c r="AR24">
+      <c r="AV24">
         <v>0.01085870263958563</v>
       </c>
-      <c r="AS24">
+      <c r="AW24">
         <v>0.5407537798479762</v>
       </c>
-      <c r="AT24">
+      <c r="AX24">
         <v>0.325196343984913</v>
       </c>
-      <c r="AU24">
+      <c r="AY24">
         <v>0.5407537798479762</v>
       </c>
-      <c r="AV24">
+      <c r="AZ24">
         <v>0.4909192137873793</v>
       </c>
-      <c r="AW24">
+      <c r="BA24">
         <v>-0.02648985375768245</v>
       </c>
-      <c r="AX24">
+      <c r="BB24">
         <v>0.133263240157753</v>
       </c>
-      <c r="AY24">
+      <c r="BC24">
         <v>56.66</v>
       </c>
-      <c r="AZ24">
+      <c r="BD24">
         <v>0.05</v>
       </c>
-      <c r="BA24">
+      <c r="BE24">
         <v>3.47</v>
       </c>
-      <c r="BB24">
+      <c r="BF24">
         <v>5.4</v>
       </c>
-      <c r="BC24">
+      <c r="BG24">
         <v>0.12</v>
       </c>
-      <c r="BD24">
+      <c r="BH24">
         <v>32.82</v>
       </c>
-      <c r="BE24">
+      <c r="BI24">
         <v>1.56</v>
       </c>
-      <c r="BF24">
+      <c r="BJ24">
         <v>0.04</v>
       </c>
-      <c r="BG24">
-        <v>0</v>
-      </c>
-      <c r="BH24">
+      <c r="BK24">
+        <v>0</v>
+      </c>
+      <c r="BL24">
         <v>0.9399999999999999</v>
       </c>
-      <c r="BI24">
+      <c r="BM24">
         <v>22</v>
       </c>
-      <c r="BJ24">
+      <c r="BN24">
         <v>1.932698820082898</v>
       </c>
-      <c r="BK24">
+      <c r="BO24">
         <v>1.668916981141206</v>
       </c>
-      <c r="BL24">
+      <c r="BP24">
         <v>0.1540413674126703</v>
       </c>
-      <c r="BM24">
+      <c r="BQ24">
         <v>0.05701450340494062</v>
       </c>
-      <c r="BN24">
+      <c r="BR24">
         <v>0.1394999337723593</v>
       </c>
-      <c r="BO24">
+      <c r="BS24">
         <v>0.00264542065473003</v>
       </c>
-      <c r="BP24">
-        <v>0</v>
-      </c>
-      <c r="BQ24">
+      <c r="BT24">
+        <v>0</v>
+      </c>
+      <c r="BU24">
         <v>0.003467001139399761</v>
       </c>
-      <c r="BR24">
+      <c r="BV24">
         <v>0.001282883116495295</v>
       </c>
-      <c r="BS24">
+      <c r="BW24">
         <v>0.02534941967806201</v>
       </c>
-      <c r="BT24">
-        <v>0</v>
-      </c>
-      <c r="BU24">
+      <c r="BX24">
+        <v>0</v>
+      </c>
+      <c r="BY24">
         <v>0.06730117991710238</v>
       </c>
-      <c r="BV24">
+      <c r="BZ24">
         <v>0.07219875385525693</v>
       </c>
-      <c r="BW24">
+      <c r="CA24">
         <v>1.933981703199393</v>
       </c>
-      <c r="BX24">
+      <c r="CB24">
+        <v>0.8877346177644515</v>
+      </c>
+      <c r="CC24">
+        <v>0.08193808078247967</v>
+      </c>
+      <c r="CD24">
+        <v>0.03032730145306885</v>
+      </c>
+      <c r="CE24">
         <v>3.984916330402761</v>
       </c>
-      <c r="BY24">
+      <c r="CF24">
         <v>0.03032730145306885</v>
       </c>
-      <c r="BZ24">
+      <c r="CG24">
         <v>0.00264542065473003</v>
       </c>
-      <c r="CA24">
+      <c r="CH24">
         <v>0.001282883116495295</v>
       </c>
-      <c r="CB24">
+      <c r="CI24">
         <v>0.02534941967806201</v>
       </c>
-      <c r="CC24">
+      <c r="CJ24">
         <v>0.04420391352246489</v>
       </c>
-      <c r="CD24">
+      <c r="CK24">
         <v>0.05701450340494062</v>
       </c>
-      <c r="CE24">
+      <c r="CL24">
         <v>0.861962024824688</v>
       </c>
-      <c r="CF24">
+      <c r="CM24">
         <v>0.7876276249507617</v>
       </c>
-      <c r="CG24">
+      <c r="CN24">
         <v>0.05209765234577921</v>
       </c>
-      <c r="CH24">
+      <c r="CO24">
         <v>0.9154966548994569</v>
       </c>
-      <c r="CI24">
+      <c r="CP24">
         <v>0.8086269559744611</v>
       </c>
-      <c r="CJ24">
+      <c r="CQ24">
         <v>1.066796684544125</v>
       </c>
-      <c r="CK24">
-        <v>0</v>
-      </c>
-      <c r="CL24">
+      <c r="CR24">
+        <v>0</v>
+      </c>
+      <c r="CS24">
         <v>0.5116772454728077</v>
       </c>
-      <c r="CM24">
+      <c r="CT24">
         <v>0.1601941348818498</v>
       </c>
-      <c r="CN24">
+      <c r="CU24">
         <v>0.7071728844910773</v>
       </c>
     </row>
